--- a/config/project/Integrate_120KW_megmeet/IntegrateConfig.xlsx
+++ b/config/project/Integrate_120KW_megmeet/IntegrateConfig.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="510">
   <si>
     <t>组序号</t>
   </si>
@@ -2593,6 +2593,10 @@
   </si>
   <si>
     <t>NA</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZC</t>
     <phoneticPr fontId="36" type="noConversion"/>
   </si>
 </sst>
@@ -3512,7 +3516,7 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3906,36 +3910,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3947,27 +3975,6 @@
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -4328,8 +4335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E188" sqref="E188"/>
+    <sheetView tabSelected="1" topLeftCell="B103" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4667,11 +4674,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="143"/>
-      <c r="B15" s="143" t="s">
+      <c r="A15" s="160"/>
+      <c r="B15" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="143" t="s">
+      <c r="C15" s="160" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
@@ -4688,9 +4695,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="144"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
+      <c r="A16" s="146"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="146"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
@@ -4705,9 +4712,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="144"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="144"/>
+      <c r="A17" s="146"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="146"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
@@ -4722,9 +4729,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="144"/>
-      <c r="B18" s="144"/>
-      <c r="C18" s="144"/>
+      <c r="A18" s="146"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="146"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
@@ -4739,9 +4746,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="144"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="144"/>
+      <c r="A19" s="146"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
@@ -4802,11 +4809,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="151"/>
-      <c r="B22" s="151" t="s">
+      <c r="A22" s="147"/>
+      <c r="B22" s="147" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="151" t="s">
+      <c r="C22" s="147" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="20">
@@ -4823,9 +4830,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="147"/>
-      <c r="B23" s="147"/>
-      <c r="C23" s="147"/>
+      <c r="A23" s="148"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="148"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
@@ -4840,9 +4847,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="147"/>
-      <c r="B24" s="147"/>
-      <c r="C24" s="147"/>
+      <c r="A24" s="148"/>
+      <c r="B24" s="148"/>
+      <c r="C24" s="148"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
@@ -4857,9 +4864,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="147"/>
-      <c r="B25" s="147"/>
-      <c r="C25" s="147"/>
+      <c r="A25" s="148"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="148"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
@@ -4874,9 +4881,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="152"/>
-      <c r="B26" s="152"/>
-      <c r="C26" s="152"/>
+      <c r="A26" s="150"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="150"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
@@ -4933,11 +4940,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="156"/>
-      <c r="B29" s="153" t="s">
+      <c r="A29" s="164"/>
+      <c r="B29" s="161" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="153" t="s">
+      <c r="C29" s="161" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -4954,9 +4961,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="154"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="154"/>
+      <c r="A30" s="162"/>
+      <c r="B30" s="162"/>
+      <c r="C30" s="162"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
@@ -4971,9 +4978,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="154"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="154"/>
+      <c r="A31" s="162"/>
+      <c r="B31" s="162"/>
+      <c r="C31" s="162"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
@@ -4988,9 +4995,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="154"/>
-      <c r="B32" s="154"/>
-      <c r="C32" s="154"/>
+      <c r="A32" s="162"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="162"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
@@ -5005,9 +5012,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="155"/>
-      <c r="B33" s="155"/>
-      <c r="C33" s="155"/>
+      <c r="A33" s="163"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="163"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
@@ -5022,11 +5029,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="144"/>
-      <c r="B34" s="144" t="s">
+      <c r="A34" s="146"/>
+      <c r="B34" s="146" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="144" t="s">
+      <c r="C34" s="146" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
@@ -5043,9 +5050,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="144"/>
-      <c r="B35" s="144"/>
-      <c r="C35" s="144"/>
+      <c r="A35" s="146"/>
+      <c r="B35" s="146"/>
+      <c r="C35" s="146"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
@@ -5060,11 +5067,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="144"/>
-      <c r="B36" s="144" t="s">
+      <c r="A36" s="146"/>
+      <c r="B36" s="146" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="143" t="s">
+      <c r="C36" s="160" t="s">
         <v>148</v>
       </c>
       <c r="D36" s="20">
@@ -5081,9 +5088,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="144"/>
-      <c r="B37" s="144"/>
-      <c r="C37" s="144"/>
+      <c r="A37" s="146"/>
+      <c r="B37" s="146"/>
+      <c r="C37" s="146"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
@@ -5098,7 +5105,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="144"/>
+      <c r="A38" s="146"/>
       <c r="B38" s="145" t="s">
         <v>143</v>
       </c>
@@ -5119,9 +5126,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="144"/>
-      <c r="B39" s="144"/>
-      <c r="C39" s="144"/>
+      <c r="A39" s="146"/>
+      <c r="B39" s="146"/>
+      <c r="C39" s="146"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
@@ -5136,8 +5143,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="144"/>
-      <c r="B40" s="144" t="s">
+      <c r="A40" s="146"/>
+      <c r="B40" s="146" t="s">
         <v>51</v>
       </c>
       <c r="C40" s="145" t="s">
@@ -5157,9 +5164,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="144"/>
-      <c r="B41" s="144"/>
-      <c r="C41" s="144"/>
+      <c r="A41" s="146"/>
+      <c r="B41" s="146"/>
+      <c r="C41" s="146"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
@@ -5174,9 +5181,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="144"/>
-      <c r="B42" s="144"/>
-      <c r="C42" s="144"/>
+      <c r="A42" s="146"/>
+      <c r="B42" s="146"/>
+      <c r="C42" s="146"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
@@ -5191,9 +5198,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="144"/>
-      <c r="B43" s="144"/>
-      <c r="C43" s="144"/>
+      <c r="A43" s="146"/>
+      <c r="B43" s="146"/>
+      <c r="C43" s="146"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
@@ -5208,9 +5215,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="144"/>
-      <c r="B44" s="144"/>
-      <c r="C44" s="144"/>
+      <c r="A44" s="146"/>
+      <c r="B44" s="146"/>
+      <c r="C44" s="146"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
@@ -5225,11 +5232,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="144">
+      <c r="A45" s="146">
         <v>13</v>
       </c>
-      <c r="B45" s="144"/>
-      <c r="C45" s="144" t="s">
+      <c r="B45" s="146"/>
+      <c r="C45" s="146" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -5310,10 +5317,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="157"/>
-      <c r="B49" s="148" t="s">
+      <c r="B49" s="158" t="s">
         <v>198</v>
       </c>
-      <c r="C49" s="149" t="s">
+      <c r="C49" s="159" t="s">
         <v>287</v>
       </c>
       <c r="D49" s="20">
@@ -5330,9 +5337,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="144"/>
-      <c r="B50" s="144"/>
-      <c r="C50" s="144"/>
+      <c r="A50" s="146"/>
+      <c r="B50" s="146"/>
+      <c r="C50" s="146"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
@@ -5347,9 +5354,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="144"/>
-      <c r="B51" s="144"/>
-      <c r="C51" s="144"/>
+      <c r="A51" s="146"/>
+      <c r="B51" s="146"/>
+      <c r="C51" s="146"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
@@ -5448,11 +5455,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="151"/>
-      <c r="B56" s="146" t="s">
+      <c r="A56" s="147"/>
+      <c r="B56" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="151" t="s">
+      <c r="C56" s="147" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="20">
@@ -5469,9 +5476,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="147"/>
-      <c r="B57" s="147"/>
-      <c r="C57" s="147"/>
+      <c r="A57" s="148"/>
+      <c r="B57" s="148"/>
+      <c r="C57" s="148"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
@@ -5486,9 +5493,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="147"/>
-      <c r="B58" s="147"/>
-      <c r="C58" s="147"/>
+      <c r="A58" s="148"/>
+      <c r="B58" s="148"/>
+      <c r="C58" s="148"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
@@ -5503,9 +5510,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="147"/>
-      <c r="B59" s="147"/>
-      <c r="C59" s="147"/>
+      <c r="A59" s="148"/>
+      <c r="B59" s="148"/>
+      <c r="C59" s="148"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
@@ -5520,9 +5527,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="147"/>
-      <c r="B60" s="147"/>
-      <c r="C60" s="147"/>
+      <c r="A60" s="148"/>
+      <c r="B60" s="148"/>
+      <c r="C60" s="148"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
@@ -5537,9 +5544,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="147"/>
-      <c r="B61" s="147"/>
-      <c r="C61" s="147"/>
+      <c r="A61" s="148"/>
+      <c r="B61" s="148"/>
+      <c r="C61" s="148"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
@@ -5554,9 +5561,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="147"/>
-      <c r="B62" s="147"/>
-      <c r="C62" s="147"/>
+      <c r="A62" s="148"/>
+      <c r="B62" s="148"/>
+      <c r="C62" s="148"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
@@ -5614,10 +5621,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="157"/>
-      <c r="B65" s="148" t="s">
+      <c r="B65" s="158" t="s">
         <v>199</v>
       </c>
-      <c r="C65" s="149" t="s">
+      <c r="C65" s="159" t="s">
         <v>287</v>
       </c>
       <c r="D65" s="20">
@@ -5634,9 +5641,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="144"/>
-      <c r="B66" s="144"/>
-      <c r="C66" s="144"/>
+      <c r="A66" s="146"/>
+      <c r="B66" s="146"/>
+      <c r="C66" s="146"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
@@ -5651,9 +5658,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="144"/>
-      <c r="B67" s="144"/>
-      <c r="C67" s="144"/>
+      <c r="A67" s="146"/>
+      <c r="B67" s="146"/>
+      <c r="C67" s="146"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
@@ -5752,11 +5759,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="151"/>
-      <c r="B72" s="146" t="s">
+      <c r="A72" s="147"/>
+      <c r="B72" s="149" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="151" t="s">
+      <c r="C72" s="147" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="20">
@@ -5773,9 +5780,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="147"/>
-      <c r="B73" s="147"/>
-      <c r="C73" s="147"/>
+      <c r="A73" s="148"/>
+      <c r="B73" s="148"/>
+      <c r="C73" s="148"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
@@ -5790,9 +5797,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="147"/>
-      <c r="B74" s="147"/>
-      <c r="C74" s="147"/>
+      <c r="A74" s="148"/>
+      <c r="B74" s="148"/>
+      <c r="C74" s="148"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
@@ -5807,9 +5814,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="147"/>
-      <c r="B75" s="147"/>
-      <c r="C75" s="147"/>
+      <c r="A75" s="148"/>
+      <c r="B75" s="148"/>
+      <c r="C75" s="148"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
@@ -5824,9 +5831,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="147"/>
-      <c r="B76" s="147"/>
-      <c r="C76" s="147"/>
+      <c r="A76" s="148"/>
+      <c r="B76" s="148"/>
+      <c r="C76" s="148"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
@@ -5841,9 +5848,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="147"/>
-      <c r="B77" s="147"/>
-      <c r="C77" s="147"/>
+      <c r="A77" s="148"/>
+      <c r="B77" s="148"/>
+      <c r="C77" s="148"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
@@ -5858,9 +5865,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="147"/>
-      <c r="B78" s="147"/>
-      <c r="C78" s="147"/>
+      <c r="A78" s="148"/>
+      <c r="B78" s="148"/>
+      <c r="C78" s="148"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
@@ -5917,8 +5924,8 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="143"/>
-      <c r="B81" s="143" t="s">
+      <c r="A81" s="160"/>
+      <c r="B81" s="160" t="s">
         <v>70</v>
       </c>
       <c r="C81" s="145" t="s">
@@ -5938,9 +5945,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="144"/>
-      <c r="B82" s="144"/>
-      <c r="C82" s="144"/>
+      <c r="A82" s="146"/>
+      <c r="B82" s="146"/>
+      <c r="C82" s="146"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
@@ -5955,9 +5962,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="144"/>
-      <c r="B83" s="144"/>
-      <c r="C83" s="144"/>
+      <c r="A83" s="146"/>
+      <c r="B83" s="146"/>
+      <c r="C83" s="146"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
@@ -5972,9 +5979,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="144"/>
-      <c r="B84" s="144"/>
-      <c r="C84" s="144"/>
+      <c r="A84" s="146"/>
+      <c r="B84" s="146"/>
+      <c r="C84" s="146"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
@@ -6283,11 +6290,11 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="150"/>
-      <c r="B99" s="150" t="s">
+      <c r="A99" s="153"/>
+      <c r="B99" s="153" t="s">
         <v>297</v>
       </c>
-      <c r="C99" s="150" t="s">
+      <c r="C99" s="153" t="s">
         <v>76</v>
       </c>
       <c r="D99" s="83">
@@ -6304,9 +6311,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="150"/>
-      <c r="B100" s="150"/>
-      <c r="C100" s="150"/>
+      <c r="A100" s="153"/>
+      <c r="B100" s="153"/>
+      <c r="C100" s="153"/>
       <c r="D100" s="83">
         <v>99</v>
       </c>
@@ -6321,9 +6328,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="150"/>
-      <c r="B101" s="150"/>
-      <c r="C101" s="150"/>
+      <c r="A101" s="153"/>
+      <c r="B101" s="153"/>
+      <c r="C101" s="153"/>
       <c r="D101" s="83">
         <v>100</v>
       </c>
@@ -6359,11 +6366,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="150"/>
-      <c r="B103" s="150" t="s">
+      <c r="A103" s="153"/>
+      <c r="B103" s="153" t="s">
         <v>299</v>
       </c>
-      <c r="C103" s="150" t="s">
+      <c r="C103" s="153" t="s">
         <v>58</v>
       </c>
       <c r="D103" s="78">
@@ -6380,9 +6387,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="160"/>
-      <c r="B104" s="160"/>
-      <c r="C104" s="160"/>
+      <c r="A104" s="154"/>
+      <c r="B104" s="154"/>
+      <c r="C104" s="154"/>
       <c r="D104" s="78">
         <v>103</v>
       </c>
@@ -6397,9 +6404,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="160"/>
-      <c r="B105" s="160"/>
-      <c r="C105" s="160"/>
+      <c r="A105" s="154"/>
+      <c r="B105" s="154"/>
+      <c r="C105" s="154"/>
       <c r="D105" s="78">
         <v>104</v>
       </c>
@@ -6427,8 +6434,8 @@
       <c r="E106" s="98" t="s">
         <v>300</v>
       </c>
-      <c r="F106" s="73" t="s">
-        <v>73</v>
+      <c r="F106" s="143" t="s">
+        <v>509</v>
       </c>
       <c r="G106" s="73" t="s">
         <v>73</v>
@@ -7401,11 +7408,11 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="162"/>
-      <c r="B153" s="161" t="s">
+      <c r="A153" s="156"/>
+      <c r="B153" s="155" t="s">
         <v>459</v>
       </c>
-      <c r="C153" s="144" t="s">
+      <c r="C153" s="146" t="s">
         <v>458</v>
       </c>
       <c r="D153" s="125">
@@ -7422,9 +7429,9 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="162"/>
-      <c r="B154" s="162"/>
-      <c r="C154" s="144"/>
+      <c r="A154" s="156"/>
+      <c r="B154" s="156"/>
+      <c r="C154" s="146"/>
       <c r="D154" s="125">
         <v>153</v>
       </c>
@@ -7439,9 +7446,9 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="162"/>
-      <c r="B155" s="162"/>
-      <c r="C155" s="144"/>
+      <c r="A155" s="156"/>
+      <c r="B155" s="156"/>
+      <c r="C155" s="146"/>
       <c r="D155" s="125">
         <v>154</v>
       </c>
@@ -7708,11 +7715,11 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="146"/>
-      <c r="B168" s="146" t="s">
+      <c r="A168" s="149"/>
+      <c r="B168" s="149" t="s">
         <v>494</v>
       </c>
-      <c r="C168" s="146" t="s">
+      <c r="C168" s="149" t="s">
         <v>458</v>
       </c>
       <c r="D168" s="135">
@@ -7729,9 +7736,9 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="147"/>
-      <c r="B169" s="158"/>
-      <c r="C169" s="158"/>
+      <c r="A169" s="148"/>
+      <c r="B169" s="151"/>
+      <c r="C169" s="151"/>
       <c r="D169" s="135">
         <v>168</v>
       </c>
@@ -7746,9 +7753,9 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="147"/>
-      <c r="B170" s="158"/>
-      <c r="C170" s="158"/>
+      <c r="A170" s="148"/>
+      <c r="B170" s="151"/>
+      <c r="C170" s="151"/>
       <c r="D170" s="135">
         <v>169</v>
       </c>
@@ -7763,9 +7770,9 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="147"/>
-      <c r="B171" s="158"/>
-      <c r="C171" s="158"/>
+      <c r="A171" s="148"/>
+      <c r="B171" s="151"/>
+      <c r="C171" s="151"/>
       <c r="D171" s="135">
         <v>170</v>
       </c>
@@ -7780,9 +7787,9 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="147"/>
-      <c r="B172" s="158"/>
-      <c r="C172" s="158"/>
+      <c r="A172" s="148"/>
+      <c r="B172" s="151"/>
+      <c r="C172" s="151"/>
       <c r="D172" s="135">
         <v>171</v>
       </c>
@@ -7797,9 +7804,9 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="147"/>
-      <c r="B173" s="158"/>
-      <c r="C173" s="158"/>
+      <c r="A173" s="148"/>
+      <c r="B173" s="151"/>
+      <c r="C173" s="151"/>
       <c r="D173" s="135">
         <v>172</v>
       </c>
@@ -7814,9 +7821,9 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="152"/>
-      <c r="B174" s="159"/>
-      <c r="C174" s="159"/>
+      <c r="A174" s="150"/>
+      <c r="B174" s="152"/>
+      <c r="C174" s="152"/>
       <c r="D174" s="135">
         <v>173</v>
       </c>
@@ -7831,11 +7838,11 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="146"/>
-      <c r="B175" s="146" t="s">
+      <c r="A175" s="149"/>
+      <c r="B175" s="149" t="s">
         <v>500</v>
       </c>
-      <c r="C175" s="146" t="s">
+      <c r="C175" s="149" t="s">
         <v>458</v>
       </c>
       <c r="D175" s="135">
@@ -7852,9 +7859,9 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="147"/>
-      <c r="B176" s="158"/>
-      <c r="C176" s="158"/>
+      <c r="A176" s="148"/>
+      <c r="B176" s="151"/>
+      <c r="C176" s="151"/>
       <c r="D176" s="135">
         <v>175</v>
       </c>
@@ -7869,9 +7876,9 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="147"/>
-      <c r="B177" s="158"/>
-      <c r="C177" s="158"/>
+      <c r="A177" s="148"/>
+      <c r="B177" s="151"/>
+      <c r="C177" s="151"/>
       <c r="D177" s="135">
         <v>176</v>
       </c>
@@ -7886,9 +7893,9 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="147"/>
-      <c r="B178" s="158"/>
-      <c r="C178" s="158"/>
+      <c r="A178" s="148"/>
+      <c r="B178" s="151"/>
+      <c r="C178" s="151"/>
       <c r="D178" s="135">
         <v>177</v>
       </c>
@@ -7903,9 +7910,9 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="147"/>
-      <c r="B179" s="158"/>
-      <c r="C179" s="158"/>
+      <c r="A179" s="148"/>
+      <c r="B179" s="151"/>
+      <c r="C179" s="151"/>
       <c r="D179" s="135">
         <v>178</v>
       </c>
@@ -7920,9 +7927,9 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="147"/>
-      <c r="B180" s="158"/>
-      <c r="C180" s="158"/>
+      <c r="A180" s="148"/>
+      <c r="B180" s="151"/>
+      <c r="C180" s="151"/>
       <c r="D180" s="135">
         <v>179</v>
       </c>
@@ -7937,9 +7944,9 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="152"/>
-      <c r="B181" s="159"/>
-      <c r="C181" s="159"/>
+      <c r="A181" s="150"/>
+      <c r="B181" s="152"/>
+      <c r="C181" s="152"/>
       <c r="D181" s="135">
         <v>180</v>
       </c>
@@ -7954,7 +7961,7 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="163"/>
+      <c r="A182" s="144"/>
       <c r="B182" s="142" t="s">
         <v>507</v>
       </c>
@@ -7976,6 +7983,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A81:A84"/>
     <mergeCell ref="C40:C45"/>
     <mergeCell ref="C72:C78"/>
     <mergeCell ref="A175:A181"/>
@@ -7992,41 +8034,6 @@
     <mergeCell ref="A153:A155"/>
     <mergeCell ref="C56:C62"/>
     <mergeCell ref="B72:B78"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A72:A78"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/project/Integrate_120KW_megmeet/IntegrateConfig.xlsx
+++ b/config/project/Integrate_120KW_megmeet/IntegrateConfig.xlsx
@@ -3916,33 +3916,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3951,30 +3975,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -4336,7 +4336,7 @@
   <dimension ref="A1:G182"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B103" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E115" sqref="E115"/>
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4674,11 +4674,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="160"/>
-      <c r="B15" s="160" t="s">
+      <c r="A15" s="147"/>
+      <c r="B15" s="147" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="160" t="s">
+      <c r="C15" s="147" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
@@ -4695,9 +4695,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="146"/>
-      <c r="B16" s="146"/>
-      <c r="C16" s="146"/>
+      <c r="A16" s="145"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="145"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
@@ -4712,9 +4712,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="146"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
+      <c r="A17" s="145"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="145"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
@@ -4729,9 +4729,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="146"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="146"/>
+      <c r="A18" s="145"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="145"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
@@ -4746,9 +4746,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="146"/>
-      <c r="B19" s="146"/>
-      <c r="C19" s="146"/>
+      <c r="A19" s="145"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="145"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
@@ -4809,11 +4809,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="147"/>
-      <c r="B22" s="147" t="s">
+      <c r="A22" s="153"/>
+      <c r="B22" s="153" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="147" t="s">
+      <c r="C22" s="153" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="20">
@@ -4830,9 +4830,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="148"/>
-      <c r="B23" s="148"/>
-      <c r="C23" s="148"/>
+      <c r="A23" s="149"/>
+      <c r="B23" s="149"/>
+      <c r="C23" s="149"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
@@ -4847,9 +4847,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="148"/>
-      <c r="B24" s="148"/>
-      <c r="C24" s="148"/>
+      <c r="A24" s="149"/>
+      <c r="B24" s="149"/>
+      <c r="C24" s="149"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
@@ -4864,9 +4864,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="148"/>
-      <c r="B25" s="148"/>
-      <c r="C25" s="148"/>
+      <c r="A25" s="149"/>
+      <c r="B25" s="149"/>
+      <c r="C25" s="149"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
@@ -4881,9 +4881,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="150"/>
-      <c r="B26" s="150"/>
-      <c r="C26" s="150"/>
+      <c r="A26" s="154"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="154"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
@@ -4940,11 +4940,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="164"/>
-      <c r="B29" s="161" t="s">
+      <c r="A29" s="155"/>
+      <c r="B29" s="158" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="161" t="s">
+      <c r="C29" s="158" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -4961,9 +4961,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="162"/>
-      <c r="B30" s="162"/>
-      <c r="C30" s="162"/>
+      <c r="A30" s="156"/>
+      <c r="B30" s="156"/>
+      <c r="C30" s="156"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
@@ -4978,9 +4978,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="162"/>
-      <c r="B31" s="162"/>
-      <c r="C31" s="162"/>
+      <c r="A31" s="156"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="156"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
@@ -4995,9 +4995,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="162"/>
-      <c r="B32" s="162"/>
-      <c r="C32" s="162"/>
+      <c r="A32" s="156"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
@@ -5012,9 +5012,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="163"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="163"/>
+      <c r="A33" s="157"/>
+      <c r="B33" s="157"/>
+      <c r="C33" s="157"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
@@ -5029,11 +5029,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="146"/>
-      <c r="B34" s="146" t="s">
+      <c r="A34" s="145"/>
+      <c r="B34" s="145" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="146" t="s">
+      <c r="C34" s="145" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
@@ -5050,9 +5050,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="146"/>
-      <c r="B35" s="146"/>
-      <c r="C35" s="146"/>
+      <c r="A35" s="145"/>
+      <c r="B35" s="145"/>
+      <c r="C35" s="145"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
@@ -5067,11 +5067,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="146"/>
-      <c r="B36" s="146" t="s">
+      <c r="A36" s="145"/>
+      <c r="B36" s="145" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="160" t="s">
+      <c r="C36" s="147" t="s">
         <v>148</v>
       </c>
       <c r="D36" s="20">
@@ -5088,9 +5088,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="146"/>
-      <c r="B37" s="146"/>
-      <c r="C37" s="146"/>
+      <c r="A37" s="145"/>
+      <c r="B37" s="145"/>
+      <c r="C37" s="145"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
@@ -5105,11 +5105,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="146"/>
-      <c r="B38" s="145" t="s">
+      <c r="A38" s="145"/>
+      <c r="B38" s="146" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="145" t="s">
+      <c r="C38" s="146" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
@@ -5126,9 +5126,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="146"/>
-      <c r="B39" s="146"/>
-      <c r="C39" s="146"/>
+      <c r="A39" s="145"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="145"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
@@ -5143,11 +5143,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="146"/>
-      <c r="B40" s="146" t="s">
+      <c r="A40" s="145"/>
+      <c r="B40" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="145" t="s">
+      <c r="C40" s="146" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -5164,9 +5164,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="146"/>
-      <c r="B41" s="146"/>
-      <c r="C41" s="146"/>
+      <c r="A41" s="145"/>
+      <c r="B41" s="145"/>
+      <c r="C41" s="145"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
@@ -5181,9 +5181,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="146"/>
-      <c r="B42" s="146"/>
-      <c r="C42" s="146"/>
+      <c r="A42" s="145"/>
+      <c r="B42" s="145"/>
+      <c r="C42" s="145"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
@@ -5198,9 +5198,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="146"/>
-      <c r="B43" s="146"/>
-      <c r="C43" s="146"/>
+      <c r="A43" s="145"/>
+      <c r="B43" s="145"/>
+      <c r="C43" s="145"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
@@ -5215,9 +5215,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="146"/>
-      <c r="B44" s="146"/>
-      <c r="C44" s="146"/>
+      <c r="A44" s="145"/>
+      <c r="B44" s="145"/>
+      <c r="C44" s="145"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
@@ -5232,11 +5232,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="146">
+      <c r="A45" s="145">
         <v>13</v>
       </c>
-      <c r="B45" s="146"/>
-      <c r="C45" s="146" t="s">
+      <c r="B45" s="145"/>
+      <c r="C45" s="145" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -5316,11 +5316,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="157"/>
-      <c r="B49" s="158" t="s">
+      <c r="A49" s="152"/>
+      <c r="B49" s="150" t="s">
         <v>198</v>
       </c>
-      <c r="C49" s="159" t="s">
+      <c r="C49" s="151" t="s">
         <v>287</v>
       </c>
       <c r="D49" s="20">
@@ -5337,9 +5337,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="146"/>
-      <c r="B50" s="146"/>
-      <c r="C50" s="146"/>
+      <c r="A50" s="145"/>
+      <c r="B50" s="145"/>
+      <c r="C50" s="145"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
@@ -5354,9 +5354,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="146"/>
-      <c r="B51" s="146"/>
-      <c r="C51" s="146"/>
+      <c r="A51" s="145"/>
+      <c r="B51" s="145"/>
+      <c r="C51" s="145"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
@@ -5455,11 +5455,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="147"/>
-      <c r="B56" s="149" t="s">
+      <c r="A56" s="153"/>
+      <c r="B56" s="148" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="147" t="s">
+      <c r="C56" s="153" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="20">
@@ -5476,9 +5476,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="148"/>
-      <c r="B57" s="148"/>
-      <c r="C57" s="148"/>
+      <c r="A57" s="149"/>
+      <c r="B57" s="149"/>
+      <c r="C57" s="149"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
@@ -5493,9 +5493,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="148"/>
-      <c r="B58" s="148"/>
-      <c r="C58" s="148"/>
+      <c r="A58" s="149"/>
+      <c r="B58" s="149"/>
+      <c r="C58" s="149"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
@@ -5510,9 +5510,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="148"/>
-      <c r="B59" s="148"/>
-      <c r="C59" s="148"/>
+      <c r="A59" s="149"/>
+      <c r="B59" s="149"/>
+      <c r="C59" s="149"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
@@ -5527,9 +5527,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="148"/>
-      <c r="B60" s="148"/>
-      <c r="C60" s="148"/>
+      <c r="A60" s="149"/>
+      <c r="B60" s="149"/>
+      <c r="C60" s="149"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
@@ -5544,9 +5544,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="148"/>
-      <c r="B61" s="148"/>
-      <c r="C61" s="148"/>
+      <c r="A61" s="149"/>
+      <c r="B61" s="149"/>
+      <c r="C61" s="149"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
@@ -5561,9 +5561,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="148"/>
-      <c r="B62" s="148"/>
-      <c r="C62" s="148"/>
+      <c r="A62" s="149"/>
+      <c r="B62" s="149"/>
+      <c r="C62" s="149"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
@@ -5620,11 +5620,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="157"/>
-      <c r="B65" s="158" t="s">
+      <c r="A65" s="152"/>
+      <c r="B65" s="150" t="s">
         <v>199</v>
       </c>
-      <c r="C65" s="159" t="s">
+      <c r="C65" s="151" t="s">
         <v>287</v>
       </c>
       <c r="D65" s="20">
@@ -5641,9 +5641,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="146"/>
-      <c r="B66" s="146"/>
-      <c r="C66" s="146"/>
+      <c r="A66" s="145"/>
+      <c r="B66" s="145"/>
+      <c r="C66" s="145"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
@@ -5658,9 +5658,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="146"/>
-      <c r="B67" s="146"/>
-      <c r="C67" s="146"/>
+      <c r="A67" s="145"/>
+      <c r="B67" s="145"/>
+      <c r="C67" s="145"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
@@ -5759,11 +5759,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="147"/>
-      <c r="B72" s="149" t="s">
+      <c r="A72" s="153"/>
+      <c r="B72" s="148" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="147" t="s">
+      <c r="C72" s="153" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="20">
@@ -5780,9 +5780,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="148"/>
-      <c r="B73" s="148"/>
-      <c r="C73" s="148"/>
+      <c r="A73" s="149"/>
+      <c r="B73" s="149"/>
+      <c r="C73" s="149"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
@@ -5797,9 +5797,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="148"/>
-      <c r="B74" s="148"/>
-      <c r="C74" s="148"/>
+      <c r="A74" s="149"/>
+      <c r="B74" s="149"/>
+      <c r="C74" s="149"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
@@ -5814,9 +5814,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="148"/>
-      <c r="B75" s="148"/>
-      <c r="C75" s="148"/>
+      <c r="A75" s="149"/>
+      <c r="B75" s="149"/>
+      <c r="C75" s="149"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
@@ -5831,9 +5831,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="148"/>
-      <c r="B76" s="148"/>
-      <c r="C76" s="148"/>
+      <c r="A76" s="149"/>
+      <c r="B76" s="149"/>
+      <c r="C76" s="149"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
@@ -5848,9 +5848,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="148"/>
-      <c r="B77" s="148"/>
-      <c r="C77" s="148"/>
+      <c r="A77" s="149"/>
+      <c r="B77" s="149"/>
+      <c r="C77" s="149"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
@@ -5865,9 +5865,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="148"/>
-      <c r="B78" s="148"/>
-      <c r="C78" s="148"/>
+      <c r="A78" s="149"/>
+      <c r="B78" s="149"/>
+      <c r="C78" s="149"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
@@ -5924,11 +5924,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="160"/>
-      <c r="B81" s="160" t="s">
+      <c r="A81" s="147"/>
+      <c r="B81" s="147" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="145" t="s">
+      <c r="C81" s="146" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -5945,9 +5945,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="146"/>
-      <c r="B82" s="146"/>
-      <c r="C82" s="146"/>
+      <c r="A82" s="145"/>
+      <c r="B82" s="145"/>
+      <c r="C82" s="145"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
@@ -5962,9 +5962,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="146"/>
-      <c r="B83" s="146"/>
-      <c r="C83" s="146"/>
+      <c r="A83" s="145"/>
+      <c r="B83" s="145"/>
+      <c r="C83" s="145"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
@@ -5979,9 +5979,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="146"/>
-      <c r="B84" s="146"/>
-      <c r="C84" s="146"/>
+      <c r="A84" s="145"/>
+      <c r="B84" s="145"/>
+      <c r="C84" s="145"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
@@ -6290,11 +6290,11 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="153"/>
-      <c r="B99" s="153" t="s">
+      <c r="A99" s="159"/>
+      <c r="B99" s="159" t="s">
         <v>297</v>
       </c>
-      <c r="C99" s="153" t="s">
+      <c r="C99" s="159" t="s">
         <v>76</v>
       </c>
       <c r="D99" s="83">
@@ -6311,9 +6311,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="153"/>
-      <c r="B100" s="153"/>
-      <c r="C100" s="153"/>
+      <c r="A100" s="159"/>
+      <c r="B100" s="159"/>
+      <c r="C100" s="159"/>
       <c r="D100" s="83">
         <v>99</v>
       </c>
@@ -6328,9 +6328,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="153"/>
-      <c r="B101" s="153"/>
-      <c r="C101" s="153"/>
+      <c r="A101" s="159"/>
+      <c r="B101" s="159"/>
+      <c r="C101" s="159"/>
       <c r="D101" s="83">
         <v>100</v>
       </c>
@@ -6366,11 +6366,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="153"/>
-      <c r="B103" s="153" t="s">
+      <c r="A103" s="159"/>
+      <c r="B103" s="159" t="s">
         <v>299</v>
       </c>
-      <c r="C103" s="153" t="s">
+      <c r="C103" s="159" t="s">
         <v>58</v>
       </c>
       <c r="D103" s="78">
@@ -6387,9 +6387,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="154"/>
-      <c r="B104" s="154"/>
-      <c r="C104" s="154"/>
+      <c r="A104" s="162"/>
+      <c r="B104" s="162"/>
+      <c r="C104" s="162"/>
       <c r="D104" s="78">
         <v>103</v>
       </c>
@@ -6404,9 +6404,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="154"/>
-      <c r="B105" s="154"/>
-      <c r="C105" s="154"/>
+      <c r="A105" s="162"/>
+      <c r="B105" s="162"/>
+      <c r="C105" s="162"/>
       <c r="D105" s="78">
         <v>104</v>
       </c>
@@ -7408,11 +7408,11 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="156"/>
-      <c r="B153" s="155" t="s">
+      <c r="A153" s="164"/>
+      <c r="B153" s="163" t="s">
         <v>459</v>
       </c>
-      <c r="C153" s="146" t="s">
+      <c r="C153" s="145" t="s">
         <v>458</v>
       </c>
       <c r="D153" s="125">
@@ -7429,9 +7429,9 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="156"/>
-      <c r="B154" s="156"/>
-      <c r="C154" s="146"/>
+      <c r="A154" s="164"/>
+      <c r="B154" s="164"/>
+      <c r="C154" s="145"/>
       <c r="D154" s="125">
         <v>153</v>
       </c>
@@ -7446,9 +7446,9 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="156"/>
-      <c r="B155" s="156"/>
-      <c r="C155" s="146"/>
+      <c r="A155" s="164"/>
+      <c r="B155" s="164"/>
+      <c r="C155" s="145"/>
       <c r="D155" s="125">
         <v>154</v>
       </c>
@@ -7715,11 +7715,11 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="149"/>
-      <c r="B168" s="149" t="s">
+      <c r="A168" s="148"/>
+      <c r="B168" s="148" t="s">
         <v>494</v>
       </c>
-      <c r="C168" s="149" t="s">
+      <c r="C168" s="148" t="s">
         <v>458</v>
       </c>
       <c r="D168" s="135">
@@ -7736,9 +7736,9 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="148"/>
-      <c r="B169" s="151"/>
-      <c r="C169" s="151"/>
+      <c r="A169" s="149"/>
+      <c r="B169" s="160"/>
+      <c r="C169" s="160"/>
       <c r="D169" s="135">
         <v>168</v>
       </c>
@@ -7753,9 +7753,9 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="148"/>
-      <c r="B170" s="151"/>
-      <c r="C170" s="151"/>
+      <c r="A170" s="149"/>
+      <c r="B170" s="160"/>
+      <c r="C170" s="160"/>
       <c r="D170" s="135">
         <v>169</v>
       </c>
@@ -7770,9 +7770,9 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="148"/>
-      <c r="B171" s="151"/>
-      <c r="C171" s="151"/>
+      <c r="A171" s="149"/>
+      <c r="B171" s="160"/>
+      <c r="C171" s="160"/>
       <c r="D171" s="135">
         <v>170</v>
       </c>
@@ -7787,9 +7787,9 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="148"/>
-      <c r="B172" s="151"/>
-      <c r="C172" s="151"/>
+      <c r="A172" s="149"/>
+      <c r="B172" s="160"/>
+      <c r="C172" s="160"/>
       <c r="D172" s="135">
         <v>171</v>
       </c>
@@ -7804,9 +7804,9 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="148"/>
-      <c r="B173" s="151"/>
-      <c r="C173" s="151"/>
+      <c r="A173" s="149"/>
+      <c r="B173" s="160"/>
+      <c r="C173" s="160"/>
       <c r="D173" s="135">
         <v>172</v>
       </c>
@@ -7821,9 +7821,9 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="150"/>
-      <c r="B174" s="152"/>
-      <c r="C174" s="152"/>
+      <c r="A174" s="154"/>
+      <c r="B174" s="161"/>
+      <c r="C174" s="161"/>
       <c r="D174" s="135">
         <v>173</v>
       </c>
@@ -7838,11 +7838,11 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="149"/>
-      <c r="B175" s="149" t="s">
+      <c r="A175" s="148"/>
+      <c r="B175" s="148" t="s">
         <v>500</v>
       </c>
-      <c r="C175" s="149" t="s">
+      <c r="C175" s="148" t="s">
         <v>458</v>
       </c>
       <c r="D175" s="135">
@@ -7859,9 +7859,9 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="148"/>
-      <c r="B176" s="151"/>
-      <c r="C176" s="151"/>
+      <c r="A176" s="149"/>
+      <c r="B176" s="160"/>
+      <c r="C176" s="160"/>
       <c r="D176" s="135">
         <v>175</v>
       </c>
@@ -7876,9 +7876,9 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="148"/>
-      <c r="B177" s="151"/>
-      <c r="C177" s="151"/>
+      <c r="A177" s="149"/>
+      <c r="B177" s="160"/>
+      <c r="C177" s="160"/>
       <c r="D177" s="135">
         <v>176</v>
       </c>
@@ -7893,9 +7893,9 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="148"/>
-      <c r="B178" s="151"/>
-      <c r="C178" s="151"/>
+      <c r="A178" s="149"/>
+      <c r="B178" s="160"/>
+      <c r="C178" s="160"/>
       <c r="D178" s="135">
         <v>177</v>
       </c>
@@ -7910,9 +7910,9 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="148"/>
-      <c r="B179" s="151"/>
-      <c r="C179" s="151"/>
+      <c r="A179" s="149"/>
+      <c r="B179" s="160"/>
+      <c r="C179" s="160"/>
       <c r="D179" s="135">
         <v>178</v>
       </c>
@@ -7927,9 +7927,9 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="148"/>
-      <c r="B180" s="151"/>
-      <c r="C180" s="151"/>
+      <c r="A180" s="149"/>
+      <c r="B180" s="160"/>
+      <c r="C180" s="160"/>
       <c r="D180" s="135">
         <v>179</v>
       </c>
@@ -7944,9 +7944,9 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="150"/>
-      <c r="B181" s="152"/>
-      <c r="C181" s="152"/>
+      <c r="A181" s="154"/>
+      <c r="B181" s="161"/>
+      <c r="C181" s="161"/>
       <c r="D181" s="135">
         <v>180</v>
       </c>
@@ -7983,41 +7983,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A81:A84"/>
     <mergeCell ref="C40:C45"/>
     <mergeCell ref="C72:C78"/>
     <mergeCell ref="A175:A181"/>
@@ -8034,6 +7999,41 @@
     <mergeCell ref="A153:A155"/>
     <mergeCell ref="C56:C62"/>
     <mergeCell ref="B72:B78"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="A65:A67"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/project/Integrate_120KW_megmeet/IntegrateConfig.xlsx
+++ b/config/project/Integrate_120KW_megmeet/IntegrateConfig.xlsx
@@ -3916,64 +3916,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4335,8 +4335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B103" zoomScale="85" workbookViewId="0">
-      <selection activeCell="F114" sqref="F114"/>
+    <sheetView tabSelected="1" topLeftCell="B169" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E182" sqref="E182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4674,11 +4674,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="147"/>
-      <c r="B15" s="147" t="s">
+      <c r="A15" s="159"/>
+      <c r="B15" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="147" t="s">
+      <c r="C15" s="159" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
@@ -4695,9 +4695,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="145"/>
-      <c r="B16" s="145"/>
-      <c r="C16" s="145"/>
+      <c r="A16" s="146"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="146"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
@@ -4712,9 +4712,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="145"/>
-      <c r="B17" s="145"/>
-      <c r="C17" s="145"/>
+      <c r="A17" s="146"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="146"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
@@ -4729,9 +4729,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="145"/>
-      <c r="B18" s="145"/>
-      <c r="C18" s="145"/>
+      <c r="A18" s="146"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="146"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
@@ -4746,9 +4746,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="145"/>
-      <c r="B19" s="145"/>
-      <c r="C19" s="145"/>
+      <c r="A19" s="146"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
@@ -4809,11 +4809,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="153"/>
-      <c r="B22" s="153" t="s">
+      <c r="A22" s="147"/>
+      <c r="B22" s="147" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="153" t="s">
+      <c r="C22" s="147" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="20">
@@ -4830,9 +4830,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="149"/>
-      <c r="B23" s="149"/>
-      <c r="C23" s="149"/>
+      <c r="A23" s="148"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="148"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
@@ -4847,9 +4847,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="149"/>
-      <c r="B24" s="149"/>
-      <c r="C24" s="149"/>
+      <c r="A24" s="148"/>
+      <c r="B24" s="148"/>
+      <c r="C24" s="148"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
@@ -4864,9 +4864,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="149"/>
-      <c r="B25" s="149"/>
-      <c r="C25" s="149"/>
+      <c r="A25" s="148"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="148"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
@@ -4881,9 +4881,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="154"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
+      <c r="A26" s="150"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="150"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
@@ -4940,11 +4940,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="155"/>
-      <c r="B29" s="158" t="s">
+      <c r="A29" s="163"/>
+      <c r="B29" s="160" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="158" t="s">
+      <c r="C29" s="160" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -4961,9 +4961,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="156"/>
-      <c r="B30" s="156"/>
-      <c r="C30" s="156"/>
+      <c r="A30" s="161"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="161"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
@@ -4978,9 +4978,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="156"/>
-      <c r="B31" s="156"/>
-      <c r="C31" s="156"/>
+      <c r="A31" s="161"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="161"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
@@ -4995,9 +4995,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="156"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="156"/>
+      <c r="A32" s="161"/>
+      <c r="B32" s="161"/>
+      <c r="C32" s="161"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
@@ -5012,9 +5012,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="157"/>
-      <c r="B33" s="157"/>
-      <c r="C33" s="157"/>
+      <c r="A33" s="162"/>
+      <c r="B33" s="162"/>
+      <c r="C33" s="162"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
@@ -5029,11 +5029,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="145"/>
-      <c r="B34" s="145" t="s">
+      <c r="A34" s="146"/>
+      <c r="B34" s="146" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="145" t="s">
+      <c r="C34" s="146" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
@@ -5050,9 +5050,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="145"/>
-      <c r="B35" s="145"/>
-      <c r="C35" s="145"/>
+      <c r="A35" s="146"/>
+      <c r="B35" s="146"/>
+      <c r="C35" s="146"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
@@ -5067,11 +5067,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="145"/>
-      <c r="B36" s="145" t="s">
+      <c r="A36" s="146"/>
+      <c r="B36" s="146" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="147" t="s">
+      <c r="C36" s="159" t="s">
         <v>148</v>
       </c>
       <c r="D36" s="20">
@@ -5088,9 +5088,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="145"/>
-      <c r="B37" s="145"/>
-      <c r="C37" s="145"/>
+      <c r="A37" s="146"/>
+      <c r="B37" s="146"/>
+      <c r="C37" s="146"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
@@ -5105,11 +5105,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="145"/>
-      <c r="B38" s="146" t="s">
+      <c r="A38" s="146"/>
+      <c r="B38" s="145" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="146" t="s">
+      <c r="C38" s="145" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
@@ -5126,9 +5126,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="145"/>
-      <c r="B39" s="145"/>
-      <c r="C39" s="145"/>
+      <c r="A39" s="146"/>
+      <c r="B39" s="146"/>
+      <c r="C39" s="146"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
@@ -5143,11 +5143,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="145"/>
-      <c r="B40" s="145" t="s">
+      <c r="A40" s="146"/>
+      <c r="B40" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="146" t="s">
+      <c r="C40" s="145" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -5164,9 +5164,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="145"/>
-      <c r="B41" s="145"/>
-      <c r="C41" s="145"/>
+      <c r="A41" s="146"/>
+      <c r="B41" s="146"/>
+      <c r="C41" s="146"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
@@ -5181,9 +5181,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="145"/>
-      <c r="B42" s="145"/>
-      <c r="C42" s="145"/>
+      <c r="A42" s="146"/>
+      <c r="B42" s="146"/>
+      <c r="C42" s="146"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
@@ -5198,9 +5198,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="145"/>
-      <c r="B43" s="145"/>
-      <c r="C43" s="145"/>
+      <c r="A43" s="146"/>
+      <c r="B43" s="146"/>
+      <c r="C43" s="146"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
@@ -5215,9 +5215,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="145"/>
-      <c r="B44" s="145"/>
-      <c r="C44" s="145"/>
+      <c r="A44" s="146"/>
+      <c r="B44" s="146"/>
+      <c r="C44" s="146"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
@@ -5232,11 +5232,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="145">
+      <c r="A45" s="146">
         <v>13</v>
       </c>
-      <c r="B45" s="145"/>
-      <c r="C45" s="145" t="s">
+      <c r="B45" s="146"/>
+      <c r="C45" s="146" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -5316,11 +5316,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="152"/>
-      <c r="B49" s="150" t="s">
+      <c r="A49" s="164"/>
+      <c r="B49" s="157" t="s">
         <v>198</v>
       </c>
-      <c r="C49" s="151" t="s">
+      <c r="C49" s="158" t="s">
         <v>287</v>
       </c>
       <c r="D49" s="20">
@@ -5337,9 +5337,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="145"/>
-      <c r="B50" s="145"/>
-      <c r="C50" s="145"/>
+      <c r="A50" s="146"/>
+      <c r="B50" s="146"/>
+      <c r="C50" s="146"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
@@ -5354,9 +5354,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="145"/>
-      <c r="B51" s="145"/>
-      <c r="C51" s="145"/>
+      <c r="A51" s="146"/>
+      <c r="B51" s="146"/>
+      <c r="C51" s="146"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
@@ -5455,11 +5455,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="153"/>
-      <c r="B56" s="148" t="s">
+      <c r="A56" s="147"/>
+      <c r="B56" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="153" t="s">
+      <c r="C56" s="147" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="20">
@@ -5476,9 +5476,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="149"/>
-      <c r="B57" s="149"/>
-      <c r="C57" s="149"/>
+      <c r="A57" s="148"/>
+      <c r="B57" s="148"/>
+      <c r="C57" s="148"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
@@ -5493,9 +5493,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="149"/>
-      <c r="B58" s="149"/>
-      <c r="C58" s="149"/>
+      <c r="A58" s="148"/>
+      <c r="B58" s="148"/>
+      <c r="C58" s="148"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
@@ -5510,9 +5510,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="149"/>
-      <c r="B59" s="149"/>
-      <c r="C59" s="149"/>
+      <c r="A59" s="148"/>
+      <c r="B59" s="148"/>
+      <c r="C59" s="148"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
@@ -5527,9 +5527,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="149"/>
-      <c r="B60" s="149"/>
-      <c r="C60" s="149"/>
+      <c r="A60" s="148"/>
+      <c r="B60" s="148"/>
+      <c r="C60" s="148"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
@@ -5544,9 +5544,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="149"/>
-      <c r="B61" s="149"/>
-      <c r="C61" s="149"/>
+      <c r="A61" s="148"/>
+      <c r="B61" s="148"/>
+      <c r="C61" s="148"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
@@ -5561,9 +5561,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="149"/>
-      <c r="B62" s="149"/>
-      <c r="C62" s="149"/>
+      <c r="A62" s="148"/>
+      <c r="B62" s="148"/>
+      <c r="C62" s="148"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
@@ -5620,11 +5620,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="152"/>
-      <c r="B65" s="150" t="s">
+      <c r="A65" s="164"/>
+      <c r="B65" s="157" t="s">
         <v>199</v>
       </c>
-      <c r="C65" s="151" t="s">
+      <c r="C65" s="158" t="s">
         <v>287</v>
       </c>
       <c r="D65" s="20">
@@ -5641,9 +5641,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="145"/>
-      <c r="B66" s="145"/>
-      <c r="C66" s="145"/>
+      <c r="A66" s="146"/>
+      <c r="B66" s="146"/>
+      <c r="C66" s="146"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
@@ -5658,9 +5658,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="145"/>
-      <c r="B67" s="145"/>
-      <c r="C67" s="145"/>
+      <c r="A67" s="146"/>
+      <c r="B67" s="146"/>
+      <c r="C67" s="146"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
@@ -5759,11 +5759,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="153"/>
-      <c r="B72" s="148" t="s">
+      <c r="A72" s="147"/>
+      <c r="B72" s="149" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="153" t="s">
+      <c r="C72" s="147" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="20">
@@ -5780,9 +5780,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="149"/>
-      <c r="B73" s="149"/>
-      <c r="C73" s="149"/>
+      <c r="A73" s="148"/>
+      <c r="B73" s="148"/>
+      <c r="C73" s="148"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
@@ -5797,9 +5797,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="149"/>
-      <c r="B74" s="149"/>
-      <c r="C74" s="149"/>
+      <c r="A74" s="148"/>
+      <c r="B74" s="148"/>
+      <c r="C74" s="148"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
@@ -5814,9 +5814,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="149"/>
-      <c r="B75" s="149"/>
-      <c r="C75" s="149"/>
+      <c r="A75" s="148"/>
+      <c r="B75" s="148"/>
+      <c r="C75" s="148"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
@@ -5831,9 +5831,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="149"/>
-      <c r="B76" s="149"/>
-      <c r="C76" s="149"/>
+      <c r="A76" s="148"/>
+      <c r="B76" s="148"/>
+      <c r="C76" s="148"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
@@ -5848,9 +5848,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="149"/>
-      <c r="B77" s="149"/>
-      <c r="C77" s="149"/>
+      <c r="A77" s="148"/>
+      <c r="B77" s="148"/>
+      <c r="C77" s="148"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
@@ -5865,9 +5865,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="149"/>
-      <c r="B78" s="149"/>
-      <c r="C78" s="149"/>
+      <c r="A78" s="148"/>
+      <c r="B78" s="148"/>
+      <c r="C78" s="148"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
@@ -5924,11 +5924,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="147"/>
-      <c r="B81" s="147" t="s">
+      <c r="A81" s="159"/>
+      <c r="B81" s="159" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="146" t="s">
+      <c r="C81" s="145" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -5945,9 +5945,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="145"/>
-      <c r="B82" s="145"/>
-      <c r="C82" s="145"/>
+      <c r="A82" s="146"/>
+      <c r="B82" s="146"/>
+      <c r="C82" s="146"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
@@ -5962,9 +5962,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="145"/>
-      <c r="B83" s="145"/>
-      <c r="C83" s="145"/>
+      <c r="A83" s="146"/>
+      <c r="B83" s="146"/>
+      <c r="C83" s="146"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
@@ -5979,9 +5979,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="145"/>
-      <c r="B84" s="145"/>
-      <c r="C84" s="145"/>
+      <c r="A84" s="146"/>
+      <c r="B84" s="146"/>
+      <c r="C84" s="146"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
@@ -6290,11 +6290,11 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="159"/>
-      <c r="B99" s="159" t="s">
+      <c r="A99" s="153"/>
+      <c r="B99" s="153" t="s">
         <v>297</v>
       </c>
-      <c r="C99" s="159" t="s">
+      <c r="C99" s="153" t="s">
         <v>76</v>
       </c>
       <c r="D99" s="83">
@@ -6311,9 +6311,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="159"/>
-      <c r="B100" s="159"/>
-      <c r="C100" s="159"/>
+      <c r="A100" s="153"/>
+      <c r="B100" s="153"/>
+      <c r="C100" s="153"/>
       <c r="D100" s="83">
         <v>99</v>
       </c>
@@ -6328,9 +6328,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="159"/>
-      <c r="B101" s="159"/>
-      <c r="C101" s="159"/>
+      <c r="A101" s="153"/>
+      <c r="B101" s="153"/>
+      <c r="C101" s="153"/>
       <c r="D101" s="83">
         <v>100</v>
       </c>
@@ -6366,11 +6366,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="159"/>
-      <c r="B103" s="159" t="s">
+      <c r="A103" s="153"/>
+      <c r="B103" s="153" t="s">
         <v>299</v>
       </c>
-      <c r="C103" s="159" t="s">
+      <c r="C103" s="153" t="s">
         <v>58</v>
       </c>
       <c r="D103" s="78">
@@ -6387,9 +6387,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="162"/>
-      <c r="B104" s="162"/>
-      <c r="C104" s="162"/>
+      <c r="A104" s="154"/>
+      <c r="B104" s="154"/>
+      <c r="C104" s="154"/>
       <c r="D104" s="78">
         <v>103</v>
       </c>
@@ -6404,9 +6404,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="162"/>
-      <c r="B105" s="162"/>
-      <c r="C105" s="162"/>
+      <c r="A105" s="154"/>
+      <c r="B105" s="154"/>
+      <c r="C105" s="154"/>
       <c r="D105" s="78">
         <v>104</v>
       </c>
@@ -7408,11 +7408,11 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="164"/>
-      <c r="B153" s="163" t="s">
+      <c r="A153" s="156"/>
+      <c r="B153" s="155" t="s">
         <v>459</v>
       </c>
-      <c r="C153" s="145" t="s">
+      <c r="C153" s="146" t="s">
         <v>458</v>
       </c>
       <c r="D153" s="125">
@@ -7429,9 +7429,9 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="164"/>
-      <c r="B154" s="164"/>
-      <c r="C154" s="145"/>
+      <c r="A154" s="156"/>
+      <c r="B154" s="156"/>
+      <c r="C154" s="146"/>
       <c r="D154" s="125">
         <v>153</v>
       </c>
@@ -7446,9 +7446,9 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="164"/>
-      <c r="B155" s="164"/>
-      <c r="C155" s="145"/>
+      <c r="A155" s="156"/>
+      <c r="B155" s="156"/>
+      <c r="C155" s="146"/>
       <c r="D155" s="125">
         <v>154</v>
       </c>
@@ -7715,11 +7715,11 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="148"/>
-      <c r="B168" s="148" t="s">
+      <c r="A168" s="149"/>
+      <c r="B168" s="149" t="s">
         <v>494</v>
       </c>
-      <c r="C168" s="148" t="s">
+      <c r="C168" s="149" t="s">
         <v>458</v>
       </c>
       <c r="D168" s="135">
@@ -7736,9 +7736,9 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="149"/>
-      <c r="B169" s="160"/>
-      <c r="C169" s="160"/>
+      <c r="A169" s="148"/>
+      <c r="B169" s="151"/>
+      <c r="C169" s="151"/>
       <c r="D169" s="135">
         <v>168</v>
       </c>
@@ -7753,9 +7753,9 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="149"/>
-      <c r="B170" s="160"/>
-      <c r="C170" s="160"/>
+      <c r="A170" s="148"/>
+      <c r="B170" s="151"/>
+      <c r="C170" s="151"/>
       <c r="D170" s="135">
         <v>169</v>
       </c>
@@ -7770,9 +7770,9 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="149"/>
-      <c r="B171" s="160"/>
-      <c r="C171" s="160"/>
+      <c r="A171" s="148"/>
+      <c r="B171" s="151"/>
+      <c r="C171" s="151"/>
       <c r="D171" s="135">
         <v>170</v>
       </c>
@@ -7787,9 +7787,9 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="149"/>
-      <c r="B172" s="160"/>
-      <c r="C172" s="160"/>
+      <c r="A172" s="148"/>
+      <c r="B172" s="151"/>
+      <c r="C172" s="151"/>
       <c r="D172" s="135">
         <v>171</v>
       </c>
@@ -7804,9 +7804,9 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="149"/>
-      <c r="B173" s="160"/>
-      <c r="C173" s="160"/>
+      <c r="A173" s="148"/>
+      <c r="B173" s="151"/>
+      <c r="C173" s="151"/>
       <c r="D173" s="135">
         <v>172</v>
       </c>
@@ -7821,9 +7821,9 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="154"/>
-      <c r="B174" s="161"/>
-      <c r="C174" s="161"/>
+      <c r="A174" s="150"/>
+      <c r="B174" s="152"/>
+      <c r="C174" s="152"/>
       <c r="D174" s="135">
         <v>173</v>
       </c>
@@ -7838,11 +7838,11 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="148"/>
-      <c r="B175" s="148" t="s">
+      <c r="A175" s="149"/>
+      <c r="B175" s="149" t="s">
         <v>500</v>
       </c>
-      <c r="C175" s="148" t="s">
+      <c r="C175" s="149" t="s">
         <v>458</v>
       </c>
       <c r="D175" s="135">
@@ -7859,9 +7859,9 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="149"/>
-      <c r="B176" s="160"/>
-      <c r="C176" s="160"/>
+      <c r="A176" s="148"/>
+      <c r="B176" s="151"/>
+      <c r="C176" s="151"/>
       <c r="D176" s="135">
         <v>175</v>
       </c>
@@ -7876,9 +7876,9 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="149"/>
-      <c r="B177" s="160"/>
-      <c r="C177" s="160"/>
+      <c r="A177" s="148"/>
+      <c r="B177" s="151"/>
+      <c r="C177" s="151"/>
       <c r="D177" s="135">
         <v>176</v>
       </c>
@@ -7893,9 +7893,9 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="149"/>
-      <c r="B178" s="160"/>
-      <c r="C178" s="160"/>
+      <c r="A178" s="148"/>
+      <c r="B178" s="151"/>
+      <c r="C178" s="151"/>
       <c r="D178" s="135">
         <v>177</v>
       </c>
@@ -7910,9 +7910,9 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="149"/>
-      <c r="B179" s="160"/>
-      <c r="C179" s="160"/>
+      <c r="A179" s="148"/>
+      <c r="B179" s="151"/>
+      <c r="C179" s="151"/>
       <c r="D179" s="135">
         <v>178</v>
       </c>
@@ -7927,9 +7927,9 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="149"/>
-      <c r="B180" s="160"/>
-      <c r="C180" s="160"/>
+      <c r="A180" s="148"/>
+      <c r="B180" s="151"/>
+      <c r="C180" s="151"/>
       <c r="D180" s="135">
         <v>179</v>
       </c>
@@ -7944,9 +7944,9 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="154"/>
-      <c r="B181" s="161"/>
-      <c r="C181" s="161"/>
+      <c r="A181" s="150"/>
+      <c r="B181" s="152"/>
+      <c r="C181" s="152"/>
       <c r="D181" s="135">
         <v>180</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>181</v>
       </c>
       <c r="E182" s="142" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="F182" s="142" t="s">
         <v>508</v>
@@ -7983,6 +7983,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A81:A84"/>
     <mergeCell ref="C40:C45"/>
     <mergeCell ref="C72:C78"/>
     <mergeCell ref="A175:A181"/>
@@ -7999,41 +8034,6 @@
     <mergeCell ref="A153:A155"/>
     <mergeCell ref="C56:C62"/>
     <mergeCell ref="B72:B78"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="A65:A67"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/project/Integrate_120KW_megmeet/IntegrateConfig.xlsx
+++ b/config/project/Integrate_120KW_megmeet/IntegrateConfig.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\Integrate_120KW_megmeet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{51448954-CE34-4B15-B6B9-35B7B3E37DE1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="514">
   <si>
     <t>组序号</t>
   </si>
@@ -2599,11 +2600,27 @@
     <t>ZC</t>
     <phoneticPr fontId="36" type="noConversion"/>
   </si>
+  <si>
+    <t>0.2</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.77</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>350</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="60" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3516,7 +3533,7 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3916,33 +3933,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3952,50 +3996,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="4"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="5"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="6"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="7"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="8"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="10"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="11"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="12"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="16"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="18"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="标题" xfId="19" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="20" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="21" builtinId="17" customBuiltin="1"/>
@@ -4003,8 +4023,8 @@
     <cellStyle name="标题 4" xfId="23" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="24" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="25"/>
-    <cellStyle name="常规 3" xfId="43"/>
+    <cellStyle name="常规 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="常规 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="好" xfId="26" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="27" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="28" builtinId="22" customBuiltin="1"/>
@@ -4012,12 +4032,12 @@
     <cellStyle name="解释性文本" xfId="30" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="31" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="32" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="33"/>
-    <cellStyle name="强调文字颜色 2" xfId="34"/>
-    <cellStyle name="强调文字颜色 3" xfId="35"/>
-    <cellStyle name="强调文字颜色 4" xfId="36"/>
-    <cellStyle name="强调文字颜色 5" xfId="37"/>
-    <cellStyle name="强调文字颜色 6" xfId="38"/>
+    <cellStyle name="强调文字颜色 1" xfId="33" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="强调文字颜色 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="强调文字颜色 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="强调文字颜色 4" xfId="36" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="强调文字颜色 5" xfId="37" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="适中" xfId="39" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="40" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="41" builtinId="20" customBuiltin="1"/>
@@ -4332,11 +4352,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B169" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E182" sqref="E182"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="85" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4674,11 +4694,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="159"/>
-      <c r="B15" s="159" t="s">
+      <c r="A15" s="148"/>
+      <c r="B15" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="159" t="s">
+      <c r="C15" s="148" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
@@ -4809,11 +4829,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="147"/>
-      <c r="B22" s="147" t="s">
+      <c r="A22" s="154"/>
+      <c r="B22" s="154" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="147" t="s">
+      <c r="C22" s="154" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="20">
@@ -4830,9 +4850,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="148"/>
-      <c r="B23" s="148"/>
-      <c r="C23" s="148"/>
+      <c r="A23" s="150"/>
+      <c r="B23" s="150"/>
+      <c r="C23" s="150"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
@@ -4847,9 +4867,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="148"/>
-      <c r="B24" s="148"/>
-      <c r="C24" s="148"/>
+      <c r="A24" s="150"/>
+      <c r="B24" s="150"/>
+      <c r="C24" s="150"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
@@ -4864,9 +4884,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="148"/>
-      <c r="B25" s="148"/>
-      <c r="C25" s="148"/>
+      <c r="A25" s="150"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="150"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
@@ -4881,9 +4901,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="150"/>
-      <c r="B26" s="150"/>
-      <c r="C26" s="150"/>
+      <c r="A26" s="155"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="155"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
@@ -4940,11 +4960,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="163"/>
-      <c r="B29" s="160" t="s">
+      <c r="A29" s="156"/>
+      <c r="B29" s="159" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="160" t="s">
+      <c r="C29" s="159" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -4961,9 +4981,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="161"/>
-      <c r="B30" s="161"/>
-      <c r="C30" s="161"/>
+      <c r="A30" s="157"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="157"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
@@ -4978,9 +4998,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="161"/>
-      <c r="B31" s="161"/>
-      <c r="C31" s="161"/>
+      <c r="A31" s="157"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
@@ -4995,9 +5015,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="161"/>
-      <c r="B32" s="161"/>
-      <c r="C32" s="161"/>
+      <c r="A32" s="157"/>
+      <c r="B32" s="157"/>
+      <c r="C32" s="157"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
@@ -5012,9 +5032,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="162"/>
-      <c r="B33" s="162"/>
-      <c r="C33" s="162"/>
+      <c r="A33" s="158"/>
+      <c r="B33" s="158"/>
+      <c r="C33" s="158"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
@@ -5071,7 +5091,7 @@
       <c r="B36" s="146" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="159" t="s">
+      <c r="C36" s="148" t="s">
         <v>148</v>
       </c>
       <c r="D36" s="20">
@@ -5106,10 +5126,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="146"/>
-      <c r="B38" s="145" t="s">
+      <c r="B38" s="147" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="145" t="s">
+      <c r="C38" s="147" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
@@ -5147,7 +5167,7 @@
       <c r="B40" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="145" t="s">
+      <c r="C40" s="147" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -5316,11 +5336,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="164"/>
-      <c r="B49" s="157" t="s">
+      <c r="A49" s="153"/>
+      <c r="B49" s="151" t="s">
         <v>198</v>
       </c>
-      <c r="C49" s="158" t="s">
+      <c r="C49" s="152" t="s">
         <v>287</v>
       </c>
       <c r="D49" s="20">
@@ -5455,11 +5475,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="147"/>
+      <c r="A56" s="154"/>
       <c r="B56" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="147" t="s">
+      <c r="C56" s="154" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="20">
@@ -5476,94 +5496,94 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="148"/>
-      <c r="B57" s="148"/>
-      <c r="C57" s="148"/>
+      <c r="A57" s="150"/>
+      <c r="B57" s="150"/>
+      <c r="C57" s="150"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
       <c r="E57" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="F57" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="28">
-        <v>2.77</v>
+      <c r="F57" s="130" t="s">
+        <v>510</v>
+      </c>
+      <c r="G57" s="130" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="148"/>
-      <c r="B58" s="148"/>
-      <c r="C58" s="148"/>
+      <c r="A58" s="150"/>
+      <c r="B58" s="150"/>
+      <c r="C58" s="150"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
       <c r="E58" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F58" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="28">
-        <v>350</v>
+      <c r="F58" s="130" t="s">
+        <v>512</v>
+      </c>
+      <c r="G58" s="130" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="148"/>
-      <c r="B59" s="148"/>
-      <c r="C59" s="148"/>
+      <c r="A59" s="150"/>
+      <c r="B59" s="150"/>
+      <c r="C59" s="150"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
       <c r="E59" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="F59" s="69" t="s">
+      <c r="F59" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="28" t="s">
+      <c r="G59" s="145" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="148"/>
-      <c r="B60" s="148"/>
-      <c r="C60" s="148"/>
+      <c r="A60" s="150"/>
+      <c r="B60" s="150"/>
+      <c r="C60" s="150"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
       <c r="E60" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="F60" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="28">
-        <v>2.77</v>
+      <c r="F60" s="130" t="s">
+        <v>510</v>
+      </c>
+      <c r="G60" s="130" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="148"/>
-      <c r="B61" s="148"/>
-      <c r="C61" s="148"/>
+      <c r="A61" s="150"/>
+      <c r="B61" s="150"/>
+      <c r="C61" s="150"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
       <c r="E61" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="F61" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="28">
-        <v>350</v>
+      <c r="F61" s="130" t="s">
+        <v>512</v>
+      </c>
+      <c r="G61" s="130" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="148"/>
-      <c r="B62" s="148"/>
-      <c r="C62" s="148"/>
+      <c r="A62" s="150"/>
+      <c r="B62" s="150"/>
+      <c r="C62" s="150"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
@@ -5620,11 +5640,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="164"/>
-      <c r="B65" s="157" t="s">
+      <c r="A65" s="153"/>
+      <c r="B65" s="151" t="s">
         <v>199</v>
       </c>
-      <c r="C65" s="158" t="s">
+      <c r="C65" s="152" t="s">
         <v>287</v>
       </c>
       <c r="D65" s="20">
@@ -5759,11 +5779,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="147"/>
+      <c r="A72" s="154"/>
       <c r="B72" s="149" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="147" t="s">
+      <c r="C72" s="154" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="20">
@@ -5780,43 +5800,43 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="148"/>
-      <c r="B73" s="148"/>
-      <c r="C73" s="148"/>
+      <c r="A73" s="150"/>
+      <c r="B73" s="150"/>
+      <c r="C73" s="150"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
       <c r="E73" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F73" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="37">
-        <v>2.77</v>
+      <c r="F73" s="130" t="s">
+        <v>510</v>
+      </c>
+      <c r="G73" s="130" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="148"/>
-      <c r="B74" s="148"/>
-      <c r="C74" s="148"/>
+      <c r="A74" s="150"/>
+      <c r="B74" s="150"/>
+      <c r="C74" s="150"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
       <c r="E74" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="F74" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="37">
-        <v>350</v>
+      <c r="F74" s="130" t="s">
+        <v>512</v>
+      </c>
+      <c r="G74" s="130" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="148"/>
-      <c r="B75" s="148"/>
-      <c r="C75" s="148"/>
+      <c r="A75" s="150"/>
+      <c r="B75" s="150"/>
+      <c r="C75" s="150"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
@@ -5831,43 +5851,43 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="148"/>
-      <c r="B76" s="148"/>
-      <c r="C76" s="148"/>
+      <c r="A76" s="150"/>
+      <c r="B76" s="150"/>
+      <c r="C76" s="150"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
       <c r="E76" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="F76" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="37">
-        <v>2.77</v>
+      <c r="F76" s="130" t="s">
+        <v>510</v>
+      </c>
+      <c r="G76" s="130" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="148"/>
-      <c r="B77" s="148"/>
-      <c r="C77" s="148"/>
+      <c r="A77" s="150"/>
+      <c r="B77" s="150"/>
+      <c r="C77" s="150"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
       <c r="E77" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="F77" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="37">
-        <v>350</v>
+      <c r="F77" s="130" t="s">
+        <v>512</v>
+      </c>
+      <c r="G77" s="130" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="148"/>
-      <c r="B78" s="148"/>
-      <c r="C78" s="148"/>
+      <c r="A78" s="150"/>
+      <c r="B78" s="150"/>
+      <c r="C78" s="150"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
@@ -5924,11 +5944,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="159"/>
-      <c r="B81" s="159" t="s">
+      <c r="A81" s="148"/>
+      <c r="B81" s="148" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="145" t="s">
+      <c r="C81" s="147" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -6290,11 +6310,11 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="153"/>
-      <c r="B99" s="153" t="s">
+      <c r="A99" s="160"/>
+      <c r="B99" s="160" t="s">
         <v>297</v>
       </c>
-      <c r="C99" s="153" t="s">
+      <c r="C99" s="160" t="s">
         <v>76</v>
       </c>
       <c r="D99" s="83">
@@ -6311,9 +6331,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="153"/>
-      <c r="B100" s="153"/>
-      <c r="C100" s="153"/>
+      <c r="A100" s="160"/>
+      <c r="B100" s="160"/>
+      <c r="C100" s="160"/>
       <c r="D100" s="83">
         <v>99</v>
       </c>
@@ -6328,9 +6348,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="153"/>
-      <c r="B101" s="153"/>
-      <c r="C101" s="153"/>
+      <c r="A101" s="160"/>
+      <c r="B101" s="160"/>
+      <c r="C101" s="160"/>
       <c r="D101" s="83">
         <v>100</v>
       </c>
@@ -6366,11 +6386,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="153"/>
-      <c r="B103" s="153" t="s">
+      <c r="A103" s="160"/>
+      <c r="B103" s="160" t="s">
         <v>299</v>
       </c>
-      <c r="C103" s="153" t="s">
+      <c r="C103" s="160" t="s">
         <v>58</v>
       </c>
       <c r="D103" s="78">
@@ -6387,9 +6407,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="154"/>
-      <c r="B104" s="154"/>
-      <c r="C104" s="154"/>
+      <c r="A104" s="163"/>
+      <c r="B104" s="163"/>
+      <c r="C104" s="163"/>
       <c r="D104" s="78">
         <v>103</v>
       </c>
@@ -6404,9 +6424,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="154"/>
-      <c r="B105" s="154"/>
-      <c r="C105" s="154"/>
+      <c r="A105" s="163"/>
+      <c r="B105" s="163"/>
+      <c r="C105" s="163"/>
       <c r="D105" s="78">
         <v>104</v>
       </c>
@@ -7408,8 +7428,8 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="156"/>
-      <c r="B153" s="155" t="s">
+      <c r="A153" s="165"/>
+      <c r="B153" s="164" t="s">
         <v>459</v>
       </c>
       <c r="C153" s="146" t="s">
@@ -7429,8 +7449,8 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="156"/>
-      <c r="B154" s="156"/>
+      <c r="A154" s="165"/>
+      <c r="B154" s="165"/>
       <c r="C154" s="146"/>
       <c r="D154" s="125">
         <v>153</v>
@@ -7446,8 +7466,8 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="156"/>
-      <c r="B155" s="156"/>
+      <c r="A155" s="165"/>
+      <c r="B155" s="165"/>
       <c r="C155" s="146"/>
       <c r="D155" s="125">
         <v>154</v>
@@ -7736,9 +7756,9 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="148"/>
-      <c r="B169" s="151"/>
-      <c r="C169" s="151"/>
+      <c r="A169" s="150"/>
+      <c r="B169" s="161"/>
+      <c r="C169" s="161"/>
       <c r="D169" s="135">
         <v>168</v>
       </c>
@@ -7753,9 +7773,9 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="148"/>
-      <c r="B170" s="151"/>
-      <c r="C170" s="151"/>
+      <c r="A170" s="150"/>
+      <c r="B170" s="161"/>
+      <c r="C170" s="161"/>
       <c r="D170" s="135">
         <v>169</v>
       </c>
@@ -7770,9 +7790,9 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="148"/>
-      <c r="B171" s="151"/>
-      <c r="C171" s="151"/>
+      <c r="A171" s="150"/>
+      <c r="B171" s="161"/>
+      <c r="C171" s="161"/>
       <c r="D171" s="135">
         <v>170</v>
       </c>
@@ -7787,9 +7807,9 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="148"/>
-      <c r="B172" s="151"/>
-      <c r="C172" s="151"/>
+      <c r="A172" s="150"/>
+      <c r="B172" s="161"/>
+      <c r="C172" s="161"/>
       <c r="D172" s="135">
         <v>171</v>
       </c>
@@ -7804,9 +7824,9 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="148"/>
-      <c r="B173" s="151"/>
-      <c r="C173" s="151"/>
+      <c r="A173" s="150"/>
+      <c r="B173" s="161"/>
+      <c r="C173" s="161"/>
       <c r="D173" s="135">
         <v>172</v>
       </c>
@@ -7821,9 +7841,9 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="150"/>
-      <c r="B174" s="152"/>
-      <c r="C174" s="152"/>
+      <c r="A174" s="155"/>
+      <c r="B174" s="162"/>
+      <c r="C174" s="162"/>
       <c r="D174" s="135">
         <v>173</v>
       </c>
@@ -7859,9 +7879,9 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="148"/>
-      <c r="B176" s="151"/>
-      <c r="C176" s="151"/>
+      <c r="A176" s="150"/>
+      <c r="B176" s="161"/>
+      <c r="C176" s="161"/>
       <c r="D176" s="135">
         <v>175</v>
       </c>
@@ -7876,9 +7896,9 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="148"/>
-      <c r="B177" s="151"/>
-      <c r="C177" s="151"/>
+      <c r="A177" s="150"/>
+      <c r="B177" s="161"/>
+      <c r="C177" s="161"/>
       <c r="D177" s="135">
         <v>176</v>
       </c>
@@ -7893,9 +7913,9 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="148"/>
-      <c r="B178" s="151"/>
-      <c r="C178" s="151"/>
+      <c r="A178" s="150"/>
+      <c r="B178" s="161"/>
+      <c r="C178" s="161"/>
       <c r="D178" s="135">
         <v>177</v>
       </c>
@@ -7910,9 +7930,9 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="148"/>
-      <c r="B179" s="151"/>
-      <c r="C179" s="151"/>
+      <c r="A179" s="150"/>
+      <c r="B179" s="161"/>
+      <c r="C179" s="161"/>
       <c r="D179" s="135">
         <v>178</v>
       </c>
@@ -7927,9 +7947,9 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="148"/>
-      <c r="B180" s="151"/>
-      <c r="C180" s="151"/>
+      <c r="A180" s="150"/>
+      <c r="B180" s="161"/>
+      <c r="C180" s="161"/>
       <c r="D180" s="135">
         <v>179</v>
       </c>
@@ -7944,9 +7964,9 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="150"/>
-      <c r="B181" s="152"/>
-      <c r="C181" s="152"/>
+      <c r="A181" s="155"/>
+      <c r="B181" s="162"/>
+      <c r="C181" s="162"/>
       <c r="D181" s="135">
         <v>180</v>
       </c>
@@ -7983,6 +8003,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="A175:A181"/>
+    <mergeCell ref="B175:B181"/>
+    <mergeCell ref="C175:C181"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A168:A174"/>
+    <mergeCell ref="B168:B174"/>
+    <mergeCell ref="C168:C174"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="B72:B78"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="C81:C84"/>
     <mergeCell ref="B81:B84"/>
@@ -7999,41 +8054,6 @@
     <mergeCell ref="A56:A62"/>
     <mergeCell ref="A72:A78"/>
     <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="A175:A181"/>
-    <mergeCell ref="B175:B181"/>
-    <mergeCell ref="C175:C181"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A168:A174"/>
-    <mergeCell ref="B168:B174"/>
-    <mergeCell ref="C168:C174"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="B72:B78"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8043,7 +8063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8395,7 +8415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView topLeftCell="B29" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -8854,7 +8874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8975,7 +8995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9488,7 +9508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L87"/>
   <sheetViews>
     <sheetView topLeftCell="A75" workbookViewId="0">
@@ -11251,7 +11271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AB45"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="82" workbookViewId="0">

--- a/config/project/Integrate_120KW_megmeet/IntegrateConfig.xlsx
+++ b/config/project/Integrate_120KW_megmeet/IntegrateConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\Integrate_120KW_megmeet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{51448954-CE34-4B15-B6B9-35B7B3E37DE1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6FE2245D-8499-4593-8902-2CE2DDEEED17}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="512">
   <si>
     <t>组序号</t>
   </si>
@@ -698,10 +698,6 @@
     <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
-    <t>枪1直流充电模块工作状态</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
     <t>枪1电表电流</t>
     <phoneticPr fontId="36" type="noConversion"/>
   </si>
@@ -803,10 +799,6 @@
   </si>
   <si>
     <t>枪2电表电能量</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪2直流充电模块工作状态</t>
     <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
@@ -3533,7 +3525,7 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3936,65 +3928,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -4355,8 +4350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="85" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="B64" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4694,11 +4689,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="148"/>
-      <c r="B15" s="148" t="s">
+      <c r="A15" s="160"/>
+      <c r="B15" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="148" t="s">
+      <c r="C15" s="160" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
@@ -4715,9 +4710,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="146"/>
-      <c r="B16" s="146"/>
-      <c r="C16" s="146"/>
+      <c r="A16" s="147"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
@@ -4732,9 +4727,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="146"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
+      <c r="A17" s="147"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="147"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
@@ -4749,9 +4744,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="146"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="146"/>
+      <c r="A18" s="147"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="147"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
@@ -4766,9 +4761,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="146"/>
-      <c r="B19" s="146"/>
-      <c r="C19" s="146"/>
+      <c r="A19" s="147"/>
+      <c r="B19" s="147"/>
+      <c r="C19" s="147"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
@@ -4829,11 +4824,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="154"/>
-      <c r="B22" s="154" t="s">
+      <c r="A22" s="148"/>
+      <c r="B22" s="148" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="154" t="s">
+      <c r="C22" s="148" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="20">
@@ -4850,9 +4845,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="150"/>
-      <c r="B23" s="150"/>
-      <c r="C23" s="150"/>
+      <c r="A23" s="149"/>
+      <c r="B23" s="149"/>
+      <c r="C23" s="149"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
@@ -4867,9 +4862,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="150"/>
-      <c r="B24" s="150"/>
-      <c r="C24" s="150"/>
+      <c r="A24" s="149"/>
+      <c r="B24" s="149"/>
+      <c r="C24" s="149"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
@@ -4884,9 +4879,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="150"/>
-      <c r="B25" s="150"/>
-      <c r="C25" s="150"/>
+      <c r="A25" s="149"/>
+      <c r="B25" s="149"/>
+      <c r="C25" s="149"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
@@ -4901,9 +4896,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="155"/>
-      <c r="B26" s="155"/>
-      <c r="C26" s="155"/>
+      <c r="A26" s="151"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="151"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
@@ -4960,11 +4955,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="156"/>
-      <c r="B29" s="159" t="s">
+      <c r="A29" s="164"/>
+      <c r="B29" s="161" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="159" t="s">
+      <c r="C29" s="161" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -4981,9 +4976,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="157"/>
-      <c r="B30" s="157"/>
-      <c r="C30" s="157"/>
+      <c r="A30" s="162"/>
+      <c r="B30" s="162"/>
+      <c r="C30" s="162"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
@@ -4998,9 +4993,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="157"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
+      <c r="A31" s="162"/>
+      <c r="B31" s="162"/>
+      <c r="C31" s="162"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
@@ -5015,9 +5010,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="157"/>
-      <c r="B32" s="157"/>
-      <c r="C32" s="157"/>
+      <c r="A32" s="162"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="162"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
@@ -5032,14 +5027,14 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="158"/>
-      <c r="B33" s="158"/>
-      <c r="C33" s="158"/>
+      <c r="A33" s="163"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="163"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
       <c r="E33" s="98" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F33" s="69" t="s">
         <v>11</v>
@@ -5049,11 +5044,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="146"/>
-      <c r="B34" s="146" t="s">
+      <c r="A34" s="147"/>
+      <c r="B34" s="147" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="146" t="s">
+      <c r="C34" s="147" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
@@ -5070,9 +5065,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="146"/>
-      <c r="B35" s="146"/>
-      <c r="C35" s="146"/>
+      <c r="A35" s="147"/>
+      <c r="B35" s="147"/>
+      <c r="C35" s="147"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
@@ -5087,18 +5082,18 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="146"/>
-      <c r="B36" s="146" t="s">
+      <c r="A36" s="147"/>
+      <c r="B36" s="147" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="148" t="s">
-        <v>148</v>
+      <c r="C36" s="160" t="s">
+        <v>147</v>
       </c>
       <c r="D36" s="20">
         <v>35</v>
       </c>
       <c r="E36" s="101" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F36" s="71" t="s">
         <v>73</v>
@@ -5108,14 +5103,14 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="146"/>
-      <c r="B37" s="146"/>
-      <c r="C37" s="146"/>
+      <c r="A37" s="147"/>
+      <c r="B37" s="147"/>
+      <c r="C37" s="147"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
       <c r="E37" s="101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F37" s="69" t="s">
         <v>11</v>
@@ -5125,18 +5120,18 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="146"/>
-      <c r="B38" s="147" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" s="147" t="s">
+      <c r="A38" s="147"/>
+      <c r="B38" s="146" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="146" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
         <v>37</v>
       </c>
       <c r="E38" s="101" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F38" s="70" t="s">
         <v>11</v>
@@ -5146,14 +5141,14 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="146"/>
-      <c r="B39" s="146"/>
-      <c r="C39" s="146"/>
+      <c r="A39" s="147"/>
+      <c r="B39" s="147"/>
+      <c r="C39" s="147"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
       <c r="E39" s="101" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F39" s="69" t="s">
         <v>11</v>
@@ -5163,11 +5158,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="146"/>
-      <c r="B40" s="146" t="s">
+      <c r="A40" s="147"/>
+      <c r="B40" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="147" t="s">
+      <c r="C40" s="146" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -5180,13 +5175,13 @@
         <v>11</v>
       </c>
       <c r="G40" s="55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="146"/>
-      <c r="B41" s="146"/>
-      <c r="C41" s="146"/>
+      <c r="A41" s="147"/>
+      <c r="B41" s="147"/>
+      <c r="C41" s="147"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
@@ -5197,13 +5192,13 @@
         <v>11</v>
       </c>
       <c r="G41" s="55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="146"/>
-      <c r="B42" s="146"/>
-      <c r="C42" s="146"/>
+      <c r="A42" s="147"/>
+      <c r="B42" s="147"/>
+      <c r="C42" s="147"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
@@ -5214,13 +5209,13 @@
         <v>11</v>
       </c>
       <c r="G42" s="55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="146"/>
-      <c r="B43" s="146"/>
-      <c r="C43" s="146"/>
+      <c r="A43" s="147"/>
+      <c r="B43" s="147"/>
+      <c r="C43" s="147"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
@@ -5231,13 +5226,13 @@
         <v>11</v>
       </c>
       <c r="G43" s="55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="146"/>
-      <c r="B44" s="146"/>
-      <c r="C44" s="146"/>
+      <c r="A44" s="147"/>
+      <c r="B44" s="147"/>
+      <c r="C44" s="147"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
@@ -5248,15 +5243,15 @@
         <v>11</v>
       </c>
       <c r="G44" s="55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="146">
+      <c r="A45" s="147">
         <v>13</v>
       </c>
-      <c r="B45" s="146"/>
-      <c r="C45" s="146" t="s">
+      <c r="B45" s="147"/>
+      <c r="C45" s="147" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -5269,7 +5264,7 @@
         <v>11</v>
       </c>
       <c r="G45" s="55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -5278,7 +5273,7 @@
         <v>78</v>
       </c>
       <c r="C46" s="110" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D46" s="20">
         <v>45</v>
@@ -5317,16 +5312,16 @@
     <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="58" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C48" s="110" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D48" s="20">
         <v>47</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F48" s="70" t="s">
         <v>77</v>
@@ -5336,55 +5331,55 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="153"/>
-      <c r="B49" s="151" t="s">
-        <v>198</v>
-      </c>
-      <c r="C49" s="152" t="s">
-        <v>287</v>
+      <c r="A49" s="165"/>
+      <c r="B49" s="158" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" s="159" t="s">
+        <v>285</v>
       </c>
       <c r="D49" s="20">
         <v>48</v>
       </c>
       <c r="E49" s="50" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F49" s="72" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="146"/>
-      <c r="B50" s="146"/>
-      <c r="C50" s="146"/>
+      <c r="A50" s="147"/>
+      <c r="B50" s="147"/>
+      <c r="C50" s="147"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
       <c r="E50" s="50" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F50" s="72" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="146"/>
-      <c r="B51" s="146"/>
-      <c r="C51" s="146"/>
+      <c r="A51" s="147"/>
+      <c r="B51" s="147"/>
+      <c r="C51" s="147"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
       <c r="E51" s="50" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F51" s="72" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>11</v>
@@ -5393,7 +5388,7 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="49"/>
       <c r="B52" s="45" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C52" s="108" t="s">
         <v>58</v>
@@ -5402,7 +5397,7 @@
         <v>51</v>
       </c>
       <c r="E52" s="46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F52" s="71" t="s">
         <v>73</v>
@@ -5414,7 +5409,7 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="49"/>
       <c r="B53" s="45" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C53" s="110" t="s">
         <v>58</v>
@@ -5423,7 +5418,7 @@
         <v>52</v>
       </c>
       <c r="E53" s="46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F53" s="69" t="s">
         <v>11</v>
@@ -5475,18 +5470,18 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="154"/>
-      <c r="B56" s="149" t="s">
+      <c r="A56" s="148"/>
+      <c r="B56" s="150" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="154" t="s">
+      <c r="C56" s="148" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="20">
         <v>55</v>
       </c>
-      <c r="E56" s="29" t="s">
-        <v>134</v>
+      <c r="E56" s="23" t="s">
+        <v>84</v>
       </c>
       <c r="F56" s="69" t="s">
         <v>11</v>
@@ -5496,48 +5491,48 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="150"/>
-      <c r="B57" s="150"/>
-      <c r="C57" s="150"/>
+      <c r="A57" s="149"/>
+      <c r="B57" s="149"/>
+      <c r="C57" s="149"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F57" s="130" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G57" s="130" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="150"/>
-      <c r="B58" s="150"/>
-      <c r="C58" s="150"/>
+      <c r="A58" s="149"/>
+      <c r="B58" s="149"/>
+      <c r="C58" s="149"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F58" s="130" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G58" s="130" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="150"/>
-      <c r="B59" s="150"/>
-      <c r="C59" s="150"/>
+      <c r="A59" s="149"/>
+      <c r="B59" s="149"/>
+      <c r="C59" s="149"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F59" s="145" t="s">
         <v>11</v>
@@ -5547,48 +5542,48 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="150"/>
-      <c r="B60" s="150"/>
-      <c r="C60" s="150"/>
+      <c r="A60" s="149"/>
+      <c r="B60" s="149"/>
+      <c r="C60" s="149"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F60" s="130" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G60" s="130" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="150"/>
-      <c r="B61" s="150"/>
-      <c r="C61" s="150"/>
+      <c r="A61" s="149"/>
+      <c r="B61" s="149"/>
+      <c r="C61" s="149"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F61" s="130" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G61" s="130" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="150"/>
-      <c r="B62" s="150"/>
-      <c r="C62" s="150"/>
+      <c r="A62" s="149"/>
+      <c r="B62" s="149"/>
+      <c r="C62" s="149"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F62" s="69" t="s">
         <v>11</v>
@@ -5624,7 +5619,7 @@
         <v>84</v>
       </c>
       <c r="C64" s="110" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D64" s="20">
         <v>63</v>
@@ -5640,55 +5635,55 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="153"/>
-      <c r="B65" s="151" t="s">
-        <v>199</v>
-      </c>
-      <c r="C65" s="152" t="s">
-        <v>287</v>
+      <c r="A65" s="165"/>
+      <c r="B65" s="158" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="159" t="s">
+        <v>285</v>
       </c>
       <c r="D65" s="20">
         <v>64</v>
       </c>
       <c r="E65" s="50" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F65" s="72" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G65" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="146"/>
-      <c r="B66" s="146"/>
-      <c r="C66" s="146"/>
+      <c r="A66" s="147"/>
+      <c r="B66" s="147"/>
+      <c r="C66" s="147"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
       <c r="E66" s="50" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F66" s="72" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G66" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="146"/>
-      <c r="B67" s="146"/>
-      <c r="C67" s="146"/>
+      <c r="A67" s="147"/>
+      <c r="B67" s="147"/>
+      <c r="C67" s="147"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
       <c r="E67" s="50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F67" s="72" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G67" s="48" t="s">
         <v>11</v>
@@ -5697,7 +5692,7 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="45"/>
       <c r="B68" s="65" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C68" s="45" t="s">
         <v>58</v>
@@ -5706,7 +5701,7 @@
         <v>67</v>
       </c>
       <c r="E68" s="66" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F68" s="71" t="s">
         <v>73</v>
@@ -5718,7 +5713,7 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="45"/>
       <c r="B69" s="45" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C69" s="110" t="s">
         <v>58</v>
@@ -5727,7 +5722,7 @@
         <v>68</v>
       </c>
       <c r="E69" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F69" s="69" t="s">
         <v>11</v>
@@ -5779,18 +5774,18 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="154"/>
-      <c r="B72" s="149" t="s">
+      <c r="A72" s="148"/>
+      <c r="B72" s="150" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="154" t="s">
+      <c r="C72" s="148" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="20">
         <v>71</v>
       </c>
-      <c r="E72" s="39" t="s">
-        <v>158</v>
+      <c r="E72" s="166" t="s">
+        <v>87</v>
       </c>
       <c r="F72" s="69" t="s">
         <v>11</v>
@@ -5800,48 +5795,48 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="150"/>
-      <c r="B73" s="150"/>
-      <c r="C73" s="150"/>
+      <c r="A73" s="149"/>
+      <c r="B73" s="149"/>
+      <c r="C73" s="149"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
       <c r="E73" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F73" s="130" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G73" s="130" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="150"/>
-      <c r="B74" s="150"/>
-      <c r="C74" s="150"/>
+      <c r="A74" s="149"/>
+      <c r="B74" s="149"/>
+      <c r="C74" s="149"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
       <c r="E74" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F74" s="130" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G74" s="130" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="150"/>
-      <c r="B75" s="150"/>
-      <c r="C75" s="150"/>
+      <c r="A75" s="149"/>
+      <c r="B75" s="149"/>
+      <c r="C75" s="149"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
       <c r="E75" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F75" s="69" t="s">
         <v>11</v>
@@ -5851,48 +5846,48 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="150"/>
-      <c r="B76" s="150"/>
-      <c r="C76" s="150"/>
+      <c r="A76" s="149"/>
+      <c r="B76" s="149"/>
+      <c r="C76" s="149"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
       <c r="E76" s="39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F76" s="130" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G76" s="130" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="150"/>
-      <c r="B77" s="150"/>
-      <c r="C77" s="150"/>
+      <c r="A77" s="149"/>
+      <c r="B77" s="149"/>
+      <c r="C77" s="149"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
       <c r="E77" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F77" s="130" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G77" s="130" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="150"/>
-      <c r="B78" s="150"/>
-      <c r="C78" s="150"/>
+      <c r="A78" s="149"/>
+      <c r="B78" s="149"/>
+      <c r="C78" s="149"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
       <c r="E78" s="39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F78" s="69" t="s">
         <v>11</v>
@@ -5928,12 +5923,12 @@
         <v>87</v>
       </c>
       <c r="C80" s="110" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D80" s="20">
         <v>79</v>
       </c>
-      <c r="E80" s="23" t="s">
+      <c r="E80" s="166" t="s">
         <v>87</v>
       </c>
       <c r="F80" s="69" t="s">
@@ -5944,11 +5939,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="148"/>
-      <c r="B81" s="148" t="s">
+      <c r="A81" s="160"/>
+      <c r="B81" s="160" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="147" t="s">
+      <c r="C81" s="146" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -5965,9 +5960,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="146"/>
-      <c r="B82" s="146"/>
-      <c r="C82" s="146"/>
+      <c r="A82" s="147"/>
+      <c r="B82" s="147"/>
+      <c r="C82" s="147"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
@@ -5982,9 +5977,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="146"/>
-      <c r="B83" s="146"/>
-      <c r="C83" s="146"/>
+      <c r="A83" s="147"/>
+      <c r="B83" s="147"/>
+      <c r="C83" s="147"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
@@ -5999,9 +5994,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="146"/>
-      <c r="B84" s="146"/>
-      <c r="C84" s="146"/>
+      <c r="A84" s="147"/>
+      <c r="B84" s="147"/>
+      <c r="C84" s="147"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
@@ -6063,7 +6058,7 @@
         <v>93</v>
       </c>
       <c r="C87" s="110" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D87" s="68">
         <v>86</v>
@@ -6081,16 +6076,16 @@
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="116" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C88" s="110" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D88" s="68">
         <v>87</v>
       </c>
       <c r="E88" s="98" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F88" s="69">
         <v>20</v>
@@ -6102,16 +6097,16 @@
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="32"/>
       <c r="B89" s="116" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C89" s="110" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D89" s="68">
         <v>88</v>
       </c>
       <c r="E89" s="98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F89" s="69">
         <v>20</v>
@@ -6123,16 +6118,16 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="116" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C90" s="110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D90" s="68">
         <v>89</v>
       </c>
       <c r="E90" s="98" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F90" s="70">
         <v>3</v>
@@ -6144,7 +6139,7 @@
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="20"/>
       <c r="B91" s="116" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C91" s="111" t="s">
         <v>58</v>
@@ -6153,19 +6148,19 @@
         <v>90</v>
       </c>
       <c r="E91" s="98" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F91" s="70" t="s">
         <v>73</v>
       </c>
       <c r="G91" s="55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="20"/>
       <c r="B92" s="116" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C92" s="111" t="s">
         <v>58</v>
@@ -6174,19 +6169,19 @@
         <v>91</v>
       </c>
       <c r="E92" s="98" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F92" s="70" t="s">
         <v>73</v>
       </c>
       <c r="G92" s="55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="20"/>
       <c r="B93" s="116" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C93" s="111" t="s">
         <v>58</v>
@@ -6195,19 +6190,19 @@
         <v>92</v>
       </c>
       <c r="E93" s="98" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F93" s="70" t="s">
         <v>73</v>
       </c>
       <c r="G93" s="55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
       <c r="B94" s="116" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C94" s="111" t="s">
         <v>58</v>
@@ -6216,19 +6211,19 @@
         <v>93</v>
       </c>
       <c r="E94" s="98" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F94" s="70" t="s">
         <v>73</v>
       </c>
       <c r="G94" s="55" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
       <c r="B95" s="116" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C95" s="111" t="s">
         <v>58</v>
@@ -6237,19 +6232,19 @@
         <v>94</v>
       </c>
       <c r="E95" s="98" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F95" s="70" t="s">
         <v>73</v>
       </c>
       <c r="G95" s="55" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="20"/>
       <c r="B96" s="116" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C96" s="111" t="s">
         <v>58</v>
@@ -6258,28 +6253,28 @@
         <v>95</v>
       </c>
       <c r="E96" s="98" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F96" s="70" t="s">
         <v>73</v>
       </c>
       <c r="G96" s="55" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="68"/>
       <c r="B97" s="117" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C97" s="111" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D97" s="68">
         <v>96</v>
       </c>
       <c r="E97" s="98" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F97" s="70" t="s">
         <v>73</v>
@@ -6291,7 +6286,7 @@
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="68"/>
       <c r="B98" s="117" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C98" s="111" t="s">
         <v>76</v>
@@ -6300,7 +6295,7 @@
         <v>97</v>
       </c>
       <c r="E98" s="98" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F98" s="70" t="s">
         <v>73</v>
@@ -6310,18 +6305,18 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="160"/>
-      <c r="B99" s="160" t="s">
-        <v>297</v>
-      </c>
-      <c r="C99" s="160" t="s">
+      <c r="A99" s="154"/>
+      <c r="B99" s="154" t="s">
+        <v>295</v>
+      </c>
+      <c r="C99" s="154" t="s">
         <v>76</v>
       </c>
       <c r="D99" s="83">
         <v>98</v>
       </c>
       <c r="E99" s="98" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F99" s="82" t="s">
         <v>73</v>
@@ -6331,14 +6326,14 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="160"/>
-      <c r="B100" s="160"/>
-      <c r="C100" s="160"/>
+      <c r="A100" s="154"/>
+      <c r="B100" s="154"/>
+      <c r="C100" s="154"/>
       <c r="D100" s="83">
         <v>99</v>
       </c>
       <c r="E100" s="98" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F100" s="82" t="s">
         <v>73</v>
@@ -6348,14 +6343,14 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="160"/>
-      <c r="B101" s="160"/>
-      <c r="C101" s="160"/>
+      <c r="A101" s="154"/>
+      <c r="B101" s="154"/>
+      <c r="C101" s="154"/>
       <c r="D101" s="83">
         <v>100</v>
       </c>
       <c r="E101" s="98" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F101" s="82" t="s">
         <v>73</v>
@@ -6367,16 +6362,16 @@
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="84"/>
       <c r="B102" s="118" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C102" s="112" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D102" s="83">
         <v>101</v>
       </c>
       <c r="E102" s="98" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F102" s="82" t="s">
         <v>73</v>
@@ -6386,11 +6381,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="160"/>
-      <c r="B103" s="160" t="s">
-        <v>299</v>
-      </c>
-      <c r="C103" s="160" t="s">
+      <c r="A103" s="154"/>
+      <c r="B103" s="154" t="s">
+        <v>297</v>
+      </c>
+      <c r="C103" s="154" t="s">
         <v>58</v>
       </c>
       <c r="D103" s="78">
@@ -6407,9 +6402,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="163"/>
-      <c r="B104" s="163"/>
-      <c r="C104" s="163"/>
+      <c r="A104" s="155"/>
+      <c r="B104" s="155"/>
+      <c r="C104" s="155"/>
       <c r="D104" s="78">
         <v>103</v>
       </c>
@@ -6424,9 +6419,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="163"/>
-      <c r="B105" s="163"/>
-      <c r="C105" s="163"/>
+      <c r="A105" s="155"/>
+      <c r="B105" s="155"/>
+      <c r="C105" s="155"/>
       <c r="D105" s="78">
         <v>104</v>
       </c>
@@ -6443,7 +6438,7 @@
     <row r="106" spans="1:7" s="75" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="76"/>
       <c r="B106" s="116" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C106" s="111" t="s">
         <v>58</v>
@@ -6452,10 +6447,10 @@
         <v>105</v>
       </c>
       <c r="E106" s="98" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F106" s="143" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G106" s="73" t="s">
         <v>73</v>
@@ -6464,16 +6459,16 @@
     <row r="107" spans="1:7" s="75" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="79"/>
       <c r="B107" s="117" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C107" s="111" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D107" s="100">
         <v>106</v>
       </c>
       <c r="E107" s="100" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F107" s="77" t="s">
         <v>73</v>
@@ -6485,7 +6480,7 @@
     <row r="108" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="79"/>
       <c r="B108" s="117" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C108" s="111" t="s">
         <v>76</v>
@@ -6494,7 +6489,7 @@
         <v>107</v>
       </c>
       <c r="E108" s="100" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F108" s="77" t="s">
         <v>73</v>
@@ -6506,7 +6501,7 @@
     <row r="109" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="79"/>
       <c r="B109" s="117" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C109" s="111" t="s">
         <v>76</v>
@@ -6515,7 +6510,7 @@
         <v>108</v>
       </c>
       <c r="E109" s="100" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F109" s="77" t="s">
         <v>73</v>
@@ -6527,7 +6522,7 @@
     <row r="110" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="79"/>
       <c r="B110" s="117" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C110" s="111" t="s">
         <v>76</v>
@@ -6536,7 +6531,7 @@
         <v>109</v>
       </c>
       <c r="E110" s="100" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F110" s="77" t="s">
         <v>73</v>
@@ -6548,7 +6543,7 @@
     <row r="111" spans="1:7" s="75" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="79"/>
       <c r="B111" s="116" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C111" s="111" t="s">
         <v>76</v>
@@ -6557,7 +6552,7 @@
         <v>110</v>
       </c>
       <c r="E111" s="98" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F111" s="77" t="s">
         <v>73</v>
@@ -6569,7 +6564,7 @@
     <row r="112" spans="1:7" s="75" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="80"/>
       <c r="B112" s="116" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C112" s="111" t="s">
         <v>76</v>
@@ -6578,7 +6573,7 @@
         <v>111</v>
       </c>
       <c r="E112" s="98" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F112" s="81" t="s">
         <v>73</v>
@@ -6590,16 +6585,16 @@
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="102"/>
       <c r="B113" s="116" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C113" s="110" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D113" s="117">
         <v>112</v>
       </c>
       <c r="E113" s="98" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F113" s="91" t="s">
         <v>73</v>
@@ -6611,16 +6606,16 @@
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="102"/>
       <c r="B114" s="116" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C114" s="110" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D114" s="117">
         <v>113</v>
       </c>
       <c r="E114" s="98" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F114" s="91" t="s">
         <v>73</v>
@@ -6632,16 +6627,16 @@
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="102"/>
       <c r="B115" s="116" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C115" s="110" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D115" s="117">
         <v>114</v>
       </c>
       <c r="E115" s="98" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F115" s="91" t="s">
         <v>73</v>
@@ -6653,16 +6648,16 @@
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="102"/>
       <c r="B116" s="116" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C116" s="110" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D116" s="117">
         <v>115</v>
       </c>
       <c r="E116" s="98" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F116" s="91" t="s">
         <v>73</v>
@@ -6674,16 +6669,16 @@
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="102"/>
       <c r="B117" s="116" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C117" s="110" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D117" s="117">
         <v>116</v>
       </c>
       <c r="E117" s="98" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F117" s="91" t="s">
         <v>73</v>
@@ -6695,16 +6690,16 @@
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="102"/>
       <c r="B118" s="116" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C118" s="110" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D118" s="117">
         <v>117</v>
       </c>
       <c r="E118" s="98" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F118" s="91" t="s">
         <v>73</v>
@@ -6716,16 +6711,16 @@
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="102"/>
       <c r="B119" s="116" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C119" s="110" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D119" s="117">
         <v>118</v>
       </c>
       <c r="E119" s="98" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F119" s="91" t="s">
         <v>73</v>
@@ -6737,764 +6732,764 @@
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="110"/>
       <c r="B120" s="116" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C120" s="110" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D120" s="117">
         <v>119</v>
       </c>
       <c r="E120" s="110" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F120" s="110" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G120" s="110" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="114"/>
       <c r="B121" s="116" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C121" s="114" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D121" s="117">
         <v>120</v>
       </c>
       <c r="E121" s="114" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F121" s="114" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G121" s="114" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="114"/>
       <c r="B122" s="116" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C122" s="114" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D122" s="117">
         <v>121</v>
       </c>
       <c r="E122" s="114" t="s">
+        <v>395</v>
+      </c>
+      <c r="F122" s="114" t="s">
         <v>397</v>
       </c>
-      <c r="F122" s="114" t="s">
-        <v>399</v>
-      </c>
       <c r="G122" s="114" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="120"/>
       <c r="B123" s="120" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C123" s="120" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D123" s="119">
         <v>122</v>
       </c>
       <c r="E123" s="120" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F123" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G123" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="120"/>
       <c r="B124" s="120" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C124" s="120" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D124" s="119">
         <v>123</v>
       </c>
       <c r="E124" s="120" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F124" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G124" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="120"/>
       <c r="B125" s="120" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C125" s="120" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D125" s="119">
         <v>124</v>
       </c>
       <c r="E125" s="120" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F125" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G125" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="120"/>
       <c r="B126" s="120" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C126" s="120" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D126" s="119">
         <v>125</v>
       </c>
       <c r="E126" s="120" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F126" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G126" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="120"/>
       <c r="B127" s="120" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C127" s="120" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D127" s="119">
         <v>126</v>
       </c>
       <c r="E127" s="120" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F127" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G127" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="120"/>
       <c r="B128" s="120" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C128" s="120" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D128" s="119">
         <v>127</v>
       </c>
       <c r="E128" s="120" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F128" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G128" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="120"/>
       <c r="B129" s="120" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C129" s="120" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D129" s="119">
         <v>128</v>
       </c>
       <c r="E129" s="120" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F129" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G129" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="120"/>
       <c r="B130" s="120" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C130" s="120" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D130" s="119">
         <v>129</v>
       </c>
       <c r="E130" s="120" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F130" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G130" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="120"/>
       <c r="B131" s="120" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C131" s="120" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D131" s="119">
         <v>130</v>
       </c>
       <c r="E131" s="120" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F131" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G131" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="120"/>
       <c r="B132" s="120" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C132" s="120" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D132" s="119">
         <v>131</v>
       </c>
       <c r="E132" s="120" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F132" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G132" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="120"/>
       <c r="B133" s="120" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C133" s="120" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D133" s="119">
         <v>132</v>
       </c>
       <c r="E133" s="120" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F133" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G133" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="120"/>
       <c r="B134" s="120" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C134" s="120" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D134" s="119">
         <v>133</v>
       </c>
       <c r="E134" s="120" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F134" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G134" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="120"/>
       <c r="B135" s="120" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C135" s="120" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D135" s="119">
         <v>134</v>
       </c>
       <c r="E135" s="120" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F135" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G135" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="120"/>
       <c r="B136" s="120" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C136" s="120" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D136" s="119">
         <v>135</v>
       </c>
       <c r="E136" s="120" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F136" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G136" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="121"/>
       <c r="B137" s="121" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C137" s="121" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D137" s="121">
         <v>136</v>
       </c>
       <c r="E137" s="122" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F137" s="121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G137" s="121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="121"/>
       <c r="B138" s="121" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C138" s="121" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D138" s="121">
         <v>137</v>
       </c>
       <c r="E138" s="122" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F138" s="121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G138" s="121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="121"/>
       <c r="B139" s="121" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C139" s="121" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D139" s="121">
         <v>138</v>
       </c>
       <c r="E139" s="122" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F139" s="121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G139" s="121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="121"/>
       <c r="B140" s="121" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C140" s="121" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D140" s="121">
         <v>139</v>
       </c>
       <c r="E140" s="122" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F140" s="121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G140" s="121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="121"/>
       <c r="B141" s="121" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C141" s="121" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D141" s="121">
         <v>140</v>
       </c>
       <c r="E141" s="122" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F141" s="121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G141" s="121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="121"/>
       <c r="B142" s="121" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C142" s="121" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D142" s="121">
         <v>141</v>
       </c>
       <c r="E142" s="122" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F142" s="121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G142" s="121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="121"/>
       <c r="B143" s="121" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C143" s="121" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D143" s="121">
         <v>142</v>
       </c>
       <c r="E143" s="122" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F143" s="121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G143" s="121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="121"/>
       <c r="B144" s="121" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C144" s="121" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D144" s="121">
         <v>143</v>
       </c>
       <c r="E144" s="122" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F144" s="121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G144" s="121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="121"/>
       <c r="B145" s="121" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C145" s="121" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D145" s="121">
         <v>144</v>
       </c>
       <c r="E145" s="122" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F145" s="121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G145" s="121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="121"/>
       <c r="B146" s="121" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C146" s="121" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D146" s="121">
         <v>145</v>
       </c>
       <c r="E146" s="122" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F146" s="121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G146" s="121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="121"/>
       <c r="B147" s="121" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C147" s="121" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D147" s="121">
         <v>146</v>
       </c>
       <c r="E147" s="122" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F147" s="121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G147" s="121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="121"/>
       <c r="B148" s="121" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C148" s="121" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D148" s="121">
         <v>147</v>
       </c>
       <c r="E148" s="122" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F148" s="121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G148" s="121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="121"/>
       <c r="B149" s="121" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C149" s="121" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D149" s="121">
         <v>148</v>
       </c>
       <c r="E149" s="122" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F149" s="121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G149" s="121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="121"/>
       <c r="B150" s="121" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C150" s="121" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D150" s="121">
         <v>149</v>
       </c>
       <c r="E150" s="122" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F150" s="121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G150" s="121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="122"/>
       <c r="B151" s="122" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C151" s="122" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D151" s="122">
         <v>150</v>
       </c>
       <c r="E151" s="122" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F151" s="122" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G151" s="122" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="123"/>
       <c r="B152" s="123" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C152" s="123" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D152" s="123">
         <v>151</v>
       </c>
       <c r="E152" s="123" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F152" s="123" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G152" s="123" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="165"/>
-      <c r="B153" s="164" t="s">
-        <v>459</v>
-      </c>
-      <c r="C153" s="146" t="s">
-        <v>458</v>
+      <c r="A153" s="157"/>
+      <c r="B153" s="156" t="s">
+        <v>457</v>
+      </c>
+      <c r="C153" s="147" t="s">
+        <v>456</v>
       </c>
       <c r="D153" s="125">
         <v>152</v>
       </c>
       <c r="E153" s="128" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F153" s="130" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G153" s="130" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="165"/>
-      <c r="B154" s="165"/>
-      <c r="C154" s="146"/>
+      <c r="A154" s="157"/>
+      <c r="B154" s="157"/>
+      <c r="C154" s="147"/>
       <c r="D154" s="125">
         <v>153</v>
       </c>
       <c r="E154" s="129" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F154" s="130" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G154" s="130" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="165"/>
-      <c r="B155" s="165"/>
-      <c r="C155" s="146"/>
+      <c r="A155" s="157"/>
+      <c r="B155" s="157"/>
+      <c r="C155" s="147"/>
       <c r="D155" s="125">
         <v>154</v>
       </c>
       <c r="E155" s="129" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F155" s="130" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G155" s="130" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="132"/>
       <c r="B156" s="133" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C156" s="134" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D156" s="135">
         <v>155</v>
       </c>
       <c r="E156" s="133" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F156" s="137" t="s">
         <v>49</v>
@@ -7506,16 +7501,16 @@
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="132"/>
       <c r="B157" s="133" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C157" s="134" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D157" s="135">
         <v>156</v>
       </c>
       <c r="E157" s="133" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F157" s="137" t="s">
         <v>49</v>
@@ -7527,16 +7522,16 @@
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="132"/>
       <c r="B158" s="133" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C158" s="134" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D158" s="135">
         <v>157</v>
       </c>
       <c r="E158" s="133" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F158" s="137" t="s">
         <v>49</v>
@@ -7548,16 +7543,16 @@
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="132"/>
       <c r="B159" s="133" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C159" s="134" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D159" s="135">
         <v>158</v>
       </c>
       <c r="E159" s="133" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F159" s="137" t="s">
         <v>49</v>
@@ -7569,16 +7564,16 @@
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="132"/>
       <c r="B160" s="133" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C160" s="134" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D160" s="135">
         <v>159</v>
       </c>
       <c r="E160" s="133" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F160" s="137" t="s">
         <v>50</v>
@@ -7590,16 +7585,16 @@
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="132"/>
       <c r="B161" s="133" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C161" s="134" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D161" s="135">
         <v>160</v>
       </c>
       <c r="E161" s="133" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F161" s="137" t="s">
         <v>50</v>
@@ -7611,16 +7606,16 @@
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="132"/>
       <c r="B162" s="133" t="s">
+        <v>476</v>
+      </c>
+      <c r="C162" s="134" t="s">
         <v>478</v>
-      </c>
-      <c r="C162" s="134" t="s">
-        <v>480</v>
       </c>
       <c r="D162" s="135">
         <v>161</v>
       </c>
       <c r="E162" s="133" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F162" s="137" t="s">
         <v>50</v>
@@ -7632,16 +7627,16 @@
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="132"/>
       <c r="B163" s="133" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C163" s="134" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D163" s="135">
         <v>162</v>
       </c>
       <c r="E163" s="133" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F163" s="137" t="s">
         <v>50</v>
@@ -7653,16 +7648,16 @@
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="132"/>
       <c r="B164" s="133" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C164" s="134" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D164" s="135">
         <v>163</v>
       </c>
       <c r="E164" s="133" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F164" s="137" t="s">
         <v>49</v>
@@ -7674,16 +7669,16 @@
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="132"/>
       <c r="B165" s="133" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C165" s="134" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D165" s="135">
         <v>164</v>
       </c>
       <c r="E165" s="133" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F165" s="137" t="s">
         <v>49</v>
@@ -7695,16 +7690,16 @@
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="132"/>
       <c r="B166" s="133" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C166" s="134" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D166" s="135">
         <v>165</v>
       </c>
       <c r="E166" s="133" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F166" s="137" t="s">
         <v>50</v>
@@ -7716,16 +7711,16 @@
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="132"/>
       <c r="B167" s="133" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C167" s="134" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D167" s="135">
         <v>166</v>
       </c>
       <c r="E167" s="133" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F167" s="137" t="s">
         <v>50</v>
@@ -7735,274 +7730,309 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="149"/>
-      <c r="B168" s="149" t="s">
-        <v>494</v>
-      </c>
-      <c r="C168" s="149" t="s">
-        <v>458</v>
+      <c r="A168" s="150"/>
+      <c r="B168" s="150" t="s">
+        <v>492</v>
+      </c>
+      <c r="C168" s="150" t="s">
+        <v>456</v>
       </c>
       <c r="D168" s="135">
         <v>167</v>
       </c>
       <c r="E168" s="137" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F168" s="130" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G168" s="130" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="150"/>
-      <c r="B169" s="161"/>
-      <c r="C169" s="161"/>
+      <c r="A169" s="149"/>
+      <c r="B169" s="152"/>
+      <c r="C169" s="152"/>
       <c r="D169" s="135">
         <v>168</v>
       </c>
       <c r="E169" s="137" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F169" s="130" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G169" s="130" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="150"/>
-      <c r="B170" s="161"/>
-      <c r="C170" s="161"/>
+      <c r="A170" s="149"/>
+      <c r="B170" s="152"/>
+      <c r="C170" s="152"/>
       <c r="D170" s="135">
         <v>169</v>
       </c>
       <c r="E170" s="137" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F170" s="130" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G170" s="130" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="150"/>
-      <c r="B171" s="161"/>
-      <c r="C171" s="161"/>
+      <c r="A171" s="149"/>
+      <c r="B171" s="152"/>
+      <c r="C171" s="152"/>
       <c r="D171" s="135">
         <v>170</v>
       </c>
       <c r="E171" s="137" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F171" s="130" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G171" s="130" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="150"/>
-      <c r="B172" s="161"/>
-      <c r="C172" s="161"/>
+      <c r="A172" s="149"/>
+      <c r="B172" s="152"/>
+      <c r="C172" s="152"/>
       <c r="D172" s="135">
         <v>171</v>
       </c>
       <c r="E172" s="137" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F172" s="130" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G172" s="130" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="150"/>
-      <c r="B173" s="161"/>
-      <c r="C173" s="161"/>
+      <c r="A173" s="149"/>
+      <c r="B173" s="152"/>
+      <c r="C173" s="152"/>
       <c r="D173" s="135">
         <v>172</v>
       </c>
       <c r="E173" s="137" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F173" s="130" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G173" s="130" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="155"/>
-      <c r="B174" s="162"/>
-      <c r="C174" s="162"/>
+      <c r="A174" s="151"/>
+      <c r="B174" s="153"/>
+      <c r="C174" s="153"/>
       <c r="D174" s="135">
         <v>173</v>
       </c>
       <c r="E174" s="137" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F174" s="130" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G174" s="130" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="149"/>
-      <c r="B175" s="149" t="s">
-        <v>500</v>
-      </c>
-      <c r="C175" s="149" t="s">
-        <v>458</v>
+      <c r="A175" s="150"/>
+      <c r="B175" s="150" t="s">
+        <v>498</v>
+      </c>
+      <c r="C175" s="150" t="s">
+        <v>456</v>
       </c>
       <c r="D175" s="135">
         <v>174</v>
       </c>
       <c r="E175" s="138" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F175" s="130" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G175" s="130" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="150"/>
-      <c r="B176" s="161"/>
-      <c r="C176" s="161"/>
+      <c r="A176" s="149"/>
+      <c r="B176" s="152"/>
+      <c r="C176" s="152"/>
       <c r="D176" s="135">
         <v>175</v>
       </c>
       <c r="E176" s="138" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F176" s="130" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G176" s="130" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="150"/>
-      <c r="B177" s="161"/>
-      <c r="C177" s="161"/>
+      <c r="A177" s="149"/>
+      <c r="B177" s="152"/>
+      <c r="C177" s="152"/>
       <c r="D177" s="135">
         <v>176</v>
       </c>
       <c r="E177" s="138" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F177" s="130" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G177" s="130" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="150"/>
-      <c r="B178" s="161"/>
-      <c r="C178" s="161"/>
+      <c r="A178" s="149"/>
+      <c r="B178" s="152"/>
+      <c r="C178" s="152"/>
       <c r="D178" s="135">
         <v>177</v>
       </c>
       <c r="E178" s="138" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F178" s="130" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G178" s="130" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="150"/>
-      <c r="B179" s="161"/>
-      <c r="C179" s="161"/>
+      <c r="A179" s="149"/>
+      <c r="B179" s="152"/>
+      <c r="C179" s="152"/>
       <c r="D179" s="135">
         <v>178</v>
       </c>
       <c r="E179" s="138" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F179" s="130" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G179" s="130" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="150"/>
-      <c r="B180" s="161"/>
-      <c r="C180" s="161"/>
+      <c r="A180" s="149"/>
+      <c r="B180" s="152"/>
+      <c r="C180" s="152"/>
       <c r="D180" s="135">
         <v>179</v>
       </c>
       <c r="E180" s="138" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F180" s="130" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G180" s="130" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="155"/>
-      <c r="B181" s="162"/>
-      <c r="C181" s="162"/>
+      <c r="A181" s="151"/>
+      <c r="B181" s="153"/>
+      <c r="C181" s="153"/>
       <c r="D181" s="135">
         <v>180</v>
       </c>
       <c r="E181" s="138" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F181" s="130" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G181" s="130" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="144"/>
       <c r="B182" s="142" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C182" s="142" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D182" s="135">
         <v>181</v>
       </c>
       <c r="E182" s="142" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F182" s="142" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G182" s="142" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A81:A84"/>
     <mergeCell ref="C40:C45"/>
     <mergeCell ref="C72:C78"/>
     <mergeCell ref="A175:A181"/>
@@ -8019,41 +8049,6 @@
     <mergeCell ref="A153:A155"/>
     <mergeCell ref="C56:C62"/>
     <mergeCell ref="B72:B78"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="A65:A67"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8075,337 +8070,337 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="102"/>
       <c r="B1" s="116" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C1" s="110" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1" s="117">
         <v>122</v>
       </c>
       <c r="E1" s="98" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F1" s="88" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G1" s="88" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="102"/>
       <c r="B2" s="116" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C2" s="110" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D2" s="117">
         <v>123</v>
       </c>
       <c r="E2" s="98" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F2" s="101" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G2" s="98" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="102"/>
       <c r="B3" s="116" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C3" s="110" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D3" s="117">
         <v>124</v>
       </c>
       <c r="E3" s="98" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F3" s="88" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G3" s="88" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="102"/>
       <c r="B4" s="116" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C4" s="110" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D4" s="117">
         <v>125</v>
       </c>
       <c r="E4" s="98" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F4" s="88" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G4" s="88" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="102"/>
       <c r="B5" s="116" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C5" s="110" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D5" s="117">
         <v>126</v>
       </c>
       <c r="E5" s="98" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F5" s="88" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G5" s="101" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="102"/>
       <c r="B6" s="116" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C6" s="110" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D6" s="117">
         <v>127</v>
       </c>
       <c r="E6" s="98" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F6" s="101" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G6" s="101" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="102"/>
       <c r="B7" s="116" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C7" s="110" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D7" s="117">
         <v>128</v>
       </c>
       <c r="E7" s="98" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F7" s="101" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G7" s="101" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="102"/>
       <c r="B8" s="116" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C8" s="110" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D8" s="117">
         <v>129</v>
       </c>
       <c r="E8" s="98" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F8" s="101" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G8" s="101" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="102"/>
       <c r="B9" s="116" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C9" s="110" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D9" s="117">
         <v>130</v>
       </c>
       <c r="E9" s="98" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F9" s="88" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G9" s="101" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="102"/>
       <c r="B10" s="116" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C10" s="110" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D10" s="117">
         <v>131</v>
       </c>
       <c r="E10" s="98" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F10" s="101" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G10" s="101" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="102"/>
       <c r="B11" s="116" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C11" s="110" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D11" s="117">
         <v>132</v>
       </c>
       <c r="E11" s="98" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F11" s="101" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G11" s="101" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="102"/>
       <c r="B12" s="116" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C12" s="110" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D12" s="117">
         <v>133</v>
       </c>
       <c r="E12" s="98" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F12" s="101" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G12" s="101" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="102"/>
       <c r="B13" s="116" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C13" s="110" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D13" s="117">
         <v>134</v>
       </c>
       <c r="E13" s="98" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F13" s="101" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G13" s="101" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="102"/>
       <c r="B14" s="116" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C14" s="110" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D14" s="117">
         <v>135</v>
       </c>
       <c r="E14" s="98" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F14" s="101" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G14" s="101" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="102"/>
       <c r="B15" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C15" s="110" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D15" s="117">
         <v>136</v>
       </c>
       <c r="E15" s="98" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F15" s="101" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G15" s="101" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="102"/>
       <c r="B16" s="116" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C16" s="110" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D16" s="117">
         <v>137</v>
       </c>
       <c r="E16" s="98" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F16" s="101" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G16" s="101" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -8445,7 +8440,7 @@
         <v>102</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -8574,10 +8569,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>151</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -8585,10 +8580,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -8596,10 +8591,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -8607,10 +8602,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -8618,10 +8613,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -8629,10 +8624,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -8640,10 +8635,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -8651,10 +8646,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -8662,10 +8657,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -8673,10 +8668,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -8684,10 +8679,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -8695,10 +8690,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="56" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -8706,10 +8701,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -8717,10 +8712,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -8728,10 +8723,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -8739,10 +8734,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -8750,10 +8745,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -8761,10 +8756,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -8772,10 +8767,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -8783,10 +8778,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -8794,10 +8789,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -8805,10 +8800,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -8816,10 +8811,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -8827,10 +8822,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="59" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -8838,10 +8833,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -8849,10 +8844,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="59" t="s">
+        <v>353</v>
+      </c>
+      <c r="C39" s="34" t="s">
         <v>355</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -8860,10 +8855,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="59" t="s">
+        <v>354</v>
+      </c>
+      <c r="C40" s="34" t="s">
         <v>356</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -8894,97 +8889,97 @@
         <v>99</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>150</v>
-      </c>
       <c r="C4" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>174</v>
-      </c>
       <c r="C6" s="34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -9765,7 +9760,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" s="17">
         <v>2</v>
@@ -9785,7 +9780,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="97" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B14" s="17">
         <v>2</v>
@@ -9805,7 +9800,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B15" s="17">
         <v>2</v>
@@ -9825,7 +9820,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" s="17">
         <v>2</v>
@@ -9845,7 +9840,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B17" s="17">
         <v>2</v>
@@ -9865,7 +9860,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B18" s="17">
         <v>2</v>
@@ -10005,7 +10000,7 @@
     </row>
     <row r="25" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B25" s="17">
         <v>0</v>
@@ -10025,7 +10020,7 @@
     </row>
     <row r="26" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B26" s="17">
         <v>0</v>
@@ -10125,7 +10120,7 @@
     </row>
     <row r="31" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B31" s="17">
         <v>2</v>
@@ -10145,7 +10140,7 @@
     </row>
     <row r="32" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B32" s="17">
         <v>2</v>
@@ -10165,7 +10160,7 @@
     </row>
     <row r="33" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B33" s="17">
         <v>0</v>
@@ -10205,7 +10200,7 @@
     </row>
     <row r="35" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="51" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B35" s="17">
         <v>5</v>
@@ -10225,7 +10220,7 @@
     </row>
     <row r="36" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="44" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B36" s="17">
         <v>5</v>
@@ -10245,7 +10240,7 @@
     </row>
     <row r="37" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="43" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B37" s="17">
         <v>3</v>
@@ -10265,7 +10260,7 @@
     </row>
     <row r="38" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B38" s="17">
         <v>3</v>
@@ -10285,7 +10280,7 @@
     </row>
     <row r="39" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B39" s="17">
         <v>3</v>
@@ -10305,7 +10300,7 @@
     </row>
     <row r="40" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B40" s="17">
         <v>5</v>
@@ -10325,7 +10320,7 @@
     </row>
     <row r="41" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B41" s="17">
         <v>5</v>
@@ -10345,7 +10340,7 @@
     </row>
     <row r="42" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B42" s="17">
         <v>3</v>
@@ -10365,7 +10360,7 @@
     </row>
     <row r="43" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="43" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B43" s="17">
         <v>3</v>
@@ -10385,7 +10380,7 @@
     </row>
     <row r="44" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B44" s="17">
         <v>3</v>
@@ -10405,7 +10400,7 @@
     </row>
     <row r="45" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="47" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B45" s="17">
         <v>3</v>
@@ -10425,7 +10420,7 @@
     </row>
     <row r="46" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="47" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B46" s="17">
         <v>3</v>
@@ -10465,7 +10460,7 @@
     </row>
     <row r="48" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="89" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B48" s="17">
         <v>3</v>
@@ -10485,7 +10480,7 @@
     </row>
     <row r="49" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="103" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B49" s="17">
         <v>3</v>
@@ -10505,7 +10500,7 @@
     </row>
     <row r="50" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="86" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B50" s="17">
         <v>3</v>
@@ -10525,7 +10520,7 @@
     </row>
     <row r="51" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="86" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B51" s="17">
         <v>3</v>
@@ -10545,7 +10540,7 @@
     </row>
     <row r="52" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="86" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B52" s="17">
         <v>3</v>
@@ -10565,7 +10560,7 @@
     </row>
     <row r="53" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="86" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B53" s="17">
         <v>3</v>
@@ -10585,7 +10580,7 @@
     </row>
     <row r="54" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="86" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B54" s="17">
         <v>3</v>
@@ -10605,7 +10600,7 @@
     </row>
     <row r="55" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="86" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B55" s="17">
         <v>3</v>
@@ -10625,7 +10620,7 @@
     </row>
     <row r="56" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="86" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B56" s="17">
         <v>3</v>
@@ -10645,7 +10640,7 @@
     </row>
     <row r="57" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="86" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B57" s="17">
         <v>3</v>
@@ -10665,7 +10660,7 @@
     </row>
     <row r="58" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="86" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B58" s="17">
         <v>3</v>
@@ -10685,7 +10680,7 @@
     </row>
     <row r="59" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="86" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B59" s="17">
         <v>3</v>
@@ -10705,7 +10700,7 @@
     </row>
     <row r="60" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="86" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B60" s="17">
         <v>3</v>
@@ -10725,7 +10720,7 @@
     </row>
     <row r="61" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="86" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B61" s="17">
         <v>3</v>
@@ -10745,7 +10740,7 @@
     </row>
     <row r="62" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="86" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B62" s="17">
         <v>3</v>
@@ -10765,7 +10760,7 @@
     </row>
     <row r="63" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="86" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B63" s="17">
         <v>3</v>
@@ -10785,7 +10780,7 @@
     </row>
     <row r="64" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="86" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B64" s="17">
         <v>3</v>
@@ -10805,7 +10800,7 @@
     </row>
     <row r="65" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="86" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B65" s="17">
         <v>3</v>
@@ -10825,7 +10820,7 @@
     </row>
     <row r="66" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="86" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B66" s="17">
         <v>3</v>
@@ -10845,7 +10840,7 @@
     </row>
     <row r="67" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="86" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B67" s="17">
         <v>3</v>
@@ -10865,7 +10860,7 @@
     </row>
     <row r="68" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="86" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B68" s="17">
         <v>3</v>
@@ -10885,7 +10880,7 @@
     </row>
     <row r="69" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="86" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B69" s="17">
         <v>3</v>
@@ -10905,7 +10900,7 @@
     </row>
     <row r="70" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="86" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B70" s="17">
         <v>3</v>
@@ -10925,7 +10920,7 @@
     </row>
     <row r="71" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="86" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B71" s="17">
         <v>3</v>
@@ -10945,7 +10940,7 @@
     </row>
     <row r="72" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="86" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B72" s="17">
         <v>3</v>
@@ -10965,7 +10960,7 @@
     </row>
     <row r="73" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="86" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B73" s="17">
         <v>3</v>
@@ -10985,7 +10980,7 @@
     </row>
     <row r="74" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="53" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B74" s="17">
         <v>3</v>
@@ -11005,7 +11000,7 @@
     </row>
     <row r="75" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="53" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B75" s="17">
         <v>3</v>
@@ -11025,7 +11020,7 @@
     </row>
     <row r="76" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="53" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B76" s="17">
         <v>3</v>
@@ -11045,7 +11040,7 @@
     </row>
     <row r="77" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="85" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B77" s="17">
         <v>0</v>
@@ -11065,7 +11060,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="126" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B78" s="16">
         <v>0</v>
@@ -11085,7 +11080,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="35" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B79" s="127">
         <v>5</v>
@@ -11105,7 +11100,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="35" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B80" s="127">
         <v>5</v>
@@ -11125,7 +11120,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="139" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B81" s="140">
         <v>0</v>
@@ -11145,7 +11140,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="139" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B82" s="140">
         <v>0</v>
@@ -11165,7 +11160,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="139" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B83" s="140">
         <v>0</v>
@@ -11185,7 +11180,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="139" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B84" s="140">
         <v>0</v>
@@ -11205,7 +11200,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="139" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B85" s="140">
         <v>0</v>
@@ -11225,7 +11220,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="139" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B86" s="140">
         <v>0</v>
@@ -11245,7 +11240,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="139" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B87" s="140">
         <v>0</v>
@@ -11309,7 +11304,7 @@
         <v>98</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E1" s="33">
         <v>23</v>
@@ -11386,16 +11381,16 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C2" s="72" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E2" s="106"/>
       <c r="F2" s="106"/>
@@ -11407,140 +11402,140 @@
       <c r="L2" s="106"/>
       <c r="M2" s="107"/>
       <c r="N2" s="106" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O2" s="106" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P2" s="106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q2" s="106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="R2" s="106" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="S2" s="106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T2" s="106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="U2" s="106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="V2" s="106" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="W2" s="106" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="X2" s="106" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y2" s="106" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Z2" s="106" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AA2" s="106" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AB2" s="106" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D3" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="R3" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="S3" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="T3" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="U3" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="V3" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="W3" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="X3" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y3" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z3" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA3" t="s">
         <v>278</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>462</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>461</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>381</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>380</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>379</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="O3" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q3" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="R3" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="S3" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="T3" s="33" t="s">
-        <v>285</v>
-      </c>
-      <c r="U3" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="V3" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="W3" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="X3" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y3" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="Z3" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>280</v>
-      </c>
       <c r="AB3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -11554,13 +11549,13 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -11574,13 +11569,13 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -11594,13 +11589,13 @@
     </row>
     <row r="7" spans="1:28" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="93" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B7" s="96" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C7" s="96" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D7" s="94"/>
       <c r="E7" s="105">
@@ -11669,13 +11664,13 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B8" s="96" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C8" s="96" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="105">
@@ -11747,13 +11742,13 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C9" s="96" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D9" s="18">
         <v>294947</v>
@@ -11827,13 +11822,13 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D10" s="18">
         <v>557315</v>
@@ -11907,13 +11902,13 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B11" s="96" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C11" s="72" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D11" s="18">
         <v>1081603</v>
@@ -11987,13 +11982,13 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B12" s="96" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D12" s="33">
         <v>2130019</v>
@@ -12067,13 +12062,13 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B13" s="96" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C13" s="96" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D13" s="18">
         <v>2130947</v>
@@ -12147,13 +12142,13 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B14" s="96" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C14" s="72" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D14" s="33">
         <v>2059</v>
@@ -12227,13 +12222,13 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B15" s="96" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D15" s="33">
         <v>8451</v>
@@ -12309,13 +12304,13 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B16" s="96" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C16" s="72" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D16" s="33">
         <v>4137</v>
@@ -12395,13 +12390,13 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B17" s="96" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C17" s="72" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D17" s="33">
         <v>17665</v>
@@ -12481,189 +12476,189 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B18" s="72" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C18" s="72" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C19" s="72" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B20" s="72" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C20" s="72" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B21" s="72" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C21" s="72" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B22" s="72" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C22" s="72" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B23" s="72" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C23" s="72" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B24" s="72" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C24" s="72" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B25" s="72" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C25" s="72" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B26" s="72" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C26" s="72" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B27" s="72" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C27" s="72" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B28" s="72" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C28" s="72" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B29" s="72" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C29" s="72" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B30" s="72" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C30" s="72" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B31" s="72" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C31" s="72" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B32" s="72" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C32" s="72" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B33" s="72" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C33" s="72" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="93" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B34" s="96" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C34" s="96" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D34">
         <v>98315</v>
@@ -12671,13 +12666,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="93" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B35" s="96" t="s">
+        <v>461</v>
+      </c>
+      <c r="C35" s="96" t="s">
         <v>463</v>
-      </c>
-      <c r="C35" s="96" t="s">
-        <v>465</v>
       </c>
       <c r="D35">
         <v>163851</v>
@@ -12685,13 +12680,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="93" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B36" s="96" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C36" s="96" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D36">
         <v>294923</v>
@@ -12699,13 +12694,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="93" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B37" s="96" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C37" s="96" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D37">
         <v>557067</v>
@@ -12713,90 +12708,90 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="93" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B38" s="96" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C38" s="72" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="93" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B39" s="96" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C39" s="72" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="93" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B40" s="96" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C40" s="72" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="93" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B41" s="96" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C41" s="72" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="133" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B42" s="96" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C42" s="96" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="133" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B43" s="96" t="s">
+        <v>461</v>
+      </c>
+      <c r="C43" s="96" t="s">
         <v>463</v>
-      </c>
-      <c r="C43" s="96" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="133" t="s">
+        <v>481</v>
+      </c>
+      <c r="B44" s="96" t="s">
+        <v>461</v>
+      </c>
+      <c r="C44" s="72" t="s">
         <v>483</v>
-      </c>
-      <c r="B44" s="96" t="s">
-        <v>463</v>
-      </c>
-      <c r="C44" s="72" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="133" t="s">
+        <v>482</v>
+      </c>
+      <c r="B45" s="96" t="s">
+        <v>461</v>
+      </c>
+      <c r="C45" s="72" t="s">
         <v>484</v>
-      </c>
-      <c r="B45" s="96" t="s">
-        <v>463</v>
-      </c>
-      <c r="C45" s="72" t="s">
-        <v>486</v>
       </c>
     </row>
   </sheetData>

--- a/config/project/Integrate_120KW_megmeet/IntegrateConfig.xlsx
+++ b/config/project/Integrate_120KW_megmeet/IntegrateConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\Integrate_120KW_megmeet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6FE2245D-8499-4593-8902-2CE2DDEEED17}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{65EB3182-48B2-43CE-AB2C-61A0A4748EC5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="512">
   <si>
     <t>组序号</t>
   </si>
@@ -59,15 +59,15 @@
   </si>
   <si>
     <t>resistance</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -83,39 +83,39 @@
       </rPr>
       <t>YPE</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>UPPER</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>LOWER</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>RTIM</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>TTIM</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>ARC</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>WTIM</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>RAMP</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>RANG</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -131,107 +131,107 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>VOLT(KV)</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>FTIM</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>FREQ(HZ)</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>DCW</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V绝缘电阻</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V工频耐压</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE绝缘电阻</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE工频耐压</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>DC12V对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE绝缘电阻</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE绝缘电阻</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE工频耐压</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE工频耐压</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE绝缘电阻</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对地，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合上塑壳断路器、2P\1P断路器，关闭4P断路器，ABCN相连对地耐压2500V，60秒，漏电流不大于10mA
 （ACW M2，AC 2.5kV?,10.00mA,60s）
 </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，耐压DC1500V，60秒，漏电流不大于10mA（DCW M1，DC1.5kV,10.00mA,60s）
 </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M3，AC 1KV)</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>DC12V正负端短接对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">拆开华为模块CAN线
 DC12V正负端短接对地，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">96/97/98/99/TP1/TP2/TP3/TP4相连对地，绝缘电阻应大于10M欧(IR M4，1KV) </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -294,15 +294,15 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>电表2</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>硬件自检</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>group</t>
@@ -321,62 +321,62 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点1</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点2</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点1</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点2</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>温度检测</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>插座电压</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -392,7 +392,7 @@
       </rPr>
       <t>efault</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -408,7 +408,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -424,71 +424,71 @@
       </rPr>
       <t>20V</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>显示模块检查</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>看门狗检查</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>整机功耗</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -504,27 +504,27 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>热交换机检测</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>交流复位</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>BI</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>BO</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>参数名</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -540,7 +540,7 @@
       </rPr>
       <t>I掩码</t>
     </r>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -556,218 +556,218 @@
       </rPr>
       <t>O掩码</t>
     </r>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>组名称</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>操作前检查</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>门接地柱对地</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>控制器对地</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>内门、内架PE对地</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>插座PE对地</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪PE对地</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>不大于0.1欧</t>
   </si>
   <si>
     <t>不大于0.1欧</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>接地电阻</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪1二维码</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪2二维码</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>装置编号</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>桩编号</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>升级控制盒程序</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>显示模块及语音检查</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>软件版本检查</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>控制板BOOT版本</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT版本</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT应用软件版本</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>控制板应用软件版本</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>充电模块版本核对</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>模块1版本</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>模块2版本</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>时间设置</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>scan</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>inverseWarn</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>insulation</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>charging</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>正常</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电流</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电压</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电能量</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电流</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电压</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电能量</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>0x00000002</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>装置型号</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>电表时间</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>1枪电表时间</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>2枪电表时间</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>装置时间</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>断电后装置时间</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>timeSet</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>0xC0000000</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>请拔掉枪，马上做泄放</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -783,154 +783,154 @@
       </rPr>
       <t>elay</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>Relay</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电流</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电压</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电能量</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电流</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电压</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电能量</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>请把1枪插入BMS模拟器</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>StubCmd</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>参数校正</t>
   </si>
   <si>
     <t>编译时间</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>是否连接正式平台</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘检测结果</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘检测结果</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>合上30关闭29</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>合上30合上29</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>断开30断开29</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>0x30000002</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>0x20000002</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试启动充电</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试停止充电</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试启动充电</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试停止充电</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘电阻正</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘电阻负</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘电阻正</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘电阻负</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪前测量值</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪后测量值</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪前测量值</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪链接电压</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪链接电压</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪后测量值</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪链接电压</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪链接电压</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -963,7 +963,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -996,7 +996,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1022,7 +1022,7 @@
       </rPr>
       <t>120A</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1048,7 +1048,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1074,7 +1074,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1100,15 +1100,15 @@
       </rPr>
       <t>120A</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪1功率分配</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪2功率分配</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>避雷器反馈</t>
@@ -1130,7 +1130,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1146,7 +1146,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1162,7 +1162,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1178,7 +1178,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1194,11 +1194,11 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>备用</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1214,7 +1214,7 @@
       </rPr>
       <t>5K6</t>
     </r>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1230,15 +1230,15 @@
       </rPr>
       <t>9K10</t>
     </r>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>门禁开关</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>急停反馈</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1254,111 +1254,111 @@
       </rPr>
       <t>7K8</t>
     </r>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>枪1电子锁反馈</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>枪2电子锁反馈</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x0018</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x0118</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x1118</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x0060</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>请按下急停按钮</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>0x0260</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x1260</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>门节点</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>防雷器</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>StubCmd</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>打开门</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>关闭门</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>设置防雷器告警</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>设置防雷器不告警</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>按下急停按钮</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>不按下急停按钮</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>门闭合状态</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>门打开状态</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>防雷器告警状态</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>防雷器正常状态</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>true_</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>false_</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1374,87 +1374,87 @@
       </rPr>
       <t>nlock</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于拔出状态</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于拔出状态</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止，测试完成把枪拔出</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止，测试完成把枪拔出</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1470,31 +1470,31 @@
       </rPr>
       <t>看门狗短路插片JP2升完程序后不安装 2控制器贴有已检标记 3 各部件贴有“PASS”标识 4整机有经过品管进行整机工艺检查并贴有已检标记 5 大电流端子、交流接触器、电表、断路器贴有已检标记</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>参数校正</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>参数矫正时候，请确保没有插入枪</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>请确保没有插枪，并且已经断电</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮按下</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮未按下</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1510,43 +1510,39 @@
       </rPr>
       <t>PP测试</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>掩码</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>0xFFFFFFFF</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>APP枪1测试</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>APP枪2测试</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>0x00000000</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>组测试前继电器操作掩码</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>组测试后继电器操作掩码</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1562,7 +1558,7 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1578,18 +1574,18 @@
       </rPr>
       <t>O</t>
     </r>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>DO单一控制标志</t>
   </si>
   <si>
     <t>交流接触器KM控制</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>充电枪1的电子锁通电时间控制</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1605,7 +1601,7 @@
       </rPr>
       <t>K1K2</t>
     </r>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1621,11 +1617,11 @@
       </rPr>
       <t>K3K4</t>
     </r>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>充电枪2的电子锁通电时间控制</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1641,7 +1637,7 @@
       </rPr>
       <t>K1K2</t>
     </r>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1657,43 +1653,43 @@
       </rPr>
       <t>K3K4</t>
     </r>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>PowerDistribute</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>K5K6</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>K7K8</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>K9K10</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>K1K2</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>K3K4</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x0100</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x1000</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x0800</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1709,95 +1705,95 @@
       </rPr>
       <t>IBO</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>sim卡采集</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>sim卡编号采集</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>设备信息</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>铭牌编号</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>资产编号</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>显示板号</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪型号记录</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>直流挡板</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>铭牌</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>看门狗插片</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>K60看门狗</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>显示盖板</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>CtrlBoxSet</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>控制盒编号</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>控制盒编号</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>1枪K1K2控制</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>1枪K3K4控制</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>1枪K5K6控制</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>K7K8控制</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1K2控制</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>2枪K3K4控制</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>2枪K9K10控制</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>电源模块1</t>
@@ -1825,271 +1821,271 @@
   </si>
   <si>
     <t>1枪K1反馈</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>1枪K2反馈</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1反馈</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>2枪K2反馈</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>KM1反馈</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>KM2反馈</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>K5K6反馈</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>K9K10反馈</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>K7K8反馈</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>KM控制</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>DO单一控制标志</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪1K1K2</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>枪2K1K2</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x0200</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x0018</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>0x0060</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>0x0100</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>0x1000</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>0x0200</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>PowerModule</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>电源模块1</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>电源模块1</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>电源模块4</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>电源模块6_1</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>电源模块6_2</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>电源模块2</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>电源模块3</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>电源模块5</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>继电器断开K5_K7_K9</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>继电器断开K6_K8_K10</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>断开K5,K7,K9,闭合K6,K8,K10</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>断开K6,K8,K10,闭合K5,K7,K9</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>继电器1枪K1K2闭合</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>继电器1枪K1K2断开</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>继电器2枪K1K2闭合</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>继电器2枪K1K2断开</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>继电器K5K6_K5断开_K6闭合</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>继电器K5K6_K5闭合_K6断开</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>继电器K5K6_K5闭合_K6闭合</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>继电器K5K6_K5断开_K6断开</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>继电器K7K8_K7断开_K8闭合</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>继电器K7K8_K7闭合_K8断开</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>继电器K7K8_K7闭合_K8闭合</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>继电器K7K8_K7断开_K8断开</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>继电器K9K10_K9断开_K10断开</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>继电器K9K10_K9断开_K10闭合</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>继电器K9K10_K9闭合_K10断开</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>继电器K9K10_K9闭合_K10闭合</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>模块控制</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>模块1</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>模块2</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>模块3</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>模块4</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>模块5</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>模块6</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x088103</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x108103</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x208403</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x048023</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x01800B</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x02800B</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x208063</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘检测控制</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘检测控制</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x0001</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2105,23 +2101,23 @@
       </rPr>
       <t>080B</t>
     </r>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x2103</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>枪1泄放</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>枪2泄放</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>断开交流接触器</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2137,87 +2133,87 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>断开交流接触器</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x0001</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x010003</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x1029</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x4501</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>K5</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>K6</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>K7</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>K8</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>K9</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>K10</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x0009</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x0101</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>1枪K1</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>1枪K2</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>2枪K2</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x0008</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x0010</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x0010</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2233,39 +2229,39 @@
       </rPr>
       <t>x0021</t>
     </r>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x0041</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x0401</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>1枪K3</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>1枪K4</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>2枪K3</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>2枪K4</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x0020</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x0040</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2281,179 +2277,179 @@
       </rPr>
       <t>IBO</t>
     </r>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>1枪K1-触点</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>1枪K2-触点</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1-触点</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>2枪K2-触点</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>1枪K3-触点</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>1枪K4-触点</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>2枪K3-触点</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>2枪K4-触点</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>K5-触点</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>K6-触点</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>K7-触点</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>K8-触点</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>K9-触点</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>K10-触点</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>断开所有继电器</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>断开所有继电器</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>上电</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>断电</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>电源模块6(电表1)</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>电源模块6(电表2)</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x0000</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x0000</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>gunSelect</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>断开网络</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>NetWorkCheck</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>枪1启动类型</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪2启动类型</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>paramSet</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>基本配置检查</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>模块7</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>模块8</t>
-    <phoneticPr fontId="58" type="noConversion"/>
+    <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
     <t>0x010003</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>0x01800B</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>0x02800B</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>0x04800B</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>0x08800B</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>0x108103</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>0x208103</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>0x408103</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>0x808103</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>120KW_电源模块1</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>120KW_电源模块2</t>
@@ -2481,7 +2477,7 @@
   </si>
   <si>
     <t>120KW_麦格米特电源模块1</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>120KW_麦格米特电源模块2</t>
@@ -2494,131 +2490,142 @@
   </si>
   <si>
     <t>0x048103</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>0x088103</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>功率分配</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>模块厂家</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>单枪模块个数</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>模块功率</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>模块额定电流</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>模块最小输出电压</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>模块最大输出电压</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>麦格米特电源模块设置</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>30</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>100</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>200</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>950</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>英可瑞电源模块设置</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>4</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>15</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>500</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>44</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>模块厂家查看</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ZC</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>0.2</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>2.77</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>350</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP测试</t>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="60" x14ac:knownFonts="1">
+  <fonts count="61" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3397,600 +3404,602 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="43" applyFill="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="43" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="43" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4350,8 +4359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView topLeftCell="B82" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4689,11 +4698,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="160"/>
-      <c r="B15" s="160" t="s">
+      <c r="A15" s="149"/>
+      <c r="B15" s="149" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="160" t="s">
+      <c r="C15" s="149" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
@@ -4824,11 +4833,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="148"/>
-      <c r="B22" s="148" t="s">
+      <c r="A22" s="155"/>
+      <c r="B22" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="148" t="s">
+      <c r="C22" s="155" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="20">
@@ -4845,9 +4854,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="149"/>
-      <c r="B23" s="149"/>
-      <c r="C23" s="149"/>
+      <c r="A23" s="151"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="151"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
@@ -4862,9 +4871,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="149"/>
-      <c r="B24" s="149"/>
-      <c r="C24" s="149"/>
+      <c r="A24" s="151"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="151"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
@@ -4879,9 +4888,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="149"/>
-      <c r="B25" s="149"/>
-      <c r="C25" s="149"/>
+      <c r="A25" s="151"/>
+      <c r="B25" s="151"/>
+      <c r="C25" s="151"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
@@ -4896,9 +4905,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="151"/>
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
+      <c r="A26" s="156"/>
+      <c r="B26" s="156"/>
+      <c r="C26" s="156"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
@@ -4955,11 +4964,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="164"/>
-      <c r="B29" s="161" t="s">
+      <c r="A29" s="157"/>
+      <c r="B29" s="160" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="161" t="s">
+      <c r="C29" s="160" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -4976,9 +4985,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="162"/>
-      <c r="B30" s="162"/>
-      <c r="C30" s="162"/>
+      <c r="A30" s="158"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="158"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
@@ -4993,9 +5002,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="162"/>
-      <c r="B31" s="162"/>
-      <c r="C31" s="162"/>
+      <c r="A31" s="158"/>
+      <c r="B31" s="158"/>
+      <c r="C31" s="158"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
@@ -5010,9 +5019,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="162"/>
-      <c r="B32" s="162"/>
-      <c r="C32" s="162"/>
+      <c r="A32" s="158"/>
+      <c r="B32" s="158"/>
+      <c r="C32" s="158"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
@@ -5027,9 +5036,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="163"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="163"/>
+      <c r="A33" s="159"/>
+      <c r="B33" s="159"/>
+      <c r="C33" s="159"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
@@ -5086,7 +5095,7 @@
       <c r="B36" s="147" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="160" t="s">
+      <c r="C36" s="149" t="s">
         <v>147</v>
       </c>
       <c r="D36" s="20">
@@ -5121,10 +5130,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="147"/>
-      <c r="B38" s="146" t="s">
+      <c r="B38" s="148" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="146" t="s">
+      <c r="C38" s="148" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
@@ -5162,7 +5171,7 @@
       <c r="B40" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="146" t="s">
+      <c r="C40" s="148" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -5331,12 +5340,12 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="165"/>
-      <c r="B49" s="158" t="s">
+      <c r="A49" s="154"/>
+      <c r="B49" s="152" t="s">
         <v>196</v>
       </c>
-      <c r="C49" s="159" t="s">
-        <v>285</v>
+      <c r="C49" s="153" t="s">
+        <v>284</v>
       </c>
       <c r="D49" s="20">
         <v>48</v>
@@ -5470,11 +5479,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="148"/>
+      <c r="A56" s="155"/>
       <c r="B56" s="150" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="148" t="s">
+      <c r="C56" s="155" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="20">
@@ -5491,9 +5500,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="149"/>
-      <c r="B57" s="149"/>
-      <c r="C57" s="149"/>
+      <c r="A57" s="151"/>
+      <c r="B57" s="151"/>
+      <c r="C57" s="151"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
@@ -5501,16 +5510,16 @@
         <v>134</v>
       </c>
       <c r="F57" s="130" t="s">
+        <v>507</v>
+      </c>
+      <c r="G57" s="130" t="s">
         <v>508</v>
       </c>
-      <c r="G57" s="130" t="s">
-        <v>509</v>
-      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="149"/>
-      <c r="B58" s="149"/>
-      <c r="C58" s="149"/>
+      <c r="A58" s="151"/>
+      <c r="B58" s="151"/>
+      <c r="C58" s="151"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
@@ -5518,16 +5527,16 @@
         <v>135</v>
       </c>
       <c r="F58" s="130" t="s">
+        <v>509</v>
+      </c>
+      <c r="G58" s="130" t="s">
         <v>510</v>
       </c>
-      <c r="G58" s="130" t="s">
-        <v>511</v>
-      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="149"/>
-      <c r="B59" s="149"/>
-      <c r="C59" s="149"/>
+      <c r="A59" s="151"/>
+      <c r="B59" s="151"/>
+      <c r="C59" s="151"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
@@ -5542,9 +5551,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="149"/>
-      <c r="B60" s="149"/>
-      <c r="C60" s="149"/>
+      <c r="A60" s="151"/>
+      <c r="B60" s="151"/>
+      <c r="C60" s="151"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
@@ -5552,16 +5561,16 @@
         <v>137</v>
       </c>
       <c r="F60" s="130" t="s">
+        <v>507</v>
+      </c>
+      <c r="G60" s="130" t="s">
         <v>508</v>
       </c>
-      <c r="G60" s="130" t="s">
-        <v>509</v>
-      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="149"/>
-      <c r="B61" s="149"/>
-      <c r="C61" s="149"/>
+      <c r="A61" s="151"/>
+      <c r="B61" s="151"/>
+      <c r="C61" s="151"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
@@ -5569,16 +5578,16 @@
         <v>138</v>
       </c>
       <c r="F61" s="130" t="s">
+        <v>509</v>
+      </c>
+      <c r="G61" s="130" t="s">
         <v>510</v>
       </c>
-      <c r="G61" s="130" t="s">
-        <v>511</v>
-      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="149"/>
-      <c r="B62" s="149"/>
-      <c r="C62" s="149"/>
+      <c r="A62" s="151"/>
+      <c r="B62" s="151"/>
+      <c r="C62" s="151"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
@@ -5635,12 +5644,12 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="165"/>
-      <c r="B65" s="158" t="s">
+      <c r="A65" s="154"/>
+      <c r="B65" s="152" t="s">
         <v>197</v>
       </c>
-      <c r="C65" s="159" t="s">
-        <v>285</v>
+      <c r="C65" s="153" t="s">
+        <v>284</v>
       </c>
       <c r="D65" s="20">
         <v>64</v>
@@ -5774,17 +5783,17 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="148"/>
+      <c r="A72" s="155"/>
       <c r="B72" s="150" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="148" t="s">
+      <c r="C72" s="155" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="20">
         <v>71</v>
       </c>
-      <c r="E72" s="166" t="s">
+      <c r="E72" s="146" t="s">
         <v>87</v>
       </c>
       <c r="F72" s="69" t="s">
@@ -5795,9 +5804,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="149"/>
-      <c r="B73" s="149"/>
-      <c r="C73" s="149"/>
+      <c r="A73" s="151"/>
+      <c r="B73" s="151"/>
+      <c r="C73" s="151"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
@@ -5805,16 +5814,16 @@
         <v>154</v>
       </c>
       <c r="F73" s="130" t="s">
+        <v>507</v>
+      </c>
+      <c r="G73" s="130" t="s">
         <v>508</v>
       </c>
-      <c r="G73" s="130" t="s">
-        <v>509</v>
-      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="149"/>
-      <c r="B74" s="149"/>
-      <c r="C74" s="149"/>
+      <c r="A74" s="151"/>
+      <c r="B74" s="151"/>
+      <c r="C74" s="151"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
@@ -5822,16 +5831,16 @@
         <v>155</v>
       </c>
       <c r="F74" s="130" t="s">
+        <v>509</v>
+      </c>
+      <c r="G74" s="130" t="s">
         <v>510</v>
       </c>
-      <c r="G74" s="130" t="s">
-        <v>511</v>
-      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="149"/>
-      <c r="B75" s="149"/>
-      <c r="C75" s="149"/>
+      <c r="A75" s="151"/>
+      <c r="B75" s="151"/>
+      <c r="C75" s="151"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
@@ -5846,9 +5855,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="149"/>
-      <c r="B76" s="149"/>
-      <c r="C76" s="149"/>
+      <c r="A76" s="151"/>
+      <c r="B76" s="151"/>
+      <c r="C76" s="151"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
@@ -5856,16 +5865,16 @@
         <v>157</v>
       </c>
       <c r="F76" s="130" t="s">
+        <v>507</v>
+      </c>
+      <c r="G76" s="130" t="s">
         <v>508</v>
       </c>
-      <c r="G76" s="130" t="s">
-        <v>509</v>
-      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="149"/>
-      <c r="B77" s="149"/>
-      <c r="C77" s="149"/>
+      <c r="A77" s="151"/>
+      <c r="B77" s="151"/>
+      <c r="C77" s="151"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
@@ -5873,16 +5882,16 @@
         <v>158</v>
       </c>
       <c r="F77" s="130" t="s">
+        <v>509</v>
+      </c>
+      <c r="G77" s="130" t="s">
         <v>510</v>
       </c>
-      <c r="G77" s="130" t="s">
-        <v>511</v>
-      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="149"/>
-      <c r="B78" s="149"/>
-      <c r="C78" s="149"/>
+      <c r="A78" s="151"/>
+      <c r="B78" s="151"/>
+      <c r="C78" s="151"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
@@ -5928,7 +5937,7 @@
       <c r="D80" s="20">
         <v>79</v>
       </c>
-      <c r="E80" s="166" t="s">
+      <c r="E80" s="146" t="s">
         <v>87</v>
       </c>
       <c r="F80" s="69" t="s">
@@ -5939,11 +5948,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="160"/>
-      <c r="B81" s="160" t="s">
+      <c r="A81" s="149"/>
+      <c r="B81" s="149" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="146" t="s">
+      <c r="C81" s="148" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -6076,7 +6085,7 @@
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C88" s="110" t="s">
         <v>153</v>
@@ -6118,7 +6127,7 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="116" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C90" s="110" t="s">
         <v>152</v>
@@ -6265,10 +6274,10 @@
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="68"/>
       <c r="B97" s="117" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C97" s="111" t="s">
-        <v>266</v>
+        <v>58</v>
       </c>
       <c r="D97" s="68">
         <v>96</v>
@@ -6286,10 +6295,10 @@
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="68"/>
       <c r="B98" s="117" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C98" s="111" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D98" s="68">
         <v>97</v>
@@ -6305,18 +6314,18 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="154"/>
-      <c r="B99" s="154" t="s">
-        <v>295</v>
-      </c>
-      <c r="C99" s="154" t="s">
+      <c r="A99" s="161"/>
+      <c r="B99" s="161" t="s">
+        <v>294</v>
+      </c>
+      <c r="C99" s="161" t="s">
         <v>76</v>
       </c>
       <c r="D99" s="83">
         <v>98</v>
       </c>
       <c r="E99" s="98" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F99" s="82" t="s">
         <v>73</v>
@@ -6326,14 +6335,14 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="154"/>
-      <c r="B100" s="154"/>
-      <c r="C100" s="154"/>
+      <c r="A100" s="161"/>
+      <c r="B100" s="161"/>
+      <c r="C100" s="161"/>
       <c r="D100" s="83">
         <v>99</v>
       </c>
       <c r="E100" s="98" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F100" s="82" t="s">
         <v>73</v>
@@ -6343,14 +6352,14 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="154"/>
-      <c r="B101" s="154"/>
-      <c r="C101" s="154"/>
+      <c r="A101" s="161"/>
+      <c r="B101" s="161"/>
+      <c r="C101" s="161"/>
       <c r="D101" s="83">
         <v>100</v>
       </c>
       <c r="E101" s="98" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F101" s="82" t="s">
         <v>73</v>
@@ -6362,16 +6371,16 @@
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="84"/>
       <c r="B102" s="118" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C102" s="112" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D102" s="83">
         <v>101</v>
       </c>
       <c r="E102" s="98" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F102" s="82" t="s">
         <v>73</v>
@@ -6381,11 +6390,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="154"/>
-      <c r="B103" s="154" t="s">
-        <v>297</v>
-      </c>
-      <c r="C103" s="154" t="s">
+      <c r="A103" s="161"/>
+      <c r="B103" s="161" t="s">
+        <v>296</v>
+      </c>
+      <c r="C103" s="161" t="s">
         <v>58</v>
       </c>
       <c r="D103" s="78">
@@ -6402,9 +6411,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="155"/>
-      <c r="B104" s="155"/>
-      <c r="C104" s="155"/>
+      <c r="A104" s="164"/>
+      <c r="B104" s="164"/>
+      <c r="C104" s="164"/>
       <c r="D104" s="78">
         <v>103</v>
       </c>
@@ -6419,9 +6428,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="155"/>
-      <c r="B105" s="155"/>
-      <c r="C105" s="155"/>
+      <c r="A105" s="164"/>
+      <c r="B105" s="164"/>
+      <c r="C105" s="164"/>
       <c r="D105" s="78">
         <v>104</v>
       </c>
@@ -6438,7 +6447,7 @@
     <row r="106" spans="1:7" s="75" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="76"/>
       <c r="B106" s="116" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C106" s="111" t="s">
         <v>58</v>
@@ -6447,10 +6456,10 @@
         <v>105</v>
       </c>
       <c r="E106" s="98" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F106" s="143" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G106" s="73" t="s">
         <v>73</v>
@@ -6459,16 +6468,16 @@
     <row r="107" spans="1:7" s="75" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="79"/>
       <c r="B107" s="117" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C107" s="111" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D107" s="100">
         <v>106</v>
       </c>
       <c r="E107" s="100" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F107" s="77" t="s">
         <v>73</v>
@@ -6480,7 +6489,7 @@
     <row r="108" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="79"/>
       <c r="B108" s="117" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C108" s="111" t="s">
         <v>76</v>
@@ -6489,7 +6498,7 @@
         <v>107</v>
       </c>
       <c r="E108" s="100" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F108" s="77" t="s">
         <v>73</v>
@@ -6501,7 +6510,7 @@
     <row r="109" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="79"/>
       <c r="B109" s="117" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C109" s="111" t="s">
         <v>76</v>
@@ -6510,7 +6519,7 @@
         <v>108</v>
       </c>
       <c r="E109" s="100" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F109" s="77" t="s">
         <v>73</v>
@@ -6522,7 +6531,7 @@
     <row r="110" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="79"/>
       <c r="B110" s="117" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C110" s="111" t="s">
         <v>76</v>
@@ -6531,7 +6540,7 @@
         <v>109</v>
       </c>
       <c r="E110" s="100" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F110" s="77" t="s">
         <v>73</v>
@@ -6543,7 +6552,7 @@
     <row r="111" spans="1:7" s="75" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="79"/>
       <c r="B111" s="116" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C111" s="111" t="s">
         <v>76</v>
@@ -6552,7 +6561,7 @@
         <v>110</v>
       </c>
       <c r="E111" s="98" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F111" s="77" t="s">
         <v>73</v>
@@ -6564,7 +6573,7 @@
     <row r="112" spans="1:7" s="75" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="80"/>
       <c r="B112" s="116" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C112" s="111" t="s">
         <v>76</v>
@@ -6573,7 +6582,7 @@
         <v>111</v>
       </c>
       <c r="E112" s="98" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F112" s="81" t="s">
         <v>73</v>
@@ -6585,16 +6594,16 @@
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="102"/>
       <c r="B113" s="116" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C113" s="110" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D113" s="117">
         <v>112</v>
       </c>
       <c r="E113" s="98" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F113" s="91" t="s">
         <v>73</v>
@@ -6606,16 +6615,16 @@
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="102"/>
       <c r="B114" s="116" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C114" s="110" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D114" s="117">
         <v>113</v>
       </c>
       <c r="E114" s="98" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F114" s="91" t="s">
         <v>73</v>
@@ -6627,16 +6636,16 @@
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="102"/>
       <c r="B115" s="116" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C115" s="110" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D115" s="117">
         <v>114</v>
       </c>
       <c r="E115" s="98" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F115" s="91" t="s">
         <v>73</v>
@@ -6648,16 +6657,16 @@
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="102"/>
       <c r="B116" s="116" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C116" s="110" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D116" s="117">
         <v>115</v>
       </c>
       <c r="E116" s="98" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F116" s="91" t="s">
         <v>73</v>
@@ -6669,16 +6678,16 @@
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="102"/>
       <c r="B117" s="116" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C117" s="110" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D117" s="117">
         <v>116</v>
       </c>
       <c r="E117" s="98" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F117" s="91" t="s">
         <v>73</v>
@@ -6690,16 +6699,16 @@
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="102"/>
       <c r="B118" s="116" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C118" s="110" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D118" s="117">
         <v>117</v>
       </c>
       <c r="E118" s="98" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F118" s="91" t="s">
         <v>73</v>
@@ -6711,16 +6720,16 @@
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="102"/>
       <c r="B119" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C119" s="110" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D119" s="117">
         <v>118</v>
       </c>
       <c r="E119" s="98" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F119" s="91" t="s">
         <v>73</v>
@@ -6732,703 +6741,703 @@
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="110"/>
       <c r="B120" s="116" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C120" s="110" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D120" s="117">
         <v>119</v>
       </c>
       <c r="E120" s="110" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F120" s="110" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G120" s="110" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="114"/>
       <c r="B121" s="116" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C121" s="114" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D121" s="117">
         <v>120</v>
       </c>
       <c r="E121" s="114" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F121" s="114" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G121" s="114" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="114"/>
       <c r="B122" s="116" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C122" s="114" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D122" s="117">
         <v>121</v>
       </c>
       <c r="E122" s="114" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F122" s="114" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G122" s="114" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="120"/>
       <c r="B123" s="120" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C123" s="120" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D123" s="119">
         <v>122</v>
       </c>
       <c r="E123" s="120" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F123" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G123" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="120"/>
       <c r="B124" s="120" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C124" s="120" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D124" s="119">
         <v>123</v>
       </c>
       <c r="E124" s="120" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F124" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G124" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="120"/>
       <c r="B125" s="120" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C125" s="120" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D125" s="119">
         <v>124</v>
       </c>
       <c r="E125" s="120" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F125" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G125" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="120"/>
       <c r="B126" s="120" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C126" s="120" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D126" s="119">
         <v>125</v>
       </c>
       <c r="E126" s="120" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F126" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G126" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="120"/>
       <c r="B127" s="120" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C127" s="120" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D127" s="119">
         <v>126</v>
       </c>
       <c r="E127" s="120" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F127" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G127" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="120"/>
       <c r="B128" s="120" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C128" s="120" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D128" s="119">
         <v>127</v>
       </c>
       <c r="E128" s="120" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F128" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G128" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="120"/>
       <c r="B129" s="120" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C129" s="120" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D129" s="119">
         <v>128</v>
       </c>
       <c r="E129" s="120" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F129" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G129" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="120"/>
       <c r="B130" s="120" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C130" s="120" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D130" s="119">
         <v>129</v>
       </c>
       <c r="E130" s="120" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F130" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G130" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="120"/>
       <c r="B131" s="120" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C131" s="120" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D131" s="119">
         <v>130</v>
       </c>
       <c r="E131" s="120" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F131" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G131" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="120"/>
       <c r="B132" s="120" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C132" s="120" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D132" s="119">
         <v>131</v>
       </c>
       <c r="E132" s="120" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F132" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G132" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="120"/>
       <c r="B133" s="120" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C133" s="120" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D133" s="119">
         <v>132</v>
       </c>
       <c r="E133" s="120" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F133" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G133" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="120"/>
       <c r="B134" s="120" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C134" s="120" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D134" s="119">
         <v>133</v>
       </c>
       <c r="E134" s="120" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F134" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G134" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="120"/>
       <c r="B135" s="120" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C135" s="120" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D135" s="119">
         <v>134</v>
       </c>
       <c r="E135" s="120" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F135" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G135" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="120"/>
       <c r="B136" s="120" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C136" s="120" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D136" s="119">
         <v>135</v>
       </c>
       <c r="E136" s="120" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F136" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G136" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="121"/>
       <c r="B137" s="121" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C137" s="121" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D137" s="121">
         <v>136</v>
       </c>
       <c r="E137" s="122" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F137" s="121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G137" s="121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="121"/>
       <c r="B138" s="121" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C138" s="121" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D138" s="121">
         <v>137</v>
       </c>
       <c r="E138" s="122" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F138" s="121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G138" s="121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="121"/>
       <c r="B139" s="121" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C139" s="121" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D139" s="121">
         <v>138</v>
       </c>
       <c r="E139" s="122" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F139" s="121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G139" s="121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="121"/>
       <c r="B140" s="121" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C140" s="121" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D140" s="121">
         <v>139</v>
       </c>
       <c r="E140" s="122" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F140" s="121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G140" s="121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="121"/>
       <c r="B141" s="121" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C141" s="121" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D141" s="121">
         <v>140</v>
       </c>
       <c r="E141" s="122" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F141" s="121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G141" s="121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="121"/>
       <c r="B142" s="121" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C142" s="121" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D142" s="121">
         <v>141</v>
       </c>
       <c r="E142" s="122" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F142" s="121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G142" s="121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="121"/>
       <c r="B143" s="121" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C143" s="121" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D143" s="121">
         <v>142</v>
       </c>
       <c r="E143" s="122" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F143" s="121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G143" s="121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="121"/>
       <c r="B144" s="121" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C144" s="121" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D144" s="121">
         <v>143</v>
       </c>
       <c r="E144" s="122" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F144" s="121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G144" s="121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="121"/>
       <c r="B145" s="121" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C145" s="121" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D145" s="121">
         <v>144</v>
       </c>
       <c r="E145" s="122" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F145" s="121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G145" s="121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="121"/>
       <c r="B146" s="121" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C146" s="121" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D146" s="121">
         <v>145</v>
       </c>
       <c r="E146" s="122" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F146" s="121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G146" s="121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="121"/>
       <c r="B147" s="121" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C147" s="121" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D147" s="121">
         <v>146</v>
       </c>
       <c r="E147" s="122" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F147" s="121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G147" s="121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="121"/>
       <c r="B148" s="121" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C148" s="121" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D148" s="121">
         <v>147</v>
       </c>
       <c r="E148" s="122" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F148" s="121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G148" s="121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="121"/>
       <c r="B149" s="121" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C149" s="121" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D149" s="121">
         <v>148</v>
       </c>
       <c r="E149" s="122" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F149" s="121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G149" s="121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="121"/>
       <c r="B150" s="121" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C150" s="121" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D150" s="121">
         <v>149</v>
       </c>
       <c r="E150" s="122" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F150" s="121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G150" s="121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="122"/>
       <c r="B151" s="122" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C151" s="122" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D151" s="122">
         <v>150</v>
       </c>
       <c r="E151" s="122" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F151" s="122" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G151" s="122" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="123"/>
       <c r="B152" s="123" t="s">
+        <v>451</v>
+      </c>
+      <c r="C152" s="123" t="s">
         <v>452</v>
-      </c>
-      <c r="C152" s="123" t="s">
-        <v>453</v>
       </c>
       <c r="D152" s="123">
         <v>151</v>
       </c>
       <c r="E152" s="123" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F152" s="123" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G152" s="123" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="157"/>
-      <c r="B153" s="156" t="s">
-        <v>457</v>
+      <c r="A153" s="166"/>
+      <c r="B153" s="165" t="s">
+        <v>456</v>
       </c>
       <c r="C153" s="147" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D153" s="125">
         <v>152</v>
@@ -7437,59 +7446,59 @@
         <v>166</v>
       </c>
       <c r="F153" s="130" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G153" s="130" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="157"/>
-      <c r="B154" s="157"/>
+      <c r="A154" s="166"/>
+      <c r="B154" s="166"/>
       <c r="C154" s="147"/>
       <c r="D154" s="125">
         <v>153</v>
       </c>
       <c r="E154" s="129" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F154" s="130" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G154" s="130" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="157"/>
-      <c r="B155" s="157"/>
+      <c r="A155" s="166"/>
+      <c r="B155" s="166"/>
       <c r="C155" s="147"/>
       <c r="D155" s="125">
         <v>154</v>
       </c>
       <c r="E155" s="129" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F155" s="130" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G155" s="130" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="132"/>
       <c r="B156" s="133" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C156" s="134" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D156" s="135">
         <v>155</v>
       </c>
       <c r="E156" s="133" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F156" s="137" t="s">
         <v>49</v>
@@ -7501,16 +7510,16 @@
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="132"/>
       <c r="B157" s="133" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C157" s="134" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D157" s="135">
         <v>156</v>
       </c>
       <c r="E157" s="133" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F157" s="137" t="s">
         <v>49</v>
@@ -7522,16 +7531,16 @@
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="132"/>
       <c r="B158" s="133" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C158" s="134" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D158" s="135">
         <v>157</v>
       </c>
       <c r="E158" s="133" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F158" s="137" t="s">
         <v>49</v>
@@ -7543,16 +7552,16 @@
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="132"/>
       <c r="B159" s="133" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C159" s="134" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D159" s="135">
         <v>158</v>
       </c>
       <c r="E159" s="133" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F159" s="137" t="s">
         <v>49</v>
@@ -7564,16 +7573,16 @@
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="132"/>
       <c r="B160" s="133" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C160" s="134" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D160" s="135">
         <v>159</v>
       </c>
       <c r="E160" s="133" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F160" s="137" t="s">
         <v>50</v>
@@ -7585,16 +7594,16 @@
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="132"/>
       <c r="B161" s="133" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C161" s="134" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D161" s="135">
         <v>160</v>
       </c>
       <c r="E161" s="133" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F161" s="137" t="s">
         <v>50</v>
@@ -7606,16 +7615,16 @@
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="132"/>
       <c r="B162" s="133" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C162" s="134" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D162" s="135">
         <v>161</v>
       </c>
       <c r="E162" s="133" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F162" s="137" t="s">
         <v>50</v>
@@ -7627,16 +7636,16 @@
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="132"/>
       <c r="B163" s="133" t="s">
+        <v>476</v>
+      </c>
+      <c r="C163" s="134" t="s">
         <v>477</v>
-      </c>
-      <c r="C163" s="134" t="s">
-        <v>478</v>
       </c>
       <c r="D163" s="135">
         <v>162</v>
       </c>
       <c r="E163" s="133" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F163" s="137" t="s">
         <v>50</v>
@@ -7648,16 +7657,16 @@
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="132"/>
       <c r="B164" s="133" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C164" s="134" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D164" s="135">
         <v>163</v>
       </c>
       <c r="E164" s="133" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F164" s="137" t="s">
         <v>49</v>
@@ -7669,16 +7678,16 @@
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="132"/>
       <c r="B165" s="133" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C165" s="134" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D165" s="135">
         <v>164</v>
       </c>
       <c r="E165" s="133" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F165" s="137" t="s">
         <v>49</v>
@@ -7690,16 +7699,16 @@
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="132"/>
       <c r="B166" s="133" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C166" s="134" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D166" s="135">
         <v>165</v>
       </c>
       <c r="E166" s="133" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F166" s="137" t="s">
         <v>50</v>
@@ -7711,16 +7720,16 @@
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="132"/>
       <c r="B167" s="133" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C167" s="134" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D167" s="135">
         <v>166</v>
       </c>
       <c r="E167" s="133" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F167" s="137" t="s">
         <v>50</v>
@@ -7732,272 +7741,307 @@
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="150"/>
       <c r="B168" s="150" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C168" s="150" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D168" s="135">
         <v>167</v>
       </c>
       <c r="E168" s="137" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F168" s="130" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G168" s="130" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="149"/>
-      <c r="B169" s="152"/>
-      <c r="C169" s="152"/>
+      <c r="A169" s="151"/>
+      <c r="B169" s="162"/>
+      <c r="C169" s="162"/>
       <c r="D169" s="135">
         <v>168</v>
       </c>
       <c r="E169" s="137" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F169" s="130" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G169" s="130" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="149"/>
-      <c r="B170" s="152"/>
-      <c r="C170" s="152"/>
+      <c r="A170" s="151"/>
+      <c r="B170" s="162"/>
+      <c r="C170" s="162"/>
       <c r="D170" s="135">
         <v>169</v>
       </c>
       <c r="E170" s="137" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F170" s="130" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G170" s="130" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="149"/>
-      <c r="B171" s="152"/>
-      <c r="C171" s="152"/>
+      <c r="A171" s="151"/>
+      <c r="B171" s="162"/>
+      <c r="C171" s="162"/>
       <c r="D171" s="135">
         <v>170</v>
       </c>
       <c r="E171" s="137" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F171" s="130" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G171" s="130" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="149"/>
-      <c r="B172" s="152"/>
-      <c r="C172" s="152"/>
+      <c r="A172" s="151"/>
+      <c r="B172" s="162"/>
+      <c r="C172" s="162"/>
       <c r="D172" s="135">
         <v>171</v>
       </c>
       <c r="E172" s="137" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F172" s="130" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G172" s="130" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="149"/>
-      <c r="B173" s="152"/>
-      <c r="C173" s="152"/>
+      <c r="A173" s="151"/>
+      <c r="B173" s="162"/>
+      <c r="C173" s="162"/>
       <c r="D173" s="135">
         <v>172</v>
       </c>
       <c r="E173" s="137" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F173" s="130" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G173" s="130" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="151"/>
-      <c r="B174" s="153"/>
-      <c r="C174" s="153"/>
+      <c r="A174" s="156"/>
+      <c r="B174" s="163"/>
+      <c r="C174" s="163"/>
       <c r="D174" s="135">
         <v>173</v>
       </c>
       <c r="E174" s="137" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F174" s="130" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G174" s="130" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="150"/>
       <c r="B175" s="150" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C175" s="150" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D175" s="135">
         <v>174</v>
       </c>
       <c r="E175" s="138" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F175" s="130" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G175" s="130" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="149"/>
-      <c r="B176" s="152"/>
-      <c r="C176" s="152"/>
+      <c r="A176" s="151"/>
+      <c r="B176" s="162"/>
+      <c r="C176" s="162"/>
       <c r="D176" s="135">
         <v>175</v>
       </c>
       <c r="E176" s="138" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F176" s="130" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G176" s="130" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="149"/>
-      <c r="B177" s="152"/>
-      <c r="C177" s="152"/>
+      <c r="A177" s="151"/>
+      <c r="B177" s="162"/>
+      <c r="C177" s="162"/>
       <c r="D177" s="135">
         <v>176</v>
       </c>
       <c r="E177" s="138" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F177" s="130" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G177" s="130" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="149"/>
-      <c r="B178" s="152"/>
-      <c r="C178" s="152"/>
+      <c r="A178" s="151"/>
+      <c r="B178" s="162"/>
+      <c r="C178" s="162"/>
       <c r="D178" s="135">
         <v>177</v>
       </c>
       <c r="E178" s="138" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F178" s="130" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G178" s="130" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="149"/>
-      <c r="B179" s="152"/>
-      <c r="C179" s="152"/>
+      <c r="A179" s="151"/>
+      <c r="B179" s="162"/>
+      <c r="C179" s="162"/>
       <c r="D179" s="135">
         <v>178</v>
       </c>
       <c r="E179" s="138" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F179" s="130" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G179" s="130" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="149"/>
-      <c r="B180" s="152"/>
-      <c r="C180" s="152"/>
+      <c r="A180" s="151"/>
+      <c r="B180" s="162"/>
+      <c r="C180" s="162"/>
       <c r="D180" s="135">
         <v>179</v>
       </c>
       <c r="E180" s="138" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F180" s="130" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G180" s="130" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="151"/>
-      <c r="B181" s="153"/>
-      <c r="C181" s="153"/>
+      <c r="A181" s="156"/>
+      <c r="B181" s="163"/>
+      <c r="C181" s="163"/>
       <c r="D181" s="135">
         <v>180</v>
       </c>
       <c r="E181" s="138" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F181" s="130" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G181" s="130" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="144"/>
       <c r="B182" s="142" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C182" s="142" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D182" s="135">
         <v>181</v>
       </c>
       <c r="E182" s="142" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F182" s="142" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G182" s="142" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="A175:A181"/>
+    <mergeCell ref="B175:B181"/>
+    <mergeCell ref="C175:C181"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A168:A174"/>
+    <mergeCell ref="B168:B174"/>
+    <mergeCell ref="C168:C174"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="B72:B78"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="C81:C84"/>
     <mergeCell ref="B81:B84"/>
@@ -8014,43 +8058,8 @@
     <mergeCell ref="A56:A62"/>
     <mergeCell ref="A72:A78"/>
     <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="A175:A181"/>
-    <mergeCell ref="B175:B181"/>
-    <mergeCell ref="C175:C181"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A168:A174"/>
-    <mergeCell ref="B168:B174"/>
-    <mergeCell ref="C168:C174"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="B72:B78"/>
   </mergeCells>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="37" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -8070,19 +8079,19 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="102"/>
       <c r="B1" s="116" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C1" s="110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D1" s="117">
         <v>122</v>
       </c>
       <c r="E1" s="98" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F1" s="88" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G1" s="88" t="s">
         <v>235</v>
@@ -8091,19 +8100,19 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="102"/>
       <c r="B2" s="116" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C2" s="110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D2" s="117">
         <v>123</v>
       </c>
       <c r="E2" s="98" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F2" s="101" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G2" s="98" t="s">
         <v>236</v>
@@ -8112,19 +8121,19 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="102"/>
       <c r="B3" s="116" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C3" s="110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D3" s="117">
         <v>124</v>
       </c>
       <c r="E3" s="98" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F3" s="88" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G3" s="88" t="s">
         <v>235</v>
@@ -8133,19 +8142,19 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="102"/>
       <c r="B4" s="116" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C4" s="110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D4" s="117">
         <v>125</v>
       </c>
       <c r="E4" s="98" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F4" s="88" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G4" s="88" t="s">
         <v>236</v>
@@ -8154,19 +8163,19 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="102"/>
       <c r="B5" s="116" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C5" s="110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D5" s="117">
         <v>126</v>
       </c>
       <c r="E5" s="98" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F5" s="88" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G5" s="101" t="s">
         <v>235</v>
@@ -8175,19 +8184,19 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="102"/>
       <c r="B6" s="116" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C6" s="110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D6" s="117">
         <v>127</v>
       </c>
       <c r="E6" s="98" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F6" s="101" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G6" s="101" t="s">
         <v>235</v>
@@ -8196,19 +8205,19 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="102"/>
       <c r="B7" s="116" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C7" s="110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D7" s="117">
         <v>128</v>
       </c>
       <c r="E7" s="98" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F7" s="101" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G7" s="101" t="s">
         <v>235</v>
@@ -8217,19 +8226,19 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="102"/>
       <c r="B8" s="116" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C8" s="110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D8" s="117">
         <v>129</v>
       </c>
       <c r="E8" s="98" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F8" s="101" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G8" s="101" t="s">
         <v>236</v>
@@ -8238,19 +8247,19 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="102"/>
       <c r="B9" s="116" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C9" s="110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D9" s="117">
         <v>130</v>
       </c>
       <c r="E9" s="98" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F9" s="88" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G9" s="101" t="s">
         <v>235</v>
@@ -8259,19 +8268,19 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="102"/>
       <c r="B10" s="116" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C10" s="110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D10" s="117">
         <v>131</v>
       </c>
       <c r="E10" s="98" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F10" s="101" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G10" s="101" t="s">
         <v>235</v>
@@ -8280,19 +8289,19 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="102"/>
       <c r="B11" s="116" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C11" s="110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D11" s="117">
         <v>132</v>
       </c>
       <c r="E11" s="98" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F11" s="101" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G11" s="101" t="s">
         <v>235</v>
@@ -8301,19 +8310,19 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="102"/>
       <c r="B12" s="116" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C12" s="110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D12" s="117">
         <v>133</v>
       </c>
       <c r="E12" s="98" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F12" s="101" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G12" s="101" t="s">
         <v>236</v>
@@ -8322,19 +8331,19 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="102"/>
       <c r="B13" s="116" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C13" s="110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D13" s="117">
         <v>134</v>
       </c>
       <c r="E13" s="98" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F13" s="101" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G13" s="101" t="s">
         <v>235</v>
@@ -8343,19 +8352,19 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="102"/>
       <c r="B14" s="116" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C14" s="110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D14" s="117">
         <v>135</v>
       </c>
       <c r="E14" s="98" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F14" s="101" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G14" s="101" t="s">
         <v>235</v>
@@ -8364,19 +8373,19 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="102"/>
       <c r="B15" s="116" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C15" s="110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D15" s="117">
         <v>136</v>
       </c>
       <c r="E15" s="98" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F15" s="101" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G15" s="101" t="s">
         <v>235</v>
@@ -8385,26 +8394,26 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="102"/>
       <c r="B16" s="116" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C16" s="110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D16" s="117">
         <v>137</v>
       </c>
       <c r="E16" s="98" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F16" s="101" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G16" s="101" t="s">
         <v>236</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="37" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8844,10 +8853,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -8855,14 +8864,14 @@
         <v>38</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="37" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -8889,18 +8898,18 @@
         <v>99</v>
       </c>
       <c r="B1" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>273</v>
-      </c>
       <c r="D1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>140</v>
@@ -8909,21 +8918,21 @@
         <v>140</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -8937,7 +8946,7 @@
         <v>149</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -8951,7 +8960,7 @@
         <v>173</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -8965,7 +8974,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -8979,11 +8988,11 @@
         <v>140</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="37" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9496,7 +9505,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="52" type="noConversion"/>
+  <phoneticPr fontId="53" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9504,10 +9513,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L87"/>
+  <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10460,7 +10469,7 @@
     </row>
     <row r="48" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="89" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B48" s="17">
         <v>3</v>
@@ -10480,7 +10489,7 @@
     </row>
     <row r="49" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="103" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B49" s="17">
         <v>3</v>
@@ -10500,7 +10509,7 @@
     </row>
     <row r="50" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="86" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B50" s="17">
         <v>3</v>
@@ -10520,7 +10529,7 @@
     </row>
     <row r="51" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="86" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B51" s="17">
         <v>3</v>
@@ -10540,7 +10549,7 @@
     </row>
     <row r="52" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="86" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B52" s="17">
         <v>3</v>
@@ -10560,7 +10569,7 @@
     </row>
     <row r="53" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="86" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B53" s="17">
         <v>3</v>
@@ -10580,7 +10589,7 @@
     </row>
     <row r="54" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="86" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B54" s="17">
         <v>3</v>
@@ -10600,7 +10609,7 @@
     </row>
     <row r="55" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="86" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B55" s="17">
         <v>3</v>
@@ -10620,7 +10629,7 @@
     </row>
     <row r="56" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="86" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B56" s="17">
         <v>3</v>
@@ -10640,7 +10649,7 @@
     </row>
     <row r="57" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="86" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B57" s="17">
         <v>3</v>
@@ -10660,7 +10669,7 @@
     </row>
     <row r="58" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="86" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B58" s="17">
         <v>3</v>
@@ -10680,7 +10689,7 @@
     </row>
     <row r="59" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="86" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B59" s="17">
         <v>3</v>
@@ -10700,7 +10709,7 @@
     </row>
     <row r="60" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="86" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B60" s="17">
         <v>3</v>
@@ -10720,7 +10729,7 @@
     </row>
     <row r="61" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="86" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B61" s="17">
         <v>3</v>
@@ -10740,7 +10749,7 @@
     </row>
     <row r="62" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="86" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B62" s="17">
         <v>3</v>
@@ -10760,7 +10769,7 @@
     </row>
     <row r="63" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="86" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B63" s="17">
         <v>3</v>
@@ -10780,7 +10789,7 @@
     </row>
     <row r="64" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="86" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B64" s="17">
         <v>3</v>
@@ -10800,7 +10809,7 @@
     </row>
     <row r="65" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="86" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B65" s="17">
         <v>3</v>
@@ -10820,7 +10829,7 @@
     </row>
     <row r="66" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="86" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B66" s="17">
         <v>3</v>
@@ -10840,7 +10849,7 @@
     </row>
     <row r="67" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="86" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B67" s="17">
         <v>3</v>
@@ -10860,7 +10869,7 @@
     </row>
     <row r="68" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="86" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B68" s="17">
         <v>3</v>
@@ -10880,7 +10889,7 @@
     </row>
     <row r="69" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="86" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B69" s="17">
         <v>3</v>
@@ -10900,7 +10909,7 @@
     </row>
     <row r="70" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="86" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B70" s="17">
         <v>3</v>
@@ -10920,7 +10929,7 @@
     </row>
     <row r="71" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="86" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B71" s="17">
         <v>3</v>
@@ -10940,7 +10949,7 @@
     </row>
     <row r="72" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="86" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B72" s="17">
         <v>3</v>
@@ -10960,7 +10969,7 @@
     </row>
     <row r="73" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="86" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B73" s="17">
         <v>3</v>
@@ -11040,7 +11049,7 @@
     </row>
     <row r="77" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="85" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B77" s="17">
         <v>0</v>
@@ -11080,7 +11089,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="35" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B79" s="127">
         <v>5</v>
@@ -11100,7 +11109,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B80" s="127">
         <v>5</v>
@@ -11120,7 +11129,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="139" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B81" s="140">
         <v>0</v>
@@ -11140,7 +11149,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="139" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B82" s="140">
         <v>0</v>
@@ -11160,7 +11169,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="139" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B83" s="140">
         <v>0</v>
@@ -11180,7 +11189,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="139" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B84" s="140">
         <v>0</v>
@@ -11200,7 +11209,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="139" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B85" s="140">
         <v>0</v>
@@ -11220,7 +11229,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="139" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B86" s="140">
         <v>0</v>
@@ -11240,7 +11249,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="139" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B87" s="140">
         <v>0</v>
@@ -11258,8 +11267,28 @@
         <v>0</v>
       </c>
     </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="167" t="s">
+        <v>511</v>
+      </c>
+      <c r="B88" s="167">
+        <v>0</v>
+      </c>
+      <c r="C88" s="168">
+        <v>8</v>
+      </c>
+      <c r="D88" s="167">
+        <v>0</v>
+      </c>
+      <c r="E88" s="167">
+        <v>3</v>
+      </c>
+      <c r="F88" s="167">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="37" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11304,7 +11333,7 @@
         <v>98</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E1" s="33">
         <v>23</v>
@@ -11381,7 +11410,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B2" s="72" t="s">
         <v>213</v>
@@ -11390,7 +11419,7 @@
         <v>213</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E2" s="106"/>
       <c r="F2" s="106"/>
@@ -11449,7 +11478,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B3" s="72" t="s">
         <v>216</v>
@@ -11458,52 +11487,52 @@
         <v>216</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q3" s="33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R3" s="33" t="s">
         <v>207</v>
       </c>
       <c r="S3" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T3" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U3" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V3" s="33" t="s">
         <v>210</v>
@@ -11512,30 +11541,30 @@
         <v>206</v>
       </c>
       <c r="X3" s="33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Y3" s="33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Z3" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AB3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -11549,13 +11578,13 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -11569,13 +11598,13 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -11589,13 +11618,13 @@
     </row>
     <row r="7" spans="1:28" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="93" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B7" s="96" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C7" s="96" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D7" s="94"/>
       <c r="E7" s="105">
@@ -11664,13 +11693,13 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B8" s="96" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C8" s="96" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="105">
@@ -11742,13 +11771,13 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C9" s="96" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D9" s="18">
         <v>294947</v>
@@ -11822,13 +11851,13 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D10" s="18">
         <v>557315</v>
@@ -11902,13 +11931,13 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B11" s="96" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C11" s="72" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D11" s="18">
         <v>1081603</v>
@@ -11982,13 +12011,13 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B12" s="96" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D12" s="33">
         <v>2130019</v>
@@ -12062,13 +12091,13 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B13" s="96" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C13" s="96" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D13" s="18">
         <v>2130947</v>
@@ -12142,13 +12171,13 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B14" s="96" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C14" s="72" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D14" s="33">
         <v>2059</v>
@@ -12222,13 +12251,13 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B15" s="96" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D15" s="33">
         <v>8451</v>
@@ -12304,13 +12333,13 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B16" s="96" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C16" s="72" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D16" s="33">
         <v>4137</v>
@@ -12390,13 +12419,13 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B17" s="96" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C17" s="72" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D17" s="33">
         <v>17665</v>
@@ -12476,189 +12505,189 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B18" s="72" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C18" s="72" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C19" s="72" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B20" s="72" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C20" s="72" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B21" s="72" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C21" s="72" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B22" s="72" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C22" s="72" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B23" s="72" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C23" s="72" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B24" s="72" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C24" s="72" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B25" s="72" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C25" s="72" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B26" s="72" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C26" s="72" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B27" s="72" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C27" s="72" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B28" s="72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C28" s="72" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B29" s="72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C29" s="72" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B30" s="72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C30" s="72" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B31" s="72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C31" s="72" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B32" s="72" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C32" s="72" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B33" s="72" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C33" s="72" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="93" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B34" s="96" t="s">
+        <v>460</v>
+      </c>
+      <c r="C34" s="96" t="s">
         <v>461</v>
-      </c>
-      <c r="C34" s="96" t="s">
-        <v>462</v>
       </c>
       <c r="D34">
         <v>98315</v>
@@ -12666,13 +12695,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="93" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B35" s="96" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C35" s="96" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D35">
         <v>163851</v>
@@ -12680,13 +12709,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="93" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B36" s="96" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C36" s="96" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D36">
         <v>294923</v>
@@ -12694,13 +12723,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="93" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B37" s="96" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C37" s="96" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D37">
         <v>557067</v>
@@ -12708,94 +12737,94 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="93" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B38" s="96" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C38" s="72" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="93" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B39" s="96" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C39" s="72" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="93" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B40" s="96" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C40" s="72" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="93" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B41" s="96" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C41" s="72" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="133" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B42" s="96" t="s">
+        <v>460</v>
+      </c>
+      <c r="C42" s="96" t="s">
         <v>461</v>
-      </c>
-      <c r="C42" s="96" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="133" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B43" s="96" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C43" s="96" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="133" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B44" s="96" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C44" s="72" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="133" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B45" s="96" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C45" s="72" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="58" type="noConversion"/>
+  <phoneticPr fontId="59" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/config/project/Integrate_120KW_megmeet/IntegrateConfig.xlsx
+++ b/config/project/Integrate_120KW_megmeet/IntegrateConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\Integrate_120KW_increase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\Integrate_120KW_megmeet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FD9A6A05-B010-4263-8D51-A7383F9CB202}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CBB30420-2181-4301-9280-7ADE29CFAF29}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="555">
   <si>
     <t>组序号</t>
   </si>
@@ -59,15 +59,15 @@
   </si>
   <si>
     <t>resistance</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -83,39 +83,39 @@
       </rPr>
       <t>YPE</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>UPPER</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>LOWER</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>RTIM</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>TTIM</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>ARC</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>WTIM</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>RAMP</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>RANG</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -131,107 +131,107 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>VOLT(KV)</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>FTIM</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>FREQ(HZ)</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>DCW</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V绝缘电阻</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V工频耐压</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE绝缘电阻</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE工频耐压</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>DC12V对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE绝缘电阻</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE绝缘电阻</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE工频耐压</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE工频耐压</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE绝缘电阻</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对地，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合上塑壳断路器、2P\1P断路器，关闭4P断路器，ABCN相连对地耐压2500V，60秒，漏电流不大于10mA
 （ACW M2，AC 2.5kV?,10.00mA,60s）
 </t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，耐压DC1500V，60秒，漏电流不大于10mA（DCW M1，DC1.5kV,10.00mA,60s）
 </t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M3，AC 1KV)</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>DC12V正负端短接对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">拆开华为模块CAN线
 DC12V正负端短接对地，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">96/97/98/99/TP1/TP2/TP3/TP4相连对地，绝缘电阻应大于10M欧(IR M4，1KV) </t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -294,15 +294,15 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>电表2</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>硬件自检</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>group</t>
@@ -321,62 +321,62 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点1</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点2</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点1</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点2</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>温度检测</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>插座电压</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -392,7 +392,7 @@
       </rPr>
       <t>efault</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -408,7 +408,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -424,71 +424,71 @@
       </rPr>
       <t>20V</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>显示模块检查</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>看门狗检查</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>整机功耗</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -504,27 +504,27 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>热交换机检测</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>交流复位</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>BI</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>BO</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>参数名</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -540,7 +540,7 @@
       </rPr>
       <t>I掩码</t>
     </r>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -556,218 +556,218 @@
       </rPr>
       <t>O掩码</t>
     </r>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>组名称</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>操作前检查</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>门接地柱对地</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>控制器对地</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>内门、内架PE对地</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>插座PE对地</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪PE对地</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>不大于0.1欧</t>
   </si>
   <si>
     <t>不大于0.1欧</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>接地电阻</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪1二维码</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪2二维码</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>装置编号</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>桩编号</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>升级控制盒程序</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>显示模块及语音检查</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>软件版本检查</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>控制板BOOT版本</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT版本</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT应用软件版本</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>控制板应用软件版本</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>充电模块版本核对</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>模块1版本</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>模块2版本</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>时间设置</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>scan</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>inverseWarn</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>insulation</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>charging</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>正常</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电流</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电压</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电能量</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电流</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电压</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电能量</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>0x00000002</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>装置型号</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>电表时间</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>1枪电表时间</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>2枪电表时间</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>装置时间</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>断电后装置时间</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>timeSet</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>0xC0000000</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>请拔掉枪，马上做泄放</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -783,154 +783,154 @@
       </rPr>
       <t>elay</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>Relay</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电流</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电压</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电能量</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电流</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电压</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电能量</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>请把1枪插入BMS模拟器</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>StubCmd</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>参数校正</t>
   </si>
   <si>
     <t>编译时间</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>是否连接正式平台</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘检测结果</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘检测结果</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>合上30关闭29</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>合上30合上29</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>断开30断开29</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>0x30000002</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>0x20000002</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试启动充电</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试停止充电</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试启动充电</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试停止充电</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘电阻正</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘电阻负</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘电阻正</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘电阻负</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪前测量值</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪后测量值</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪前测量值</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪链接电压</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪链接电压</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪后测量值</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪链接电压</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪链接电压</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -963,7 +963,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -996,7 +996,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1022,7 +1022,7 @@
       </rPr>
       <t>120A</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1048,7 +1048,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1074,7 +1074,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1100,15 +1100,15 @@
       </rPr>
       <t>120A</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪1功率分配</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪2功率分配</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>避雷器反馈</t>
@@ -1130,7 +1130,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1146,7 +1146,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1162,7 +1162,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1178,7 +1178,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1194,11 +1194,11 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>备用</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1214,7 +1214,7 @@
       </rPr>
       <t>5K6</t>
     </r>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1230,15 +1230,15 @@
       </rPr>
       <t>9K10</t>
     </r>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>门禁开关</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>急停反馈</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1254,111 +1254,111 @@
       </rPr>
       <t>7K8</t>
     </r>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>枪1电子锁反馈</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>枪2电子锁反馈</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x0018</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x0118</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x1118</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x0060</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>请按下急停按钮</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>0x0260</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x1260</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>门节点</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>防雷器</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>StubCmd</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>打开门</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>关闭门</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>设置防雷器告警</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>设置防雷器不告警</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>按下急停按钮</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>不按下急停按钮</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>门闭合状态</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>门打开状态</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>防雷器告警状态</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>防雷器正常状态</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>true_</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>false_</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1374,87 +1374,87 @@
       </rPr>
       <t>nlock</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于拔出状态</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于拔出状态</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止，测试完成把枪拔出</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止，测试完成把枪拔出</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1470,31 +1470,31 @@
       </rPr>
       <t>看门狗短路插片JP2升完程序后不安装 2控制器贴有已检标记 3 各部件贴有“PASS”标识 4整机有经过品管进行整机工艺检查并贴有已检标记 5 大电流端子、交流接触器、电表、断路器贴有已检标记</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>参数校正</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>参数矫正时候，请确保没有插入枪</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>请确保没有插枪，并且已经断电</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮按下</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮未按下</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1510,39 +1510,39 @@
       </rPr>
       <t>PP测试</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>掩码</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>0xFFFFFFFF</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>APP枪1测试</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>APP枪2测试</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>0x00000000</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>组测试前继电器操作掩码</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>组测试后继电器操作掩码</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1558,7 +1558,7 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1574,18 +1574,18 @@
       </rPr>
       <t>O</t>
     </r>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>DO单一控制标志</t>
   </si>
   <si>
     <t>交流接触器KM控制</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>充电枪1的电子锁通电时间控制</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1601,7 +1601,7 @@
       </rPr>
       <t>K1K2</t>
     </r>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1617,11 +1617,11 @@
       </rPr>
       <t>K3K4</t>
     </r>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>充电枪2的电子锁通电时间控制</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1637,7 +1637,7 @@
       </rPr>
       <t>K1K2</t>
     </r>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1653,43 +1653,43 @@
       </rPr>
       <t>K3K4</t>
     </r>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>PowerDistribute</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>K5K6</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>K7K8</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>K9K10</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>K1K2</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>K3K4</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x0100</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x1000</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x0800</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1705,95 +1705,95 @@
       </rPr>
       <t>IBO</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>sim卡采集</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>sim卡编号采集</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>设备信息</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>铭牌编号</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>资产编号</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>显示板号</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪型号记录</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>直流挡板</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>铭牌</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>看门狗插片</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>K60看门狗</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>显示盖板</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>CtrlBoxSet</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>控制盒编号</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>控制盒编号</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>1枪K1K2控制</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>1枪K3K4控制</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>1枪K5K6控制</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>K7K8控制</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1K2控制</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>2枪K3K4控制</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>2枪K9K10控制</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>电源模块1</t>
@@ -1821,271 +1821,271 @@
   </si>
   <si>
     <t>1枪K1反馈</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>1枪K2反馈</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1反馈</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>2枪K2反馈</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>KM1反馈</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>KM2反馈</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>K5K6反馈</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>K9K10反馈</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>K7K8反馈</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>KM控制</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>DO单一控制标志</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪1K1K2</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>枪2K1K2</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x0200</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x0018</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>0x0060</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>0x0100</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>0x1000</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>0x0200</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>PowerModule</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>电源模块1</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>电源模块1</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>电源模块4</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>电源模块6_1</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>电源模块6_2</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>电源模块2</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>电源模块3</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>电源模块5</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>继电器断开K5_K7_K9</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>继电器断开K6_K8_K10</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>断开K5,K7,K9,闭合K6,K8,K10</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>断开K6,K8,K10,闭合K5,K7,K9</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>继电器1枪K1K2闭合</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>继电器1枪K1K2断开</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>继电器2枪K1K2闭合</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>继电器2枪K1K2断开</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>继电器K5K6_K5断开_K6闭合</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>继电器K5K6_K5闭合_K6断开</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>继电器K5K6_K5闭合_K6闭合</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>继电器K5K6_K5断开_K6断开</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>继电器K7K8_K7断开_K8闭合</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>继电器K7K8_K7闭合_K8断开</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>继电器K7K8_K7闭合_K8闭合</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>继电器K7K8_K7断开_K8断开</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>继电器K9K10_K9断开_K10断开</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>继电器K9K10_K9断开_K10闭合</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>继电器K9K10_K9闭合_K10断开</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>继电器K9K10_K9闭合_K10闭合</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>模块控制</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>模块1</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>模块2</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>模块3</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>模块4</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>模块5</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>模块6</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x088103</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x108103</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x208403</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x048023</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x01800B</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x02800B</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x208063</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘检测控制</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘检测控制</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x0001</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2101,23 +2101,23 @@
       </rPr>
       <t>080B</t>
     </r>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x2103</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>枪1泄放</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>枪2泄放</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>断开交流接触器</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2133,87 +2133,87 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>断开交流接触器</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x0001</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x010003</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x1029</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x4501</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>K5</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>K6</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>K7</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>K8</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>K9</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>K10</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x0009</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x0101</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>1枪K1</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>1枪K2</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>2枪K2</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x0008</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x0010</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x0010</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2229,39 +2229,39 @@
       </rPr>
       <t>x0021</t>
     </r>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x0041</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x0401</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>1枪K3</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>1枪K4</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>2枪K3</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>2枪K4</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x0020</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x0040</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2277,179 +2277,179 @@
       </rPr>
       <t>IBO</t>
     </r>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>1枪K1-触点</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>1枪K2-触点</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1-触点</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>2枪K2-触点</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>1枪K3-触点</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>1枪K4-触点</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>2枪K3-触点</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>2枪K4-触点</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>K5-触点</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>K6-触点</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>K7-触点</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>K8-触点</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>K9-触点</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>K10-触点</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>断开所有继电器</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>断开所有继电器</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>上电</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>断电</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>电源模块6(电表1)</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>电源模块6(电表2)</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x0000</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x0000</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>gunSelect</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>断开网络</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>NetWorkCheck</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>枪1启动类型</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪2启动类型</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>paramSet</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>基本配置检查</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>模块7</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>模块8</t>
-    <phoneticPr fontId="60" type="noConversion"/>
+    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <t>0x010003</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>0x01800B</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>0x02800B</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>0x04800B</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>0x08800B</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>0x108103</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>0x208103</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>0x408103</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>0x808103</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>120KW_电源模块1</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>120KW_电源模块2</t>
@@ -2477,7 +2477,7 @@
   </si>
   <si>
     <t>120KW_麦格米特电源模块1</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>120KW_麦格米特电源模块2</t>
@@ -2490,99 +2490,99 @@
   </si>
   <si>
     <t>0x048103</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>0x088103</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>功率分配</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>模块厂家</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>单枪模块个数</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>模块功率</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>模块额定电流</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>模块最小输出电压</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>模块最大输出电压</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>麦格米特电源模块设置</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>30</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>100</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>200</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>950</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>英可瑞电源模块设置</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>4</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>15</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>500</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>44</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>模块厂家查看</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2598,43 +2598,277 @@
       </rPr>
       <t>C</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>350</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>2.77</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>0.2</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>APP测试</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>后台登入连接</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim卡CCID读取</t>
+  </si>
+  <si>
+    <t>ccid</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件版本</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0000</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>整机状态</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0100</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>室外温度</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0502</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>室内温度</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0503</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>高温告警</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0600</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>低温告警</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0601</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>内温感失效</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0609</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>内风机故障</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x060C</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>外风机故障</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x060D</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>制冷点</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0700</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>制冷回差</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x0710</t>
+    </r>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>高温点</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x0706</t>
+    </r>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>低温点</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x0707</t>
+    </r>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>内风机停止点</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x070A</t>
+    </r>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调检查</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim卡CCID读取</t>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="62" x14ac:knownFonts="1">
+  <fonts count="64" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3069,6 +3303,11 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="29">
     <fill>
@@ -3427,582 +3666,623 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="43" applyFill="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="43" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="43" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="52" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="43" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4011,32 +4291,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4394,10 +4656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G183"/>
+  <dimension ref="A1:G198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E190" sqref="E190"/>
+    <sheetView topLeftCell="A169" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4735,11 +4997,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="154"/>
-      <c r="B15" s="154" t="s">
+      <c r="A15" s="176"/>
+      <c r="B15" s="176" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="154" t="s">
+      <c r="C15" s="176" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
@@ -4756,9 +5018,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="152"/>
-      <c r="B16" s="152"/>
-      <c r="C16" s="152"/>
+      <c r="A16" s="168"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="168"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
@@ -4773,9 +5035,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="152"/>
-      <c r="B17" s="152"/>
-      <c r="C17" s="152"/>
+      <c r="A17" s="168"/>
+      <c r="B17" s="168"/>
+      <c r="C17" s="168"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
@@ -4790,9 +5052,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="152"/>
-      <c r="B18" s="152"/>
-      <c r="C18" s="152"/>
+      <c r="A18" s="168"/>
+      <c r="B18" s="168"/>
+      <c r="C18" s="168"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
@@ -4807,9 +5069,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="152"/>
-      <c r="B19" s="152"/>
-      <c r="C19" s="152"/>
+      <c r="A19" s="168"/>
+      <c r="B19" s="168"/>
+      <c r="C19" s="168"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
@@ -4870,11 +5132,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="160"/>
-      <c r="B22" s="160" t="s">
+      <c r="A22" s="169"/>
+      <c r="B22" s="169" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="160" t="s">
+      <c r="C22" s="169" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="20">
@@ -4891,9 +5153,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="156"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
+      <c r="A23" s="165"/>
+      <c r="B23" s="165"/>
+      <c r="C23" s="165"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
@@ -4908,9 +5170,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="156"/>
-      <c r="B24" s="156"/>
-      <c r="C24" s="156"/>
+      <c r="A24" s="165"/>
+      <c r="B24" s="165"/>
+      <c r="C24" s="165"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
@@ -4925,9 +5187,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="156"/>
-      <c r="B25" s="156"/>
-      <c r="C25" s="156"/>
+      <c r="A25" s="165"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="165"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
@@ -4942,9 +5204,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="161"/>
-      <c r="B26" s="161"/>
-      <c r="C26" s="161"/>
+      <c r="A26" s="166"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="166"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
@@ -5001,11 +5263,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="162"/>
-      <c r="B29" s="165" t="s">
+      <c r="A29" s="180"/>
+      <c r="B29" s="177" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="165" t="s">
+      <c r="C29" s="177" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -5022,9 +5284,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="163"/>
-      <c r="B30" s="163"/>
-      <c r="C30" s="163"/>
+      <c r="A30" s="178"/>
+      <c r="B30" s="178"/>
+      <c r="C30" s="178"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
@@ -5039,9 +5301,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="163"/>
-      <c r="B31" s="163"/>
-      <c r="C31" s="163"/>
+      <c r="A31" s="178"/>
+      <c r="B31" s="178"/>
+      <c r="C31" s="178"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
@@ -5056,9 +5318,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="163"/>
-      <c r="B32" s="163"/>
-      <c r="C32" s="163"/>
+      <c r="A32" s="178"/>
+      <c r="B32" s="178"/>
+      <c r="C32" s="178"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
@@ -5073,9 +5335,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="164"/>
-      <c r="B33" s="164"/>
-      <c r="C33" s="164"/>
+      <c r="A33" s="179"/>
+      <c r="B33" s="179"/>
+      <c r="C33" s="179"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
@@ -5090,11 +5352,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="152"/>
-      <c r="B34" s="152" t="s">
+      <c r="A34" s="168"/>
+      <c r="B34" s="168" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="152" t="s">
+      <c r="C34" s="168" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
@@ -5111,9 +5373,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="152"/>
-      <c r="B35" s="152"/>
-      <c r="C35" s="152"/>
+      <c r="A35" s="168"/>
+      <c r="B35" s="168"/>
+      <c r="C35" s="168"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
@@ -5128,11 +5390,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="152"/>
-      <c r="B36" s="152" t="s">
+      <c r="A36" s="168"/>
+      <c r="B36" s="168" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="154" t="s">
+      <c r="C36" s="176" t="s">
         <v>147</v>
       </c>
       <c r="D36" s="20">
@@ -5149,9 +5411,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="152"/>
-      <c r="B37" s="152"/>
-      <c r="C37" s="152"/>
+      <c r="A37" s="168"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
@@ -5166,11 +5428,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="152"/>
-      <c r="B38" s="153" t="s">
+      <c r="A38" s="168"/>
+      <c r="B38" s="167" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="153" t="s">
+      <c r="C38" s="167" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
@@ -5187,9 +5449,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="152"/>
-      <c r="B39" s="152"/>
-      <c r="C39" s="152"/>
+      <c r="A39" s="168"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
@@ -5204,11 +5466,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="152"/>
-      <c r="B40" s="152" t="s">
+      <c r="A40" s="168"/>
+      <c r="B40" s="168" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="153" t="s">
+      <c r="C40" s="167" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -5225,9 +5487,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="152"/>
-      <c r="B41" s="152"/>
-      <c r="C41" s="152"/>
+      <c r="A41" s="168"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
@@ -5242,9 +5504,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="152"/>
-      <c r="B42" s="152"/>
-      <c r="C42" s="152"/>
+      <c r="A42" s="168"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
@@ -5259,9 +5521,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="152"/>
-      <c r="B43" s="152"/>
-      <c r="C43" s="152"/>
+      <c r="A43" s="168"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
@@ -5276,9 +5538,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="152"/>
-      <c r="B44" s="152"/>
-      <c r="C44" s="152"/>
+      <c r="A44" s="168"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
@@ -5293,11 +5555,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="152">
+      <c r="A45" s="168">
         <v>13</v>
       </c>
-      <c r="B45" s="152"/>
-      <c r="C45" s="152" t="s">
+      <c r="B45" s="168"/>
+      <c r="C45" s="168" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -5377,11 +5639,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="159"/>
-      <c r="B49" s="157" t="s">
+      <c r="A49" s="181"/>
+      <c r="B49" s="174" t="s">
         <v>196</v>
       </c>
-      <c r="C49" s="158" t="s">
+      <c r="C49" s="175" t="s">
         <v>284</v>
       </c>
       <c r="D49" s="20">
@@ -5398,9 +5660,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="152"/>
-      <c r="B50" s="152"/>
-      <c r="C50" s="152"/>
+      <c r="A50" s="168"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="168"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
@@ -5415,9 +5677,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="152"/>
-      <c r="B51" s="152"/>
-      <c r="C51" s="152"/>
+      <c r="A51" s="168"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="168"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
@@ -5516,11 +5778,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="160"/>
-      <c r="B56" s="155" t="s">
+      <c r="A56" s="169"/>
+      <c r="B56" s="161" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="160" t="s">
+      <c r="C56" s="169" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="20">
@@ -5537,9 +5799,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="156"/>
-      <c r="B57" s="156"/>
-      <c r="C57" s="156"/>
+      <c r="A57" s="165"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="165"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
@@ -5554,9 +5816,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="156"/>
-      <c r="B58" s="156"/>
-      <c r="C58" s="156"/>
+      <c r="A58" s="165"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="165"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
@@ -5571,9 +5833,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="156"/>
-      <c r="B59" s="156"/>
-      <c r="C59" s="156"/>
+      <c r="A59" s="165"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="165"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
@@ -5588,9 +5850,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="156"/>
-      <c r="B60" s="156"/>
-      <c r="C60" s="156"/>
+      <c r="A60" s="165"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="165"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
@@ -5605,9 +5867,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="156"/>
-      <c r="B61" s="156"/>
-      <c r="C61" s="156"/>
+      <c r="A61" s="165"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="165"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
@@ -5622,9 +5884,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="156"/>
-      <c r="B62" s="156"/>
-      <c r="C62" s="156"/>
+      <c r="A62" s="165"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="165"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
@@ -5681,11 +5943,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="159"/>
-      <c r="B65" s="157" t="s">
+      <c r="A65" s="181"/>
+      <c r="B65" s="174" t="s">
         <v>197</v>
       </c>
-      <c r="C65" s="158" t="s">
+      <c r="C65" s="175" t="s">
         <v>284</v>
       </c>
       <c r="D65" s="20">
@@ -5702,9 +5964,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="152"/>
-      <c r="B66" s="152"/>
-      <c r="C66" s="152"/>
+      <c r="A66" s="168"/>
+      <c r="B66" s="168"/>
+      <c r="C66" s="168"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
@@ -5719,9 +5981,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="152"/>
-      <c r="B67" s="152"/>
-      <c r="C67" s="152"/>
+      <c r="A67" s="168"/>
+      <c r="B67" s="168"/>
+      <c r="C67" s="168"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
@@ -5820,11 +6082,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="160"/>
-      <c r="B72" s="155" t="s">
+      <c r="A72" s="169"/>
+      <c r="B72" s="161" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="160" t="s">
+      <c r="C72" s="169" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="20">
@@ -5841,9 +6103,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="156"/>
-      <c r="B73" s="156"/>
-      <c r="C73" s="156"/>
+      <c r="A73" s="165"/>
+      <c r="B73" s="165"/>
+      <c r="C73" s="165"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
@@ -5858,9 +6120,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="156"/>
-      <c r="B74" s="156"/>
-      <c r="C74" s="156"/>
+      <c r="A74" s="165"/>
+      <c r="B74" s="165"/>
+      <c r="C74" s="165"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
@@ -5875,9 +6137,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="156"/>
-      <c r="B75" s="156"/>
-      <c r="C75" s="156"/>
+      <c r="A75" s="165"/>
+      <c r="B75" s="165"/>
+      <c r="C75" s="165"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
@@ -5892,9 +6154,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="156"/>
-      <c r="B76" s="156"/>
-      <c r="C76" s="156"/>
+      <c r="A76" s="165"/>
+      <c r="B76" s="165"/>
+      <c r="C76" s="165"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
@@ -5909,9 +6171,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="156"/>
-      <c r="B77" s="156"/>
-      <c r="C77" s="156"/>
+      <c r="A77" s="165"/>
+      <c r="B77" s="165"/>
+      <c r="C77" s="165"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
@@ -5926,9 +6188,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="156"/>
-      <c r="B78" s="156"/>
-      <c r="C78" s="156"/>
+      <c r="A78" s="165"/>
+      <c r="B78" s="165"/>
+      <c r="C78" s="165"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
@@ -5985,11 +6247,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="154"/>
-      <c r="B81" s="154" t="s">
+      <c r="A81" s="176"/>
+      <c r="B81" s="176" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="153" t="s">
+      <c r="C81" s="167" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -6006,9 +6268,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="152"/>
-      <c r="B82" s="152"/>
-      <c r="C82" s="152"/>
+      <c r="A82" s="168"/>
+      <c r="B82" s="168"/>
+      <c r="C82" s="168"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
@@ -6023,9 +6285,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="152"/>
-      <c r="B83" s="152"/>
-      <c r="C83" s="152"/>
+      <c r="A83" s="168"/>
+      <c r="B83" s="168"/>
+      <c r="C83" s="168"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
@@ -6040,9 +6302,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="152"/>
-      <c r="B84" s="152"/>
-      <c r="C84" s="152"/>
+      <c r="A84" s="168"/>
+      <c r="B84" s="168"/>
+      <c r="C84" s="168"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
@@ -6351,11 +6613,11 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="166"/>
-      <c r="B99" s="166" t="s">
+      <c r="A99" s="170"/>
+      <c r="B99" s="170" t="s">
         <v>294</v>
       </c>
-      <c r="C99" s="166" t="s">
+      <c r="C99" s="170" t="s">
         <v>76</v>
       </c>
       <c r="D99" s="81">
@@ -6372,9 +6634,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="166"/>
-      <c r="B100" s="166"/>
-      <c r="C100" s="166"/>
+      <c r="A100" s="170"/>
+      <c r="B100" s="170"/>
+      <c r="C100" s="170"/>
       <c r="D100" s="81">
         <v>99</v>
       </c>
@@ -6389,9 +6651,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="166"/>
-      <c r="B101" s="166"/>
-      <c r="C101" s="166"/>
+      <c r="A101" s="170"/>
+      <c r="B101" s="170"/>
+      <c r="C101" s="170"/>
       <c r="D101" s="81">
         <v>100</v>
       </c>
@@ -6427,11 +6689,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="166"/>
-      <c r="B103" s="166" t="s">
+      <c r="A103" s="170"/>
+      <c r="B103" s="170" t="s">
         <v>296</v>
       </c>
-      <c r="C103" s="166" t="s">
+      <c r="C103" s="170" t="s">
         <v>58</v>
       </c>
       <c r="D103" s="76">
@@ -6448,9 +6710,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="169"/>
-      <c r="B104" s="169"/>
-      <c r="C104" s="169"/>
+      <c r="A104" s="171"/>
+      <c r="B104" s="171"/>
+      <c r="C104" s="171"/>
       <c r="D104" s="76">
         <v>103</v>
       </c>
@@ -6465,9 +6727,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="169"/>
-      <c r="B105" s="169"/>
-      <c r="C105" s="169"/>
+      <c r="A105" s="171"/>
+      <c r="B105" s="171"/>
+      <c r="C105" s="171"/>
       <c r="D105" s="76">
         <v>104</v>
       </c>
@@ -7469,11 +7731,11 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="171"/>
-      <c r="B153" s="170" t="s">
+      <c r="A153" s="173"/>
+      <c r="B153" s="172" t="s">
         <v>456</v>
       </c>
-      <c r="C153" s="152" t="s">
+      <c r="C153" s="168" t="s">
         <v>455</v>
       </c>
       <c r="D153" s="123">
@@ -7490,9 +7752,9 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="171"/>
-      <c r="B154" s="171"/>
-      <c r="C154" s="152"/>
+      <c r="A154" s="173"/>
+      <c r="B154" s="173"/>
+      <c r="C154" s="168"/>
       <c r="D154" s="123">
         <v>153</v>
       </c>
@@ -7507,9 +7769,9 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="171"/>
-      <c r="B155" s="171"/>
-      <c r="C155" s="152"/>
+      <c r="A155" s="173"/>
+      <c r="B155" s="173"/>
+      <c r="C155" s="168"/>
       <c r="D155" s="123">
         <v>154</v>
       </c>
@@ -7776,11 +8038,11 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="155"/>
-      <c r="B168" s="155" t="s">
+      <c r="A168" s="161"/>
+      <c r="B168" s="161" t="s">
         <v>491</v>
       </c>
-      <c r="C168" s="155" t="s">
+      <c r="C168" s="161" t="s">
         <v>455</v>
       </c>
       <c r="D168" s="133">
@@ -7797,9 +8059,9 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="156"/>
-      <c r="B169" s="167"/>
-      <c r="C169" s="167"/>
+      <c r="A169" s="165"/>
+      <c r="B169" s="162"/>
+      <c r="C169" s="162"/>
       <c r="D169" s="133">
         <v>168</v>
       </c>
@@ -7814,9 +8076,9 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="156"/>
-      <c r="B170" s="167"/>
-      <c r="C170" s="167"/>
+      <c r="A170" s="165"/>
+      <c r="B170" s="162"/>
+      <c r="C170" s="162"/>
       <c r="D170" s="133">
         <v>169</v>
       </c>
@@ -7831,9 +8093,9 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="156"/>
-      <c r="B171" s="167"/>
-      <c r="C171" s="167"/>
+      <c r="A171" s="165"/>
+      <c r="B171" s="162"/>
+      <c r="C171" s="162"/>
       <c r="D171" s="133">
         <v>170</v>
       </c>
@@ -7848,9 +8110,9 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="156"/>
-      <c r="B172" s="167"/>
-      <c r="C172" s="167"/>
+      <c r="A172" s="165"/>
+      <c r="B172" s="162"/>
+      <c r="C172" s="162"/>
       <c r="D172" s="133">
         <v>171</v>
       </c>
@@ -7865,9 +8127,9 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="156"/>
-      <c r="B173" s="167"/>
-      <c r="C173" s="167"/>
+      <c r="A173" s="165"/>
+      <c r="B173" s="162"/>
+      <c r="C173" s="162"/>
       <c r="D173" s="133">
         <v>172</v>
       </c>
@@ -7882,9 +8144,9 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="161"/>
-      <c r="B174" s="168"/>
-      <c r="C174" s="168"/>
+      <c r="A174" s="166"/>
+      <c r="B174" s="163"/>
+      <c r="C174" s="163"/>
       <c r="D174" s="133">
         <v>173</v>
       </c>
@@ -7899,11 +8161,11 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="155"/>
-      <c r="B175" s="155" t="s">
+      <c r="A175" s="161"/>
+      <c r="B175" s="161" t="s">
         <v>497</v>
       </c>
-      <c r="C175" s="155" t="s">
+      <c r="C175" s="161" t="s">
         <v>455</v>
       </c>
       <c r="D175" s="133">
@@ -7920,9 +8182,9 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="156"/>
-      <c r="B176" s="167"/>
-      <c r="C176" s="167"/>
+      <c r="A176" s="165"/>
+      <c r="B176" s="162"/>
+      <c r="C176" s="162"/>
       <c r="D176" s="133">
         <v>175</v>
       </c>
@@ -7937,9 +8199,9 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="156"/>
-      <c r="B177" s="167"/>
-      <c r="C177" s="167"/>
+      <c r="A177" s="165"/>
+      <c r="B177" s="162"/>
+      <c r="C177" s="162"/>
       <c r="D177" s="133">
         <v>176</v>
       </c>
@@ -7954,9 +8216,9 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="156"/>
-      <c r="B178" s="167"/>
-      <c r="C178" s="167"/>
+      <c r="A178" s="165"/>
+      <c r="B178" s="162"/>
+      <c r="C178" s="162"/>
       <c r="D178" s="133">
         <v>177</v>
       </c>
@@ -7971,9 +8233,9 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="156"/>
-      <c r="B179" s="167"/>
-      <c r="C179" s="167"/>
+      <c r="A179" s="165"/>
+      <c r="B179" s="162"/>
+      <c r="C179" s="162"/>
       <c r="D179" s="133">
         <v>178</v>
       </c>
@@ -7988,9 +8250,9 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="156"/>
-      <c r="B180" s="167"/>
-      <c r="C180" s="167"/>
+      <c r="A180" s="165"/>
+      <c r="B180" s="162"/>
+      <c r="C180" s="162"/>
       <c r="D180" s="133">
         <v>179</v>
       </c>
@@ -8005,9 +8267,9 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="161"/>
-      <c r="B181" s="168"/>
-      <c r="C181" s="168"/>
+      <c r="A181" s="166"/>
+      <c r="B181" s="163"/>
+      <c r="C181" s="163"/>
       <c r="D181" s="133">
         <v>180</v>
       </c>
@@ -8044,7 +8306,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="143"/>
-      <c r="B183" s="174" t="s">
+      <c r="B183" s="155" t="s">
         <v>512</v>
       </c>
       <c r="C183" s="150" t="s">
@@ -8053,7 +8315,7 @@
       <c r="D183" s="133">
         <v>182</v>
       </c>
-      <c r="E183" s="174" t="s">
+      <c r="E183" s="155" t="s">
         <v>512</v>
       </c>
       <c r="F183" s="150" t="s">
@@ -8063,43 +8325,271 @@
         <v>235</v>
       </c>
     </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="143"/>
+      <c r="B184" s="152" t="s">
+        <v>554</v>
+      </c>
+      <c r="C184" s="152" t="s">
+        <v>514</v>
+      </c>
+      <c r="D184" s="133">
+        <v>183</v>
+      </c>
+      <c r="E184" s="152" t="s">
+        <v>513</v>
+      </c>
+      <c r="F184" s="152" t="s">
+        <v>11</v>
+      </c>
+      <c r="G184" s="152" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="164"/>
+      <c r="B185" s="161" t="s">
+        <v>553</v>
+      </c>
+      <c r="C185" s="158" t="s">
+        <v>516</v>
+      </c>
+      <c r="D185" s="133">
+        <v>184</v>
+      </c>
+      <c r="E185" s="156" t="s">
+        <v>515</v>
+      </c>
+      <c r="F185" s="156" t="s">
+        <v>517</v>
+      </c>
+      <c r="G185" s="128" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="165"/>
+      <c r="B186" s="162"/>
+      <c r="C186" s="159"/>
+      <c r="D186" s="133">
+        <v>185</v>
+      </c>
+      <c r="E186" s="156" t="s">
+        <v>519</v>
+      </c>
+      <c r="F186" s="156" t="s">
+        <v>520</v>
+      </c>
+      <c r="G186" s="128" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="165"/>
+      <c r="B187" s="162"/>
+      <c r="C187" s="159"/>
+      <c r="D187" s="133">
+        <v>186</v>
+      </c>
+      <c r="E187" s="156" t="s">
+        <v>522</v>
+      </c>
+      <c r="F187" s="156" t="s">
+        <v>523</v>
+      </c>
+      <c r="G187" s="128" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="165"/>
+      <c r="B188" s="162"/>
+      <c r="C188" s="159"/>
+      <c r="D188" s="133">
+        <v>187</v>
+      </c>
+      <c r="E188" s="156" t="s">
+        <v>525</v>
+      </c>
+      <c r="F188" s="156" t="s">
+        <v>526</v>
+      </c>
+      <c r="G188" s="128" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="165"/>
+      <c r="B189" s="162"/>
+      <c r="C189" s="159"/>
+      <c r="D189" s="133">
+        <v>188</v>
+      </c>
+      <c r="E189" s="156" t="s">
+        <v>528</v>
+      </c>
+      <c r="F189" s="156" t="s">
+        <v>529</v>
+      </c>
+      <c r="G189" s="128" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="165"/>
+      <c r="B190" s="162"/>
+      <c r="C190" s="159"/>
+      <c r="D190" s="133">
+        <v>189</v>
+      </c>
+      <c r="E190" s="156" t="s">
+        <v>531</v>
+      </c>
+      <c r="F190" s="156" t="s">
+        <v>532</v>
+      </c>
+      <c r="G190" s="128" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="165"/>
+      <c r="B191" s="162"/>
+      <c r="C191" s="159"/>
+      <c r="D191" s="133">
+        <v>190</v>
+      </c>
+      <c r="E191" s="157" t="s">
+        <v>533</v>
+      </c>
+      <c r="F191" s="156" t="s">
+        <v>534</v>
+      </c>
+      <c r="G191" s="128" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="165"/>
+      <c r="B192" s="162"/>
+      <c r="C192" s="159"/>
+      <c r="D192" s="133">
+        <v>191</v>
+      </c>
+      <c r="E192" s="157" t="s">
+        <v>535</v>
+      </c>
+      <c r="F192" s="156" t="s">
+        <v>536</v>
+      </c>
+      <c r="G192" s="128" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="165"/>
+      <c r="B193" s="162"/>
+      <c r="C193" s="159"/>
+      <c r="D193" s="133">
+        <v>192</v>
+      </c>
+      <c r="E193" s="157" t="s">
+        <v>537</v>
+      </c>
+      <c r="F193" s="156" t="s">
+        <v>538</v>
+      </c>
+      <c r="G193" s="128" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="165"/>
+      <c r="B194" s="162"/>
+      <c r="C194" s="159"/>
+      <c r="D194" s="133">
+        <v>193</v>
+      </c>
+      <c r="E194" s="157" t="s">
+        <v>539</v>
+      </c>
+      <c r="F194" s="157" t="s">
+        <v>540</v>
+      </c>
+      <c r="G194" s="128" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="165"/>
+      <c r="B195" s="162"/>
+      <c r="C195" s="159"/>
+      <c r="D195" s="133">
+        <v>194</v>
+      </c>
+      <c r="E195" s="157" t="s">
+        <v>542</v>
+      </c>
+      <c r="F195" s="156" t="s">
+        <v>543</v>
+      </c>
+      <c r="G195" s="128" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="165"/>
+      <c r="B196" s="162"/>
+      <c r="C196" s="159"/>
+      <c r="D196" s="133">
+        <v>195</v>
+      </c>
+      <c r="E196" s="157" t="s">
+        <v>545</v>
+      </c>
+      <c r="F196" s="156" t="s">
+        <v>546</v>
+      </c>
+      <c r="G196" s="128" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="165"/>
+      <c r="B197" s="162"/>
+      <c r="C197" s="159"/>
+      <c r="D197" s="133">
+        <v>196</v>
+      </c>
+      <c r="E197" s="157" t="s">
+        <v>548</v>
+      </c>
+      <c r="F197" s="156" t="s">
+        <v>549</v>
+      </c>
+      <c r="G197" s="128" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="166"/>
+      <c r="B198" s="163"/>
+      <c r="C198" s="160"/>
+      <c r="D198" s="133">
+        <v>197</v>
+      </c>
+      <c r="E198" s="157" t="s">
+        <v>550</v>
+      </c>
+      <c r="F198" s="156" t="s">
+        <v>551</v>
+      </c>
+      <c r="G198" s="128" t="s">
+        <v>552</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="A175:A181"/>
-    <mergeCell ref="B175:B181"/>
-    <mergeCell ref="C175:C181"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A168:A174"/>
-    <mergeCell ref="B168:B174"/>
-    <mergeCell ref="C168:C174"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="B72:B78"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A33"/>
+  <mergeCells count="54">
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="C81:C84"/>
     <mergeCell ref="B81:B84"/>
@@ -8116,8 +8606,46 @@
     <mergeCell ref="A56:A62"/>
     <mergeCell ref="A72:A78"/>
     <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="B72:B78"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="C185:C198"/>
+    <mergeCell ref="B185:B198"/>
+    <mergeCell ref="A185:A198"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="A175:A181"/>
+    <mergeCell ref="B175:B181"/>
+    <mergeCell ref="C175:C181"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A168:A174"/>
+    <mergeCell ref="B168:B174"/>
+    <mergeCell ref="C168:C174"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="B153:B155"/>
   </mergeCells>
-  <phoneticPr fontId="38" type="noConversion"/>
+  <phoneticPr fontId="39" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -8471,7 +8999,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="38" type="noConversion"/>
+  <phoneticPr fontId="39" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8929,7 +9457,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="38" type="noConversion"/>
+  <phoneticPr fontId="39" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -9050,7 +9578,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="38" type="noConversion"/>
+  <phoneticPr fontId="39" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9563,7 +10091,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="54" type="noConversion"/>
+  <phoneticPr fontId="55" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9571,10 +10099,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -11346,27 +11874,47 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="172" t="s">
+      <c r="A89" s="153" t="s">
         <v>512</v>
       </c>
-      <c r="B89" s="172">
-        <v>0</v>
-      </c>
-      <c r="C89" s="172">
+      <c r="B89" s="153">
+        <v>0</v>
+      </c>
+      <c r="C89" s="153">
         <v>8</v>
       </c>
-      <c r="D89" s="173">
-        <v>0</v>
-      </c>
-      <c r="E89" s="173">
+      <c r="D89" s="154">
+        <v>0</v>
+      </c>
+      <c r="E89" s="154">
         <v>3</v>
       </c>
-      <c r="F89" s="173">
+      <c r="F89" s="154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="182" t="s">
+        <v>554</v>
+      </c>
+      <c r="B90" s="182">
+        <v>9</v>
+      </c>
+      <c r="C90" s="182">
+        <v>0</v>
+      </c>
+      <c r="D90" s="183">
+        <v>0</v>
+      </c>
+      <c r="E90" s="183">
+        <v>3</v>
+      </c>
+      <c r="F90" s="183">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="38" type="noConversion"/>
+  <phoneticPr fontId="39" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12902,7 +13450,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="60" type="noConversion"/>
+  <phoneticPr fontId="61" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/config/project/Integrate_120KW_megmeet/IntegrateConfig.xlsx
+++ b/config/project/Integrate_120KW_megmeet/IntegrateConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\Integrate_120KW_megmeet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CBB30420-2181-4301-9280-7ADE29CFAF29}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{397C83C2-0646-4AFE-84D8-3DF6C0FB50A0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="558">
   <si>
     <t>组序号</t>
   </si>
@@ -59,15 +59,15 @@
   </si>
   <si>
     <t>resistance</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="56" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -83,39 +83,39 @@
       </rPr>
       <t>YPE</t>
     </r>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="56" type="noConversion"/>
   </si>
   <si>
     <t>UPPER</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="56" type="noConversion"/>
   </si>
   <si>
     <t>LOWER</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="56" type="noConversion"/>
   </si>
   <si>
     <t>RTIM</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="56" type="noConversion"/>
   </si>
   <si>
     <t>TTIM</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="56" type="noConversion"/>
   </si>
   <si>
     <t>ARC</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="56" type="noConversion"/>
   </si>
   <si>
     <t>WTIM</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="56" type="noConversion"/>
   </si>
   <si>
     <t>RAMP</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="56" type="noConversion"/>
   </si>
   <si>
     <t>RANG</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="56" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -131,107 +131,107 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="56" type="noConversion"/>
   </si>
   <si>
     <t>VOLT(KV)</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="56" type="noConversion"/>
   </si>
   <si>
     <t>FTIM</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="56" type="noConversion"/>
   </si>
   <si>
     <t>FREQ(HZ)</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="56" type="noConversion"/>
   </si>
   <si>
     <t>DCW</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="56" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V绝缘电阻</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V工频耐压</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="56" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE绝缘电阻</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE工频耐压</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="56" type="noConversion"/>
   </si>
   <si>
     <t>DC12V对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="56" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE绝缘电阻</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="56" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE绝缘电阻</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="56" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE工频耐压</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="56" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE工频耐压</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="56" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE绝缘电阻</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="56" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对地，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合上塑壳断路器、2P\1P断路器，关闭4P断路器，ABCN相连对地耐压2500V，60秒，漏电流不大于10mA
 （ACW M2，AC 2.5kV?,10.00mA,60s）
 </t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，耐压DC1500V，60秒，漏电流不大于10mA（DCW M1，DC1.5kV,10.00mA,60s）
 </t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M3，AC 1KV)</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>DC12V正负端短接对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">拆开华为模块CAN线
 DC12V正负端短接对地，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">96/97/98/99/TP1/TP2/TP3/TP4相连对地，绝缘电阻应大于10M欧(IR M4，1KV) </t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -294,15 +294,15 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>电表2</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>硬件自检</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>group</t>
@@ -321,62 +321,62 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点1</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点2</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点1</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点2</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>温度检测</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>插座电压</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -392,7 +392,7 @@
       </rPr>
       <t>efault</t>
     </r>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -408,7 +408,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -424,71 +424,71 @@
       </rPr>
       <t>20V</t>
     </r>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>显示模块检查</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>看门狗检查</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>整机功耗</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -504,27 +504,27 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>热交换机检测</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>交流复位</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>BI</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>BO</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>参数名</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -540,7 +540,7 @@
       </rPr>
       <t>I掩码</t>
     </r>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -556,218 +556,218 @@
       </rPr>
       <t>O掩码</t>
     </r>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>组名称</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>操作前检查</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>门接地柱对地</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>控制器对地</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>内门、内架PE对地</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>插座PE对地</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪PE对地</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>不大于0.1欧</t>
   </si>
   <si>
     <t>不大于0.1欧</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>接地电阻</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪1二维码</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪2二维码</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>装置编号</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>桩编号</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>升级控制盒程序</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>显示模块及语音检查</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>软件版本检查</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>控制板BOOT版本</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT版本</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT应用软件版本</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>控制板应用软件版本</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>充电模块版本核对</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>模块1版本</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>模块2版本</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>时间设置</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>scan</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>inverseWarn</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>insulation</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>charging</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>正常</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电流</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电压</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电能量</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电流</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电压</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电能量</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>0x00000002</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>装置型号</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>电表时间</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>1枪电表时间</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2枪电表时间</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>装置时间</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>断电后装置时间</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>timeSet</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>0xC0000000</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>请拔掉枪，马上做泄放</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -783,154 +783,154 @@
       </rPr>
       <t>elay</t>
     </r>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>Relay</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电流</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电压</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电能量</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电流</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电压</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电能量</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>请把1枪插入BMS模拟器</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>StubCmd</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>参数校正</t>
   </si>
   <si>
     <t>编译时间</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>是否连接正式平台</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘检测结果</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘检测结果</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>合上30关闭29</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>合上30合上29</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>断开30断开29</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>0x30000002</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>0x20000002</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试启动充电</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试停止充电</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试启动充电</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试停止充电</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘电阻正</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘电阻负</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘电阻正</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘电阻负</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪前测量值</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪后测量值</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪前测量值</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪链接电压</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪链接电压</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪后测量值</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪链接电压</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪链接电压</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -963,7 +963,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -996,7 +996,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1022,7 +1022,7 @@
       </rPr>
       <t>120A</t>
     </r>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1048,7 +1048,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1074,7 +1074,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1100,15 +1100,15 @@
       </rPr>
       <t>120A</t>
     </r>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪1功率分配</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪2功率分配</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>避雷器反馈</t>
@@ -1130,7 +1130,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1146,7 +1146,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1162,7 +1162,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1178,7 +1178,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1194,11 +1194,11 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>备用</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1214,7 +1214,7 @@
       </rPr>
       <t>5K6</t>
     </r>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1230,15 +1230,15 @@
       </rPr>
       <t>9K10</t>
     </r>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>门禁开关</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>急停反馈</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1254,111 +1254,111 @@
       </rPr>
       <t>7K8</t>
     </r>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>枪1电子锁反馈</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>枪2电子锁反馈</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x0018</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x0118</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x1118</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x0060</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>请按下急停按钮</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>0x0260</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x1260</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>门节点</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>防雷器</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>StubCmd</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>打开门</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>关闭门</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>设置防雷器告警</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>设置防雷器不告警</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>按下急停按钮</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>不按下急停按钮</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>门闭合状态</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>门打开状态</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>防雷器告警状态</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>防雷器正常状态</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>true_</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>false_</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1374,87 +1374,87 @@
       </rPr>
       <t>nlock</t>
     </r>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于拔出状态</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于拔出状态</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止，测试完成把枪拔出</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止，测试完成把枪拔出</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1470,31 +1470,31 @@
       </rPr>
       <t>看门狗短路插片JP2升完程序后不安装 2控制器贴有已检标记 3 各部件贴有“PASS”标识 4整机有经过品管进行整机工艺检查并贴有已检标记 5 大电流端子、交流接触器、电表、断路器贴有已检标记</t>
     </r>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>参数校正</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>参数矫正时候，请确保没有插入枪</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>请确保没有插枪，并且已经断电</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮按下</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮未按下</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1510,39 +1510,39 @@
       </rPr>
       <t>PP测试</t>
     </r>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>掩码</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>0xFFFFFFFF</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>APP枪1测试</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>APP枪2测试</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>0x00000000</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>组测试前继电器操作掩码</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>组测试后继电器操作掩码</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1558,7 +1558,7 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1574,18 +1574,18 @@
       </rPr>
       <t>O</t>
     </r>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>DO单一控制标志</t>
   </si>
   <si>
     <t>交流接触器KM控制</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>充电枪1的电子锁通电时间控制</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1601,7 +1601,7 @@
       </rPr>
       <t>K1K2</t>
     </r>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1617,11 +1617,11 @@
       </rPr>
       <t>K3K4</t>
     </r>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>充电枪2的电子锁通电时间控制</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1637,7 +1637,7 @@
       </rPr>
       <t>K1K2</t>
     </r>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1653,43 +1653,43 @@
       </rPr>
       <t>K3K4</t>
     </r>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>PowerDistribute</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>K5K6</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>K7K8</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>K9K10</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>K1K2</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>K3K4</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x0100</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x1000</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x0800</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1705,95 +1705,95 @@
       </rPr>
       <t>IBO</t>
     </r>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>sim卡采集</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>sim卡编号采集</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>设备信息</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>铭牌编号</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>资产编号</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>显示板号</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪型号记录</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>直流挡板</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>铭牌</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>看门狗插片</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>K60看门狗</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>显示盖板</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>CtrlBoxSet</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>控制盒编号</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>控制盒编号</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>1枪K1K2控制</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>1枪K3K4控制</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>1枪K5K6控制</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>K7K8控制</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1K2控制</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2枪K3K4控制</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2枪K9K10控制</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>电源模块1</t>
@@ -1821,271 +1821,271 @@
   </si>
   <si>
     <t>1枪K1反馈</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>1枪K2反馈</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1反馈</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2枪K2反馈</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>KM1反馈</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>KM2反馈</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>K5K6反馈</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>K9K10反馈</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>K7K8反馈</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>KM控制</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>DO单一控制标志</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪1K1K2</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>枪2K1K2</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x0200</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x0018</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>0x0060</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>0x0100</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>0x1000</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>0x0200</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>PowerModule</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>电源模块1</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>电源模块1</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>电源模块4</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>电源模块6_1</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>电源模块6_2</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>电源模块2</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>电源模块3</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>电源模块5</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>继电器断开K5_K7_K9</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>继电器断开K6_K8_K10</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>断开K5,K7,K9,闭合K6,K8,K10</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>断开K6,K8,K10,闭合K5,K7,K9</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>继电器1枪K1K2闭合</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>继电器1枪K1K2断开</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>继电器2枪K1K2闭合</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>继电器2枪K1K2断开</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>继电器K5K6_K5断开_K6闭合</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>继电器K5K6_K5闭合_K6断开</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>继电器K5K6_K5闭合_K6闭合</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>继电器K5K6_K5断开_K6断开</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>继电器K7K8_K7断开_K8闭合</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>继电器K7K8_K7闭合_K8断开</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>继电器K7K8_K7闭合_K8闭合</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>继电器K7K8_K7断开_K8断开</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>继电器K9K10_K9断开_K10断开</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>继电器K9K10_K9断开_K10闭合</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>继电器K9K10_K9闭合_K10断开</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>继电器K9K10_K9闭合_K10闭合</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>模块控制</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>模块1</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>模块2</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>模块3</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>模块4</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>模块5</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>模块6</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x088103</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x108103</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x208403</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x048023</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x01800B</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x02800B</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x208063</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘检测控制</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘检测控制</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x0001</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2101,23 +2101,23 @@
       </rPr>
       <t>080B</t>
     </r>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x2103</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>枪1泄放</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>枪2泄放</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>断开交流接触器</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2133,87 +2133,87 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>断开交流接触器</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x0001</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x010003</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x1029</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x4501</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>K5</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>K6</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>K7</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>K8</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>K9</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>K10</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x0009</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x0101</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>1枪K1</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>1枪K2</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>2枪K2</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x0008</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x0010</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x0010</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2229,39 +2229,39 @@
       </rPr>
       <t>x0021</t>
     </r>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x0041</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x0401</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>1枪K3</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>1枪K4</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>2枪K3</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>2枪K4</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x0020</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x0040</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2277,179 +2277,179 @@
       </rPr>
       <t>IBO</t>
     </r>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>1枪K1-触点</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>1枪K2-触点</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1-触点</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>2枪K2-触点</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>1枪K3-触点</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>1枪K4-触点</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>2枪K3-触点</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>2枪K4-触点</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>K5-触点</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>K6-触点</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>K7-触点</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>K8-触点</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>K9-触点</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>K10-触点</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>断开所有继电器</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>断开所有继电器</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>上电</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>断电</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>电源模块6(电表1)</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>电源模块6(电表2)</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x0000</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x0000</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>gunSelect</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>断开网络</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>NetWorkCheck</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>枪1启动类型</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>枪2启动类型</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>paramSet</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>基本配置检查</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>模块7</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>模块8</t>
-    <phoneticPr fontId="61" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>0x010003</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>0x01800B</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>0x02800B</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>0x04800B</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>0x08800B</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>0x108103</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>0x208103</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>0x408103</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>0x808103</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>120KW_电源模块1</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>120KW_电源模块2</t>
@@ -2477,7 +2477,7 @@
   </si>
   <si>
     <t>120KW_麦格米特电源模块1</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>120KW_麦格米特电源模块2</t>
@@ -2490,99 +2490,99 @@
   </si>
   <si>
     <t>0x048103</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>0x088103</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>功率分配</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>模块厂家</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>单枪模块个数</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>模块功率</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>模块额定电流</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>模块最小输出电压</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>模块最大输出电压</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>麦格米特电源模块设置</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>30</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>100</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>200</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>950</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>英可瑞电源模块设置</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>4</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>15</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>500</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>44</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>模块厂家查看</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2598,86 +2598,86 @@
       </rPr>
       <t>C</t>
     </r>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>350</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2.77</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>0.2</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>APP测试</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>后台登入连接</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>sim卡CCID读取</t>
   </si>
   <si>
     <t>ccid</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>软件版本</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>condition</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>0x0000</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>104</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>整机状态</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>0x0100</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>室外温度</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>0x0502</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>2000</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>室内温度</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>0x0503</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2693,67 +2693,67 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>高温告警</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>0x0600</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>低温告警</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>0x0601</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>内温感失效</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>0x0609</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>内风机故障</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>0x060C</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>外风机故障</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>0x060D</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>制冷点</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>0x0700</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>40</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>制冷回差</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2769,15 +2769,15 @@
       </rPr>
       <t>x0710</t>
     </r>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>高温点</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2793,15 +2793,15 @@
       </rPr>
       <t>x0706</t>
     </r>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>75</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>低温点</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2817,11 +2817,11 @@
       </rPr>
       <t>x0707</t>
     </r>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>内风机停止点</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2837,31 +2837,49 @@
       </rPr>
       <t>x070A</t>
     </r>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>35</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>空调检查</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
     <t>sim卡CCID读取</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程自测</t>
+    <phoneticPr fontId="64" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0802</t>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="64" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="64" x14ac:knownFonts="1">
+  <fonts count="66" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3308,6 +3326,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="29">
     <fill>
@@ -3666,639 +3691,645 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="43" applyFill="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="43" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="43" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="43" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4656,10 +4687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G198"/>
+  <dimension ref="A1:G199"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B184" sqref="B184"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E192" sqref="E192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4997,11 +5028,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="176"/>
-      <c r="B15" s="176" t="s">
+      <c r="A15" s="163"/>
+      <c r="B15" s="163" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="176" t="s">
+      <c r="C15" s="163" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
@@ -5018,9 +5049,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="168"/>
-      <c r="B16" s="168"/>
-      <c r="C16" s="168"/>
+      <c r="A16" s="161"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="161"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
@@ -5035,9 +5066,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="168"/>
-      <c r="B17" s="168"/>
-      <c r="C17" s="168"/>
+      <c r="A17" s="161"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="161"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
@@ -5052,9 +5083,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="168"/>
-      <c r="B18" s="168"/>
-      <c r="C18" s="168"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="161"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
@@ -5069,9 +5100,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="168"/>
-      <c r="B19" s="168"/>
-      <c r="C19" s="168"/>
+      <c r="A19" s="161"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="161"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
@@ -5204,9 +5235,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="166"/>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
+      <c r="A26" s="170"/>
+      <c r="B26" s="170"/>
+      <c r="C26" s="170"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
@@ -5263,11 +5294,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="180"/>
-      <c r="B29" s="177" t="s">
+      <c r="A29" s="171"/>
+      <c r="B29" s="174" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="177" t="s">
+      <c r="C29" s="174" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -5284,9 +5315,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="178"/>
-      <c r="B30" s="178"/>
-      <c r="C30" s="178"/>
+      <c r="A30" s="172"/>
+      <c r="B30" s="172"/>
+      <c r="C30" s="172"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
@@ -5301,9 +5332,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="178"/>
-      <c r="B31" s="178"/>
-      <c r="C31" s="178"/>
+      <c r="A31" s="172"/>
+      <c r="B31" s="172"/>
+      <c r="C31" s="172"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
@@ -5318,9 +5349,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="178"/>
-      <c r="B32" s="178"/>
-      <c r="C32" s="178"/>
+      <c r="A32" s="172"/>
+      <c r="B32" s="172"/>
+      <c r="C32" s="172"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
@@ -5335,9 +5366,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="179"/>
-      <c r="B33" s="179"/>
-      <c r="C33" s="179"/>
+      <c r="A33" s="173"/>
+      <c r="B33" s="173"/>
+      <c r="C33" s="173"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
@@ -5352,11 +5383,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="168"/>
-      <c r="B34" s="168" t="s">
+      <c r="A34" s="161"/>
+      <c r="B34" s="161" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="168" t="s">
+      <c r="C34" s="161" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
@@ -5373,9 +5404,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="168"/>
-      <c r="B35" s="168"/>
-      <c r="C35" s="168"/>
+      <c r="A35" s="161"/>
+      <c r="B35" s="161"/>
+      <c r="C35" s="161"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
@@ -5390,11 +5421,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="168"/>
-      <c r="B36" s="168" t="s">
+      <c r="A36" s="161"/>
+      <c r="B36" s="161" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="176" t="s">
+      <c r="C36" s="163" t="s">
         <v>147</v>
       </c>
       <c r="D36" s="20">
@@ -5411,9 +5442,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="168"/>
-      <c r="B37" s="168"/>
-      <c r="C37" s="168"/>
+      <c r="A37" s="161"/>
+      <c r="B37" s="161"/>
+      <c r="C37" s="161"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
@@ -5428,11 +5459,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="168"/>
-      <c r="B38" s="167" t="s">
+      <c r="A38" s="161"/>
+      <c r="B38" s="162" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="167" t="s">
+      <c r="C38" s="162" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
@@ -5449,9 +5480,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="168"/>
-      <c r="B39" s="168"/>
-      <c r="C39" s="168"/>
+      <c r="A39" s="161"/>
+      <c r="B39" s="161"/>
+      <c r="C39" s="161"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
@@ -5466,11 +5497,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="168"/>
-      <c r="B40" s="168" t="s">
+      <c r="A40" s="161"/>
+      <c r="B40" s="161" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="167" t="s">
+      <c r="C40" s="162" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -5487,9 +5518,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="168"/>
-      <c r="B41" s="168"/>
-      <c r="C41" s="168"/>
+      <c r="A41" s="161"/>
+      <c r="B41" s="161"/>
+      <c r="C41" s="161"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
@@ -5504,9 +5535,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="168"/>
-      <c r="B42" s="168"/>
-      <c r="C42" s="168"/>
+      <c r="A42" s="161"/>
+      <c r="B42" s="161"/>
+      <c r="C42" s="161"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
@@ -5521,9 +5552,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="168"/>
-      <c r="B43" s="168"/>
-      <c r="C43" s="168"/>
+      <c r="A43" s="161"/>
+      <c r="B43" s="161"/>
+      <c r="C43" s="161"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
@@ -5538,9 +5569,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="168"/>
-      <c r="B44" s="168"/>
-      <c r="C44" s="168"/>
+      <c r="A44" s="161"/>
+      <c r="B44" s="161"/>
+      <c r="C44" s="161"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
@@ -5555,11 +5586,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="168">
+      <c r="A45" s="161">
         <v>13</v>
       </c>
-      <c r="B45" s="168"/>
-      <c r="C45" s="168" t="s">
+      <c r="B45" s="161"/>
+      <c r="C45" s="161" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -5639,11 +5670,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="181"/>
-      <c r="B49" s="174" t="s">
+      <c r="A49" s="168"/>
+      <c r="B49" s="166" t="s">
         <v>196</v>
       </c>
-      <c r="C49" s="175" t="s">
+      <c r="C49" s="167" t="s">
         <v>284</v>
       </c>
       <c r="D49" s="20">
@@ -5660,9 +5691,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="168"/>
-      <c r="B50" s="168"/>
-      <c r="C50" s="168"/>
+      <c r="A50" s="161"/>
+      <c r="B50" s="161"/>
+      <c r="C50" s="161"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
@@ -5677,9 +5708,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="168"/>
-      <c r="B51" s="168"/>
-      <c r="C51" s="168"/>
+      <c r="A51" s="161"/>
+      <c r="B51" s="161"/>
+      <c r="C51" s="161"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
@@ -5779,7 +5810,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="169"/>
-      <c r="B56" s="161" t="s">
+      <c r="B56" s="164" t="s">
         <v>132</v>
       </c>
       <c r="C56" s="169" t="s">
@@ -5943,11 +5974,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="181"/>
-      <c r="B65" s="174" t="s">
+      <c r="A65" s="168"/>
+      <c r="B65" s="166" t="s">
         <v>197</v>
       </c>
-      <c r="C65" s="175" t="s">
+      <c r="C65" s="167" t="s">
         <v>284</v>
       </c>
       <c r="D65" s="20">
@@ -5964,9 +5995,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="168"/>
-      <c r="B66" s="168"/>
-      <c r="C66" s="168"/>
+      <c r="A66" s="161"/>
+      <c r="B66" s="161"/>
+      <c r="C66" s="161"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
@@ -5981,9 +6012,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="168"/>
-      <c r="B67" s="168"/>
-      <c r="C67" s="168"/>
+      <c r="A67" s="161"/>
+      <c r="B67" s="161"/>
+      <c r="C67" s="161"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
@@ -6083,7 +6114,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="169"/>
-      <c r="B72" s="161" t="s">
+      <c r="B72" s="164" t="s">
         <v>86</v>
       </c>
       <c r="C72" s="169" t="s">
@@ -6247,11 +6278,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="176"/>
-      <c r="B81" s="176" t="s">
+      <c r="A81" s="163"/>
+      <c r="B81" s="163" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="167" t="s">
+      <c r="C81" s="162" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -6268,9 +6299,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="168"/>
-      <c r="B82" s="168"/>
-      <c r="C82" s="168"/>
+      <c r="A82" s="161"/>
+      <c r="B82" s="161"/>
+      <c r="C82" s="161"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
@@ -6285,9 +6316,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="168"/>
-      <c r="B83" s="168"/>
-      <c r="C83" s="168"/>
+      <c r="A83" s="161"/>
+      <c r="B83" s="161"/>
+      <c r="C83" s="161"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
@@ -6302,9 +6333,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="168"/>
-      <c r="B84" s="168"/>
-      <c r="C84" s="168"/>
+      <c r="A84" s="161"/>
+      <c r="B84" s="161"/>
+      <c r="C84" s="161"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
@@ -6613,11 +6644,11 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="170"/>
-      <c r="B99" s="170" t="s">
+      <c r="A99" s="176"/>
+      <c r="B99" s="176" t="s">
         <v>294</v>
       </c>
-      <c r="C99" s="170" t="s">
+      <c r="C99" s="176" t="s">
         <v>76</v>
       </c>
       <c r="D99" s="81">
@@ -6634,9 +6665,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="170"/>
-      <c r="B100" s="170"/>
-      <c r="C100" s="170"/>
+      <c r="A100" s="176"/>
+      <c r="B100" s="176"/>
+      <c r="C100" s="176"/>
       <c r="D100" s="81">
         <v>99</v>
       </c>
@@ -6651,9 +6682,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="170"/>
-      <c r="B101" s="170"/>
-      <c r="C101" s="170"/>
+      <c r="A101" s="176"/>
+      <c r="B101" s="176"/>
+      <c r="C101" s="176"/>
       <c r="D101" s="81">
         <v>100</v>
       </c>
@@ -6689,11 +6720,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="170"/>
-      <c r="B103" s="170" t="s">
+      <c r="A103" s="176"/>
+      <c r="B103" s="176" t="s">
         <v>296</v>
       </c>
-      <c r="C103" s="170" t="s">
+      <c r="C103" s="176" t="s">
         <v>58</v>
       </c>
       <c r="D103" s="76">
@@ -6710,9 +6741,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="171"/>
-      <c r="B104" s="171"/>
-      <c r="C104" s="171"/>
+      <c r="A104" s="183"/>
+      <c r="B104" s="183"/>
+      <c r="C104" s="183"/>
       <c r="D104" s="76">
         <v>103</v>
       </c>
@@ -6727,9 +6758,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="171"/>
-      <c r="B105" s="171"/>
-      <c r="C105" s="171"/>
+      <c r="A105" s="183"/>
+      <c r="B105" s="183"/>
+      <c r="C105" s="183"/>
       <c r="D105" s="76">
         <v>104</v>
       </c>
@@ -7731,11 +7762,11 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="173"/>
-      <c r="B153" s="172" t="s">
+      <c r="A153" s="175"/>
+      <c r="B153" s="184" t="s">
         <v>456</v>
       </c>
-      <c r="C153" s="168" t="s">
+      <c r="C153" s="161" t="s">
         <v>455</v>
       </c>
       <c r="D153" s="123">
@@ -7752,9 +7783,9 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="173"/>
-      <c r="B154" s="173"/>
-      <c r="C154" s="168"/>
+      <c r="A154" s="175"/>
+      <c r="B154" s="175"/>
+      <c r="C154" s="161"/>
       <c r="D154" s="123">
         <v>153</v>
       </c>
@@ -7769,9 +7800,9 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="173"/>
-      <c r="B155" s="173"/>
-      <c r="C155" s="168"/>
+      <c r="A155" s="175"/>
+      <c r="B155" s="175"/>
+      <c r="C155" s="161"/>
       <c r="D155" s="123">
         <v>154</v>
       </c>
@@ -8038,11 +8069,11 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="161"/>
-      <c r="B168" s="161" t="s">
+      <c r="A168" s="164"/>
+      <c r="B168" s="164" t="s">
         <v>491</v>
       </c>
-      <c r="C168" s="161" t="s">
+      <c r="C168" s="164" t="s">
         <v>455</v>
       </c>
       <c r="D168" s="133">
@@ -8060,8 +8091,8 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="165"/>
-      <c r="B169" s="162"/>
-      <c r="C169" s="162"/>
+      <c r="B169" s="180"/>
+      <c r="C169" s="180"/>
       <c r="D169" s="133">
         <v>168</v>
       </c>
@@ -8077,8 +8108,8 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="165"/>
-      <c r="B170" s="162"/>
-      <c r="C170" s="162"/>
+      <c r="B170" s="180"/>
+      <c r="C170" s="180"/>
       <c r="D170" s="133">
         <v>169</v>
       </c>
@@ -8094,8 +8125,8 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="165"/>
-      <c r="B171" s="162"/>
-      <c r="C171" s="162"/>
+      <c r="B171" s="180"/>
+      <c r="C171" s="180"/>
       <c r="D171" s="133">
         <v>170</v>
       </c>
@@ -8111,8 +8142,8 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="165"/>
-      <c r="B172" s="162"/>
-      <c r="C172" s="162"/>
+      <c r="B172" s="180"/>
+      <c r="C172" s="180"/>
       <c r="D172" s="133">
         <v>171</v>
       </c>
@@ -8128,8 +8159,8 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="165"/>
-      <c r="B173" s="162"/>
-      <c r="C173" s="162"/>
+      <c r="B173" s="180"/>
+      <c r="C173" s="180"/>
       <c r="D173" s="133">
         <v>172</v>
       </c>
@@ -8144,9 +8175,9 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="166"/>
-      <c r="B174" s="163"/>
-      <c r="C174" s="163"/>
+      <c r="A174" s="170"/>
+      <c r="B174" s="181"/>
+      <c r="C174" s="181"/>
       <c r="D174" s="133">
         <v>173</v>
       </c>
@@ -8161,11 +8192,11 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="161"/>
-      <c r="B175" s="161" t="s">
+      <c r="A175" s="164"/>
+      <c r="B175" s="164" t="s">
         <v>497</v>
       </c>
-      <c r="C175" s="161" t="s">
+      <c r="C175" s="164" t="s">
         <v>455</v>
       </c>
       <c r="D175" s="133">
@@ -8183,8 +8214,8 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="165"/>
-      <c r="B176" s="162"/>
-      <c r="C176" s="162"/>
+      <c r="B176" s="180"/>
+      <c r="C176" s="180"/>
       <c r="D176" s="133">
         <v>175</v>
       </c>
@@ -8200,8 +8231,8 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="165"/>
-      <c r="B177" s="162"/>
-      <c r="C177" s="162"/>
+      <c r="B177" s="180"/>
+      <c r="C177" s="180"/>
       <c r="D177" s="133">
         <v>176</v>
       </c>
@@ -8217,8 +8248,8 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="165"/>
-      <c r="B178" s="162"/>
-      <c r="C178" s="162"/>
+      <c r="B178" s="180"/>
+      <c r="C178" s="180"/>
       <c r="D178" s="133">
         <v>177</v>
       </c>
@@ -8234,8 +8265,8 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="165"/>
-      <c r="B179" s="162"/>
-      <c r="C179" s="162"/>
+      <c r="B179" s="180"/>
+      <c r="C179" s="180"/>
       <c r="D179" s="133">
         <v>178</v>
       </c>
@@ -8251,8 +8282,8 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="165"/>
-      <c r="B180" s="162"/>
-      <c r="C180" s="162"/>
+      <c r="B180" s="180"/>
+      <c r="C180" s="180"/>
       <c r="D180" s="133">
         <v>179</v>
       </c>
@@ -8267,9 +8298,9 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="166"/>
-      <c r="B181" s="163"/>
-      <c r="C181" s="163"/>
+      <c r="A181" s="170"/>
+      <c r="B181" s="181"/>
+      <c r="C181" s="181"/>
       <c r="D181" s="133">
         <v>180</v>
       </c>
@@ -8347,106 +8378,106 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="164"/>
-      <c r="B185" s="161" t="s">
+      <c r="A185" s="182"/>
+      <c r="B185" s="164" t="s">
         <v>553</v>
       </c>
-      <c r="C185" s="158" t="s">
+      <c r="C185" s="177" t="s">
         <v>516</v>
       </c>
       <c r="D185" s="133">
         <v>184</v>
       </c>
-      <c r="E185" s="156" t="s">
-        <v>515</v>
-      </c>
-      <c r="F185" s="156" t="s">
-        <v>517</v>
+      <c r="E185" s="158" t="s">
+        <v>555</v>
+      </c>
+      <c r="F185" s="185" t="s">
+        <v>556</v>
       </c>
       <c r="G185" s="128" t="s">
-        <v>518</v>
+        <v>557</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="165"/>
-      <c r="B186" s="162"/>
-      <c r="C186" s="159"/>
+      <c r="B186" s="180"/>
+      <c r="C186" s="178"/>
       <c r="D186" s="133">
         <v>185</v>
       </c>
       <c r="E186" s="156" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F186" s="156" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G186" s="128" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="165"/>
-      <c r="B187" s="162"/>
-      <c r="C187" s="159"/>
+      <c r="B187" s="180"/>
+      <c r="C187" s="178"/>
       <c r="D187" s="133">
         <v>186</v>
       </c>
       <c r="E187" s="156" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F187" s="156" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G187" s="128" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="165"/>
-      <c r="B188" s="162"/>
-      <c r="C188" s="159"/>
+      <c r="B188" s="180"/>
+      <c r="C188" s="178"/>
       <c r="D188" s="133">
         <v>187</v>
       </c>
       <c r="E188" s="156" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F188" s="156" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G188" s="128" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="165"/>
-      <c r="B189" s="162"/>
-      <c r="C189" s="159"/>
+      <c r="B189" s="180"/>
+      <c r="C189" s="178"/>
       <c r="D189" s="133">
         <v>188</v>
       </c>
       <c r="E189" s="156" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F189" s="156" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G189" s="128" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="165"/>
-      <c r="B190" s="162"/>
-      <c r="C190" s="159"/>
+      <c r="B190" s="180"/>
+      <c r="C190" s="178"/>
       <c r="D190" s="133">
         <v>189</v>
       </c>
       <c r="E190" s="156" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F190" s="156" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G190" s="128" t="s">
         <v>530</v>
@@ -8454,16 +8485,16 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="165"/>
-      <c r="B191" s="162"/>
-      <c r="C191" s="159"/>
+      <c r="B191" s="180"/>
+      <c r="C191" s="178"/>
       <c r="D191" s="133">
         <v>190</v>
       </c>
-      <c r="E191" s="157" t="s">
-        <v>533</v>
+      <c r="E191" s="156" t="s">
+        <v>531</v>
       </c>
       <c r="F191" s="156" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G191" s="128" t="s">
         <v>530</v>
@@ -8471,16 +8502,16 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="165"/>
-      <c r="B192" s="162"/>
-      <c r="C192" s="159"/>
+      <c r="B192" s="180"/>
+      <c r="C192" s="178"/>
       <c r="D192" s="133">
         <v>191</v>
       </c>
       <c r="E192" s="157" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F192" s="156" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G192" s="128" t="s">
         <v>530</v>
@@ -8488,16 +8519,16 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="165"/>
-      <c r="B193" s="162"/>
-      <c r="C193" s="159"/>
+      <c r="B193" s="180"/>
+      <c r="C193" s="178"/>
       <c r="D193" s="133">
         <v>192</v>
       </c>
       <c r="E193" s="157" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F193" s="156" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G193" s="128" t="s">
         <v>530</v>
@@ -8505,91 +8536,146 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="165"/>
-      <c r="B194" s="162"/>
-      <c r="C194" s="159"/>
+      <c r="B194" s="180"/>
+      <c r="C194" s="178"/>
       <c r="D194" s="133">
         <v>193</v>
       </c>
       <c r="E194" s="157" t="s">
-        <v>539</v>
-      </c>
-      <c r="F194" s="157" t="s">
-        <v>540</v>
+        <v>537</v>
+      </c>
+      <c r="F194" s="156" t="s">
+        <v>538</v>
       </c>
       <c r="G194" s="128" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="165"/>
-      <c r="B195" s="162"/>
-      <c r="C195" s="159"/>
+      <c r="B195" s="180"/>
+      <c r="C195" s="178"/>
       <c r="D195" s="133">
         <v>194</v>
       </c>
       <c r="E195" s="157" t="s">
-        <v>542</v>
-      </c>
-      <c r="F195" s="156" t="s">
-        <v>543</v>
+        <v>539</v>
+      </c>
+      <c r="F195" s="157" t="s">
+        <v>540</v>
       </c>
       <c r="G195" s="128" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="165"/>
-      <c r="B196" s="162"/>
-      <c r="C196" s="159"/>
+      <c r="B196" s="180"/>
+      <c r="C196" s="178"/>
       <c r="D196" s="133">
         <v>195</v>
       </c>
       <c r="E196" s="157" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F196" s="156" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G196" s="128" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="165"/>
-      <c r="B197" s="162"/>
-      <c r="C197" s="159"/>
+      <c r="B197" s="180"/>
+      <c r="C197" s="178"/>
       <c r="D197" s="133">
         <v>196</v>
       </c>
       <c r="E197" s="157" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F197" s="156" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G197" s="128" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="166"/>
-      <c r="B198" s="163"/>
-      <c r="C198" s="160"/>
+      <c r="A198" s="165"/>
+      <c r="B198" s="180"/>
+      <c r="C198" s="178"/>
       <c r="D198" s="133">
         <v>197</v>
       </c>
       <c r="E198" s="157" t="s">
+        <v>548</v>
+      </c>
+      <c r="F198" s="156" t="s">
+        <v>549</v>
+      </c>
+      <c r="G198" s="128" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="170"/>
+      <c r="B199" s="181"/>
+      <c r="C199" s="179"/>
+      <c r="D199" s="133">
+        <v>198</v>
+      </c>
+      <c r="E199" s="157" t="s">
         <v>550</v>
       </c>
-      <c r="F198" s="156" t="s">
+      <c r="F199" s="156" t="s">
         <v>551</v>
       </c>
-      <c r="G198" s="128" t="s">
+      <c r="G199" s="128" t="s">
         <v>552</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="C185:C199"/>
+    <mergeCell ref="B185:B199"/>
+    <mergeCell ref="A185:A199"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="A175:A181"/>
+    <mergeCell ref="B175:B181"/>
+    <mergeCell ref="C175:C181"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A168:A174"/>
+    <mergeCell ref="B168:B174"/>
+    <mergeCell ref="C168:C174"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="B72:B78"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="C81:C84"/>
     <mergeCell ref="B81:B84"/>
@@ -8606,46 +8692,8 @@
     <mergeCell ref="A56:A62"/>
     <mergeCell ref="A72:A78"/>
     <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="B72:B78"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="C185:C198"/>
-    <mergeCell ref="B185:B198"/>
-    <mergeCell ref="A185:A198"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="A175:A181"/>
-    <mergeCell ref="B175:B181"/>
-    <mergeCell ref="C175:C181"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A168:A174"/>
-    <mergeCell ref="B168:B174"/>
-    <mergeCell ref="C168:C174"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="B153:B155"/>
   </mergeCells>
-  <phoneticPr fontId="39" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -8999,7 +9047,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="39" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9457,7 +9505,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="39" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -9578,7 +9626,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="39" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10091,7 +10139,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="55" type="noConversion"/>
+  <phoneticPr fontId="56" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10101,7 +10149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
@@ -11894,27 +11942,27 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="182" t="s">
+      <c r="A90" s="159" t="s">
         <v>554</v>
       </c>
-      <c r="B90" s="182">
+      <c r="B90" s="159">
         <v>9</v>
       </c>
-      <c r="C90" s="182">
-        <v>0</v>
-      </c>
-      <c r="D90" s="183">
-        <v>0</v>
-      </c>
-      <c r="E90" s="183">
+      <c r="C90" s="159">
+        <v>0</v>
+      </c>
+      <c r="D90" s="160">
+        <v>0</v>
+      </c>
+      <c r="E90" s="160">
         <v>3</v>
       </c>
-      <c r="F90" s="183">
+      <c r="F90" s="160">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="39" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -13450,7 +13498,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="61" type="noConversion"/>
+  <phoneticPr fontId="62" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/config/project/Integrate_120KW_megmeet/IntegrateConfig.xlsx
+++ b/config/project/Integrate_120KW_megmeet/IntegrateConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\Integrate_120KW_megmeet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{397C83C2-0646-4AFE-84D8-3DF6C0FB50A0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C2B89960-F903-4D53-9AE0-2E0033C4A580}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="557">
   <si>
     <t>组序号</t>
   </si>
@@ -2653,10 +2653,6 @@
   </si>
   <si>
     <t>0x0100</t>
-    <phoneticPr fontId="64" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
     <phoneticPr fontId="64" type="noConversion"/>
   </si>
   <si>
@@ -4255,79 +4251,79 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4690,7 +4686,7 @@
   <dimension ref="A1:G199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A181" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E192" sqref="E192"/>
+      <selection activeCell="G187" sqref="G187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5028,11 +5024,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="163"/>
-      <c r="B15" s="163" t="s">
+      <c r="A15" s="180"/>
+      <c r="B15" s="180" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="163" t="s">
+      <c r="C15" s="180" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
@@ -5049,9 +5045,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="161"/>
-      <c r="B16" s="161"/>
-      <c r="C16" s="161"/>
+      <c r="A16" s="172"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="172"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
@@ -5066,9 +5062,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="161"/>
-      <c r="B17" s="161"/>
-      <c r="C17" s="161"/>
+      <c r="A17" s="172"/>
+      <c r="B17" s="172"/>
+      <c r="C17" s="172"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
@@ -5083,9 +5079,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="161"/>
-      <c r="B18" s="161"/>
-      <c r="C18" s="161"/>
+      <c r="A18" s="172"/>
+      <c r="B18" s="172"/>
+      <c r="C18" s="172"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
@@ -5100,9 +5096,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="161"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="161"/>
+      <c r="A19" s="172"/>
+      <c r="B19" s="172"/>
+      <c r="C19" s="172"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
@@ -5163,11 +5159,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="169"/>
-      <c r="B22" s="169" t="s">
+      <c r="A22" s="173"/>
+      <c r="B22" s="173" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="169" t="s">
+      <c r="C22" s="173" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="20">
@@ -5184,9 +5180,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="165"/>
-      <c r="B23" s="165"/>
-      <c r="C23" s="165"/>
+      <c r="A23" s="169"/>
+      <c r="B23" s="169"/>
+      <c r="C23" s="169"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
@@ -5201,9 +5197,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="165"/>
-      <c r="B24" s="165"/>
-      <c r="C24" s="165"/>
+      <c r="A24" s="169"/>
+      <c r="B24" s="169"/>
+      <c r="C24" s="169"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
@@ -5218,9 +5214,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="165"/>
-      <c r="B25" s="165"/>
-      <c r="C25" s="165"/>
+      <c r="A25" s="169"/>
+      <c r="B25" s="169"/>
+      <c r="C25" s="169"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
@@ -5294,11 +5290,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="171"/>
-      <c r="B29" s="174" t="s">
+      <c r="A29" s="184"/>
+      <c r="B29" s="181" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="174" t="s">
+      <c r="C29" s="181" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -5315,9 +5311,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="172"/>
-      <c r="B30" s="172"/>
-      <c r="C30" s="172"/>
+      <c r="A30" s="182"/>
+      <c r="B30" s="182"/>
+      <c r="C30" s="182"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
@@ -5332,9 +5328,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="172"/>
-      <c r="B31" s="172"/>
-      <c r="C31" s="172"/>
+      <c r="A31" s="182"/>
+      <c r="B31" s="182"/>
+      <c r="C31" s="182"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
@@ -5349,9 +5345,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="172"/>
-      <c r="B32" s="172"/>
-      <c r="C32" s="172"/>
+      <c r="A32" s="182"/>
+      <c r="B32" s="182"/>
+      <c r="C32" s="182"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
@@ -5366,9 +5362,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="173"/>
-      <c r="B33" s="173"/>
-      <c r="C33" s="173"/>
+      <c r="A33" s="183"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="183"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
@@ -5383,11 +5379,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="161"/>
-      <c r="B34" s="161" t="s">
+      <c r="A34" s="172"/>
+      <c r="B34" s="172" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="161" t="s">
+      <c r="C34" s="172" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
@@ -5404,9 +5400,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="161"/>
-      <c r="B35" s="161"/>
-      <c r="C35" s="161"/>
+      <c r="A35" s="172"/>
+      <c r="B35" s="172"/>
+      <c r="C35" s="172"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
@@ -5421,11 +5417,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="161"/>
-      <c r="B36" s="161" t="s">
+      <c r="A36" s="172"/>
+      <c r="B36" s="172" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="163" t="s">
+      <c r="C36" s="180" t="s">
         <v>147</v>
       </c>
       <c r="D36" s="20">
@@ -5442,9 +5438,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="161"/>
-      <c r="B37" s="161"/>
-      <c r="C37" s="161"/>
+      <c r="A37" s="172"/>
+      <c r="B37" s="172"/>
+      <c r="C37" s="172"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
@@ -5459,11 +5455,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="161"/>
-      <c r="B38" s="162" t="s">
+      <c r="A38" s="172"/>
+      <c r="B38" s="171" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="162" t="s">
+      <c r="C38" s="171" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
@@ -5480,9 +5476,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="161"/>
-      <c r="B39" s="161"/>
-      <c r="C39" s="161"/>
+      <c r="A39" s="172"/>
+      <c r="B39" s="172"/>
+      <c r="C39" s="172"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
@@ -5497,11 +5493,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="161"/>
-      <c r="B40" s="161" t="s">
+      <c r="A40" s="172"/>
+      <c r="B40" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="162" t="s">
+      <c r="C40" s="171" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -5518,9 +5514,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="161"/>
-      <c r="B41" s="161"/>
-      <c r="C41" s="161"/>
+      <c r="A41" s="172"/>
+      <c r="B41" s="172"/>
+      <c r="C41" s="172"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
@@ -5535,9 +5531,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="161"/>
-      <c r="B42" s="161"/>
-      <c r="C42" s="161"/>
+      <c r="A42" s="172"/>
+      <c r="B42" s="172"/>
+      <c r="C42" s="172"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
@@ -5552,9 +5548,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="161"/>
-      <c r="B43" s="161"/>
-      <c r="C43" s="161"/>
+      <c r="A43" s="172"/>
+      <c r="B43" s="172"/>
+      <c r="C43" s="172"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
@@ -5569,9 +5565,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="161"/>
-      <c r="B44" s="161"/>
-      <c r="C44" s="161"/>
+      <c r="A44" s="172"/>
+      <c r="B44" s="172"/>
+      <c r="C44" s="172"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
@@ -5586,11 +5582,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="161">
+      <c r="A45" s="172">
         <v>13</v>
       </c>
-      <c r="B45" s="161"/>
-      <c r="C45" s="161" t="s">
+      <c r="B45" s="172"/>
+      <c r="C45" s="172" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -5670,11 +5666,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="168"/>
-      <c r="B49" s="166" t="s">
+      <c r="A49" s="185"/>
+      <c r="B49" s="178" t="s">
         <v>196</v>
       </c>
-      <c r="C49" s="167" t="s">
+      <c r="C49" s="179" t="s">
         <v>284</v>
       </c>
       <c r="D49" s="20">
@@ -5691,9 +5687,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="161"/>
-      <c r="B50" s="161"/>
-      <c r="C50" s="161"/>
+      <c r="A50" s="172"/>
+      <c r="B50" s="172"/>
+      <c r="C50" s="172"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
@@ -5708,9 +5704,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="161"/>
-      <c r="B51" s="161"/>
-      <c r="C51" s="161"/>
+      <c r="A51" s="172"/>
+      <c r="B51" s="172"/>
+      <c r="C51" s="172"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
@@ -5809,11 +5805,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="169"/>
-      <c r="B56" s="164" t="s">
+      <c r="A56" s="173"/>
+      <c r="B56" s="165" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="169" t="s">
+      <c r="C56" s="173" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="20">
@@ -5830,9 +5826,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="165"/>
-      <c r="B57" s="165"/>
-      <c r="C57" s="165"/>
+      <c r="A57" s="169"/>
+      <c r="B57" s="169"/>
+      <c r="C57" s="169"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
@@ -5847,9 +5843,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="165"/>
-      <c r="B58" s="165"/>
-      <c r="C58" s="165"/>
+      <c r="A58" s="169"/>
+      <c r="B58" s="169"/>
+      <c r="C58" s="169"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
@@ -5864,9 +5860,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="165"/>
-      <c r="B59" s="165"/>
-      <c r="C59" s="165"/>
+      <c r="A59" s="169"/>
+      <c r="B59" s="169"/>
+      <c r="C59" s="169"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
@@ -5881,9 +5877,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="165"/>
-      <c r="B60" s="165"/>
-      <c r="C60" s="165"/>
+      <c r="A60" s="169"/>
+      <c r="B60" s="169"/>
+      <c r="C60" s="169"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
@@ -5898,9 +5894,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="165"/>
-      <c r="B61" s="165"/>
-      <c r="C61" s="165"/>
+      <c r="A61" s="169"/>
+      <c r="B61" s="169"/>
+      <c r="C61" s="169"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
@@ -5915,9 +5911,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="165"/>
-      <c r="B62" s="165"/>
-      <c r="C62" s="165"/>
+      <c r="A62" s="169"/>
+      <c r="B62" s="169"/>
+      <c r="C62" s="169"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
@@ -5974,11 +5970,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="168"/>
-      <c r="B65" s="166" t="s">
+      <c r="A65" s="185"/>
+      <c r="B65" s="178" t="s">
         <v>197</v>
       </c>
-      <c r="C65" s="167" t="s">
+      <c r="C65" s="179" t="s">
         <v>284</v>
       </c>
       <c r="D65" s="20">
@@ -5995,9 +5991,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="161"/>
-      <c r="B66" s="161"/>
-      <c r="C66" s="161"/>
+      <c r="A66" s="172"/>
+      <c r="B66" s="172"/>
+      <c r="C66" s="172"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
@@ -6012,9 +6008,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="161"/>
-      <c r="B67" s="161"/>
-      <c r="C67" s="161"/>
+      <c r="A67" s="172"/>
+      <c r="B67" s="172"/>
+      <c r="C67" s="172"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
@@ -6113,11 +6109,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="169"/>
-      <c r="B72" s="164" t="s">
+      <c r="A72" s="173"/>
+      <c r="B72" s="165" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="169" t="s">
+      <c r="C72" s="173" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="20">
@@ -6134,9 +6130,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="165"/>
-      <c r="B73" s="165"/>
-      <c r="C73" s="165"/>
+      <c r="A73" s="169"/>
+      <c r="B73" s="169"/>
+      <c r="C73" s="169"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
@@ -6151,9 +6147,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="165"/>
-      <c r="B74" s="165"/>
-      <c r="C74" s="165"/>
+      <c r="A74" s="169"/>
+      <c r="B74" s="169"/>
+      <c r="C74" s="169"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
@@ -6168,9 +6164,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="165"/>
-      <c r="B75" s="165"/>
-      <c r="C75" s="165"/>
+      <c r="A75" s="169"/>
+      <c r="B75" s="169"/>
+      <c r="C75" s="169"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
@@ -6185,9 +6181,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="165"/>
-      <c r="B76" s="165"/>
-      <c r="C76" s="165"/>
+      <c r="A76" s="169"/>
+      <c r="B76" s="169"/>
+      <c r="C76" s="169"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
@@ -6202,9 +6198,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="165"/>
-      <c r="B77" s="165"/>
-      <c r="C77" s="165"/>
+      <c r="A77" s="169"/>
+      <c r="B77" s="169"/>
+      <c r="C77" s="169"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
@@ -6219,9 +6215,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="165"/>
-      <c r="B78" s="165"/>
-      <c r="C78" s="165"/>
+      <c r="A78" s="169"/>
+      <c r="B78" s="169"/>
+      <c r="C78" s="169"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
@@ -6278,11 +6274,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="163"/>
-      <c r="B81" s="163" t="s">
+      <c r="A81" s="180"/>
+      <c r="B81" s="180" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="162" t="s">
+      <c r="C81" s="171" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -6299,9 +6295,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="161"/>
-      <c r="B82" s="161"/>
-      <c r="C82" s="161"/>
+      <c r="A82" s="172"/>
+      <c r="B82" s="172"/>
+      <c r="C82" s="172"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
@@ -6316,9 +6312,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="161"/>
-      <c r="B83" s="161"/>
-      <c r="C83" s="161"/>
+      <c r="A83" s="172"/>
+      <c r="B83" s="172"/>
+      <c r="C83" s="172"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
@@ -6333,9 +6329,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="161"/>
-      <c r="B84" s="161"/>
-      <c r="C84" s="161"/>
+      <c r="A84" s="172"/>
+      <c r="B84" s="172"/>
+      <c r="C84" s="172"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
@@ -6644,11 +6640,11 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="176"/>
-      <c r="B99" s="176" t="s">
+      <c r="A99" s="174"/>
+      <c r="B99" s="174" t="s">
         <v>294</v>
       </c>
-      <c r="C99" s="176" t="s">
+      <c r="C99" s="174" t="s">
         <v>76</v>
       </c>
       <c r="D99" s="81">
@@ -6665,9 +6661,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="176"/>
-      <c r="B100" s="176"/>
-      <c r="C100" s="176"/>
+      <c r="A100" s="174"/>
+      <c r="B100" s="174"/>
+      <c r="C100" s="174"/>
       <c r="D100" s="81">
         <v>99</v>
       </c>
@@ -6682,9 +6678,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="176"/>
-      <c r="B101" s="176"/>
-      <c r="C101" s="176"/>
+      <c r="A101" s="174"/>
+      <c r="B101" s="174"/>
+      <c r="C101" s="174"/>
       <c r="D101" s="81">
         <v>100</v>
       </c>
@@ -6720,11 +6716,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="176"/>
-      <c r="B103" s="176" t="s">
+      <c r="A103" s="174"/>
+      <c r="B103" s="174" t="s">
         <v>296</v>
       </c>
-      <c r="C103" s="176" t="s">
+      <c r="C103" s="174" t="s">
         <v>58</v>
       </c>
       <c r="D103" s="76">
@@ -6741,9 +6737,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="183"/>
-      <c r="B104" s="183"/>
-      <c r="C104" s="183"/>
+      <c r="A104" s="175"/>
+      <c r="B104" s="175"/>
+      <c r="C104" s="175"/>
       <c r="D104" s="76">
         <v>103</v>
       </c>
@@ -6758,9 +6754,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="183"/>
-      <c r="B105" s="183"/>
-      <c r="C105" s="183"/>
+      <c r="A105" s="175"/>
+      <c r="B105" s="175"/>
+      <c r="C105" s="175"/>
       <c r="D105" s="76">
         <v>104</v>
       </c>
@@ -7762,11 +7758,11 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="175"/>
-      <c r="B153" s="184" t="s">
+      <c r="A153" s="177"/>
+      <c r="B153" s="176" t="s">
         <v>456</v>
       </c>
-      <c r="C153" s="161" t="s">
+      <c r="C153" s="172" t="s">
         <v>455</v>
       </c>
       <c r="D153" s="123">
@@ -7783,9 +7779,9 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="175"/>
-      <c r="B154" s="175"/>
-      <c r="C154" s="161"/>
+      <c r="A154" s="177"/>
+      <c r="B154" s="177"/>
+      <c r="C154" s="172"/>
       <c r="D154" s="123">
         <v>153</v>
       </c>
@@ -7800,9 +7796,9 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="175"/>
-      <c r="B155" s="175"/>
-      <c r="C155" s="161"/>
+      <c r="A155" s="177"/>
+      <c r="B155" s="177"/>
+      <c r="C155" s="172"/>
       <c r="D155" s="123">
         <v>154</v>
       </c>
@@ -8069,11 +8065,11 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="164"/>
-      <c r="B168" s="164" t="s">
+      <c r="A168" s="165"/>
+      <c r="B168" s="165" t="s">
         <v>491</v>
       </c>
-      <c r="C168" s="164" t="s">
+      <c r="C168" s="165" t="s">
         <v>455</v>
       </c>
       <c r="D168" s="133">
@@ -8090,9 +8086,9 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="165"/>
-      <c r="B169" s="180"/>
-      <c r="C169" s="180"/>
+      <c r="A169" s="169"/>
+      <c r="B169" s="166"/>
+      <c r="C169" s="166"/>
       <c r="D169" s="133">
         <v>168</v>
       </c>
@@ -8107,9 +8103,9 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="165"/>
-      <c r="B170" s="180"/>
-      <c r="C170" s="180"/>
+      <c r="A170" s="169"/>
+      <c r="B170" s="166"/>
+      <c r="C170" s="166"/>
       <c r="D170" s="133">
         <v>169</v>
       </c>
@@ -8124,9 +8120,9 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="165"/>
-      <c r="B171" s="180"/>
-      <c r="C171" s="180"/>
+      <c r="A171" s="169"/>
+      <c r="B171" s="166"/>
+      <c r="C171" s="166"/>
       <c r="D171" s="133">
         <v>170</v>
       </c>
@@ -8141,9 +8137,9 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="165"/>
-      <c r="B172" s="180"/>
-      <c r="C172" s="180"/>
+      <c r="A172" s="169"/>
+      <c r="B172" s="166"/>
+      <c r="C172" s="166"/>
       <c r="D172" s="133">
         <v>171</v>
       </c>
@@ -8158,9 +8154,9 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="165"/>
-      <c r="B173" s="180"/>
-      <c r="C173" s="180"/>
+      <c r="A173" s="169"/>
+      <c r="B173" s="166"/>
+      <c r="C173" s="166"/>
       <c r="D173" s="133">
         <v>172</v>
       </c>
@@ -8176,8 +8172,8 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="170"/>
-      <c r="B174" s="181"/>
-      <c r="C174" s="181"/>
+      <c r="B174" s="167"/>
+      <c r="C174" s="167"/>
       <c r="D174" s="133">
         <v>173</v>
       </c>
@@ -8192,11 +8188,11 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="164"/>
-      <c r="B175" s="164" t="s">
+      <c r="A175" s="165"/>
+      <c r="B175" s="165" t="s">
         <v>497</v>
       </c>
-      <c r="C175" s="164" t="s">
+      <c r="C175" s="165" t="s">
         <v>455</v>
       </c>
       <c r="D175" s="133">
@@ -8213,9 +8209,9 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="165"/>
-      <c r="B176" s="180"/>
-      <c r="C176" s="180"/>
+      <c r="A176" s="169"/>
+      <c r="B176" s="166"/>
+      <c r="C176" s="166"/>
       <c r="D176" s="133">
         <v>175</v>
       </c>
@@ -8230,9 +8226,9 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="165"/>
-      <c r="B177" s="180"/>
-      <c r="C177" s="180"/>
+      <c r="A177" s="169"/>
+      <c r="B177" s="166"/>
+      <c r="C177" s="166"/>
       <c r="D177" s="133">
         <v>176</v>
       </c>
@@ -8247,9 +8243,9 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="165"/>
-      <c r="B178" s="180"/>
-      <c r="C178" s="180"/>
+      <c r="A178" s="169"/>
+      <c r="B178" s="166"/>
+      <c r="C178" s="166"/>
       <c r="D178" s="133">
         <v>177</v>
       </c>
@@ -8264,9 +8260,9 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="165"/>
-      <c r="B179" s="180"/>
-      <c r="C179" s="180"/>
+      <c r="A179" s="169"/>
+      <c r="B179" s="166"/>
+      <c r="C179" s="166"/>
       <c r="D179" s="133">
         <v>178</v>
       </c>
@@ -8281,9 +8277,9 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="165"/>
-      <c r="B180" s="180"/>
-      <c r="C180" s="180"/>
+      <c r="A180" s="169"/>
+      <c r="B180" s="166"/>
+      <c r="C180" s="166"/>
       <c r="D180" s="133">
         <v>179</v>
       </c>
@@ -8299,8 +8295,8 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="170"/>
-      <c r="B181" s="181"/>
-      <c r="C181" s="181"/>
+      <c r="B181" s="167"/>
+      <c r="C181" s="167"/>
       <c r="D181" s="133">
         <v>180</v>
       </c>
@@ -8359,7 +8355,7 @@
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="143"/>
       <c r="B184" s="152" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C184" s="152" t="s">
         <v>514</v>
@@ -8378,30 +8374,30 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="182"/>
-      <c r="B185" s="164" t="s">
-        <v>553</v>
-      </c>
-      <c r="C185" s="177" t="s">
+      <c r="A185" s="168"/>
+      <c r="B185" s="165" t="s">
+        <v>552</v>
+      </c>
+      <c r="C185" s="162" t="s">
         <v>516</v>
       </c>
       <c r="D185" s="133">
         <v>184</v>
       </c>
       <c r="E185" s="158" t="s">
+        <v>554</v>
+      </c>
+      <c r="F185" s="161" t="s">
         <v>555</v>
       </c>
-      <c r="F185" s="185" t="s">
+      <c r="G185" s="128" t="s">
         <v>556</v>
       </c>
-      <c r="G185" s="128" t="s">
-        <v>557</v>
-      </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="165"/>
-      <c r="B186" s="180"/>
-      <c r="C186" s="178"/>
+      <c r="A186" s="169"/>
+      <c r="B186" s="166"/>
+      <c r="C186" s="163"/>
       <c r="D186" s="133">
         <v>185</v>
       </c>
@@ -8416,9 +8412,9 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="165"/>
-      <c r="B187" s="180"/>
-      <c r="C187" s="178"/>
+      <c r="A187" s="169"/>
+      <c r="B187" s="166"/>
+      <c r="C187" s="163"/>
       <c r="D187" s="133">
         <v>186</v>
       </c>
@@ -8429,215 +8425,253 @@
         <v>520</v>
       </c>
       <c r="G187" s="128" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="165"/>
-      <c r="B188" s="180"/>
-      <c r="C188" s="178"/>
+      <c r="A188" s="169"/>
+      <c r="B188" s="166"/>
+      <c r="C188" s="163"/>
       <c r="D188" s="133">
         <v>187</v>
       </c>
       <c r="E188" s="156" t="s">
+        <v>521</v>
+      </c>
+      <c r="F188" s="156" t="s">
         <v>522</v>
       </c>
-      <c r="F188" s="156" t="s">
+      <c r="G188" s="128" t="s">
         <v>523</v>
       </c>
-      <c r="G188" s="128" t="s">
-        <v>524</v>
-      </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="165"/>
-      <c r="B189" s="180"/>
-      <c r="C189" s="178"/>
+      <c r="A189" s="169"/>
+      <c r="B189" s="166"/>
+      <c r="C189" s="163"/>
       <c r="D189" s="133">
         <v>188</v>
       </c>
       <c r="E189" s="156" t="s">
+        <v>524</v>
+      </c>
+      <c r="F189" s="156" t="s">
         <v>525</v>
       </c>
-      <c r="F189" s="156" t="s">
+      <c r="G189" s="128" t="s">
         <v>526</v>
       </c>
-      <c r="G189" s="128" t="s">
-        <v>527</v>
-      </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="165"/>
-      <c r="B190" s="180"/>
-      <c r="C190" s="178"/>
+      <c r="A190" s="169"/>
+      <c r="B190" s="166"/>
+      <c r="C190" s="163"/>
       <c r="D190" s="133">
         <v>189</v>
       </c>
       <c r="E190" s="156" t="s">
+        <v>527</v>
+      </c>
+      <c r="F190" s="156" t="s">
         <v>528</v>
       </c>
-      <c r="F190" s="156" t="s">
+      <c r="G190" s="128" t="s">
         <v>529</v>
       </c>
-      <c r="G190" s="128" t="s">
-        <v>530</v>
-      </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="165"/>
-      <c r="B191" s="180"/>
-      <c r="C191" s="178"/>
+      <c r="A191" s="169"/>
+      <c r="B191" s="166"/>
+      <c r="C191" s="163"/>
       <c r="D191" s="133">
         <v>190</v>
       </c>
       <c r="E191" s="156" t="s">
+        <v>530</v>
+      </c>
+      <c r="F191" s="156" t="s">
         <v>531</v>
       </c>
-      <c r="F191" s="156" t="s">
-        <v>532</v>
-      </c>
       <c r="G191" s="128" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="165"/>
-      <c r="B192" s="180"/>
-      <c r="C192" s="178"/>
+      <c r="A192" s="169"/>
+      <c r="B192" s="166"/>
+      <c r="C192" s="163"/>
       <c r="D192" s="133">
         <v>191</v>
       </c>
       <c r="E192" s="157" t="s">
+        <v>532</v>
+      </c>
+      <c r="F192" s="156" t="s">
         <v>533</v>
       </c>
-      <c r="F192" s="156" t="s">
-        <v>534</v>
-      </c>
       <c r="G192" s="128" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="165"/>
-      <c r="B193" s="180"/>
-      <c r="C193" s="178"/>
+      <c r="A193" s="169"/>
+      <c r="B193" s="166"/>
+      <c r="C193" s="163"/>
       <c r="D193" s="133">
         <v>192</v>
       </c>
       <c r="E193" s="157" t="s">
+        <v>534</v>
+      </c>
+      <c r="F193" s="156" t="s">
         <v>535</v>
       </c>
-      <c r="F193" s="156" t="s">
-        <v>536</v>
-      </c>
       <c r="G193" s="128" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="165"/>
-      <c r="B194" s="180"/>
-      <c r="C194" s="178"/>
+      <c r="A194" s="169"/>
+      <c r="B194" s="166"/>
+      <c r="C194" s="163"/>
       <c r="D194" s="133">
         <v>193</v>
       </c>
       <c r="E194" s="157" t="s">
+        <v>536</v>
+      </c>
+      <c r="F194" s="156" t="s">
         <v>537</v>
       </c>
-      <c r="F194" s="156" t="s">
-        <v>538</v>
-      </c>
       <c r="G194" s="128" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="165"/>
-      <c r="B195" s="180"/>
-      <c r="C195" s="178"/>
+      <c r="A195" s="169"/>
+      <c r="B195" s="166"/>
+      <c r="C195" s="163"/>
       <c r="D195" s="133">
         <v>194</v>
       </c>
       <c r="E195" s="157" t="s">
+        <v>538</v>
+      </c>
+      <c r="F195" s="157" t="s">
         <v>539</v>
       </c>
-      <c r="F195" s="157" t="s">
+      <c r="G195" s="128" t="s">
         <v>540</v>
       </c>
-      <c r="G195" s="128" t="s">
-        <v>541</v>
-      </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="165"/>
-      <c r="B196" s="180"/>
-      <c r="C196" s="178"/>
+      <c r="A196" s="169"/>
+      <c r="B196" s="166"/>
+      <c r="C196" s="163"/>
       <c r="D196" s="133">
         <v>195</v>
       </c>
       <c r="E196" s="157" t="s">
+        <v>541</v>
+      </c>
+      <c r="F196" s="156" t="s">
         <v>542</v>
       </c>
-      <c r="F196" s="156" t="s">
+      <c r="G196" s="128" t="s">
         <v>543</v>
       </c>
-      <c r="G196" s="128" t="s">
-        <v>544</v>
-      </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="165"/>
-      <c r="B197" s="180"/>
-      <c r="C197" s="178"/>
+      <c r="A197" s="169"/>
+      <c r="B197" s="166"/>
+      <c r="C197" s="163"/>
       <c r="D197" s="133">
         <v>196</v>
       </c>
       <c r="E197" s="157" t="s">
+        <v>544</v>
+      </c>
+      <c r="F197" s="156" t="s">
         <v>545</v>
       </c>
-      <c r="F197" s="156" t="s">
+      <c r="G197" s="128" t="s">
         <v>546</v>
       </c>
-      <c r="G197" s="128" t="s">
-        <v>547</v>
-      </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="165"/>
-      <c r="B198" s="180"/>
-      <c r="C198" s="178"/>
+      <c r="A198" s="169"/>
+      <c r="B198" s="166"/>
+      <c r="C198" s="163"/>
       <c r="D198" s="133">
         <v>197</v>
       </c>
       <c r="E198" s="157" t="s">
+        <v>547</v>
+      </c>
+      <c r="F198" s="156" t="s">
         <v>548</v>
       </c>
-      <c r="F198" s="156" t="s">
-        <v>549</v>
-      </c>
       <c r="G198" s="128" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="170"/>
-      <c r="B199" s="181"/>
-      <c r="C199" s="179"/>
+      <c r="B199" s="167"/>
+      <c r="C199" s="164"/>
       <c r="D199" s="133">
         <v>198</v>
       </c>
       <c r="E199" s="157" t="s">
+        <v>549</v>
+      </c>
+      <c r="F199" s="156" t="s">
         <v>550</v>
       </c>
-      <c r="F199" s="156" t="s">
+      <c r="G199" s="128" t="s">
         <v>551</v>
-      </c>
-      <c r="G199" s="128" t="s">
-        <v>552</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="B72:B78"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A81:A84"/>
     <mergeCell ref="C185:C199"/>
     <mergeCell ref="B185:B199"/>
     <mergeCell ref="A185:A199"/>
@@ -8654,44 +8688,6 @@
     <mergeCell ref="C168:C174"/>
     <mergeCell ref="C153:C155"/>
     <mergeCell ref="B153:B155"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="B72:B78"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="A65:A67"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11943,7 +11939,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="159" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B90" s="159">
         <v>9</v>

--- a/config/project/Integrate_120KW_megmeet/IntegrateConfig.xlsx
+++ b/config/project/Integrate_120KW_megmeet/IntegrateConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\Integrate_120KW_megmeet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C2B89960-F903-4D53-9AE0-2E0033C4A580}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A21A0885-17B4-4D5C-B306-C7BBCC34E9CC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="564">
   <si>
     <t>组序号</t>
   </si>
@@ -2857,6 +2857,30 @@
   <si>
     <t>NA</t>
     <phoneticPr fontId="64" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块1二维码</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块2二维码</t>
+  </si>
+  <si>
+    <t>模块3二维码</t>
+  </si>
+  <si>
+    <t>模块4二维码</t>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeinput</t>
+  </si>
+  <si>
+    <t>模块二维码录入</t>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3815,7 +3839,7 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4254,6 +4278,57 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4263,9 +4338,6 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4275,55 +4347,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4683,10 +4710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G199"/>
+  <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="85" workbookViewId="0">
-      <selection activeCell="G187" sqref="G187"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E207" sqref="E207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5024,11 +5051,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="180"/>
-      <c r="B15" s="180" t="s">
+      <c r="A15" s="165"/>
+      <c r="B15" s="165" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="180" t="s">
+      <c r="C15" s="165" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
@@ -5045,9 +5072,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="172"/>
-      <c r="B16" s="172"/>
-      <c r="C16" s="172"/>
+      <c r="A16" s="163"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="163"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
@@ -5062,9 +5089,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="172"/>
-      <c r="B17" s="172"/>
-      <c r="C17" s="172"/>
+      <c r="A17" s="163"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="163"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
@@ -5079,9 +5106,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="172"/>
-      <c r="B18" s="172"/>
-      <c r="C18" s="172"/>
+      <c r="A18" s="163"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="163"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
@@ -5096,9 +5123,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="172"/>
-      <c r="B19" s="172"/>
-      <c r="C19" s="172"/>
+      <c r="A19" s="163"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="163"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
@@ -5159,11 +5186,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="173"/>
-      <c r="B22" s="173" t="s">
+      <c r="A22" s="171"/>
+      <c r="B22" s="171" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="173" t="s">
+      <c r="C22" s="171" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="20">
@@ -5180,9 +5207,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="169"/>
-      <c r="B23" s="169"/>
-      <c r="C23" s="169"/>
+      <c r="A23" s="167"/>
+      <c r="B23" s="167"/>
+      <c r="C23" s="167"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
@@ -5197,9 +5224,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="169"/>
-      <c r="B24" s="169"/>
-      <c r="C24" s="169"/>
+      <c r="A24" s="167"/>
+      <c r="B24" s="167"/>
+      <c r="C24" s="167"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
@@ -5214,9 +5241,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="169"/>
-      <c r="B25" s="169"/>
-      <c r="C25" s="169"/>
+      <c r="A25" s="167"/>
+      <c r="B25" s="167"/>
+      <c r="C25" s="167"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
@@ -5231,9 +5258,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="170"/>
-      <c r="B26" s="170"/>
-      <c r="C26" s="170"/>
+      <c r="A26" s="172"/>
+      <c r="B26" s="172"/>
+      <c r="C26" s="172"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
@@ -5290,11 +5317,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="184"/>
-      <c r="B29" s="181" t="s">
+      <c r="A29" s="173"/>
+      <c r="B29" s="176" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="181" t="s">
+      <c r="C29" s="176" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -5311,9 +5338,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="182"/>
-      <c r="B30" s="182"/>
-      <c r="C30" s="182"/>
+      <c r="A30" s="174"/>
+      <c r="B30" s="174"/>
+      <c r="C30" s="174"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
@@ -5328,9 +5355,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="182"/>
-      <c r="B31" s="182"/>
-      <c r="C31" s="182"/>
+      <c r="A31" s="174"/>
+      <c r="B31" s="174"/>
+      <c r="C31" s="174"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
@@ -5345,9 +5372,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="182"/>
-      <c r="B32" s="182"/>
-      <c r="C32" s="182"/>
+      <c r="A32" s="174"/>
+      <c r="B32" s="174"/>
+      <c r="C32" s="174"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
@@ -5362,9 +5389,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="183"/>
-      <c r="B33" s="183"/>
-      <c r="C33" s="183"/>
+      <c r="A33" s="175"/>
+      <c r="B33" s="175"/>
+      <c r="C33" s="175"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
@@ -5379,11 +5406,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="172"/>
-      <c r="B34" s="172" t="s">
+      <c r="A34" s="163"/>
+      <c r="B34" s="163" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="172" t="s">
+      <c r="C34" s="163" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
@@ -5400,9 +5427,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="172"/>
-      <c r="B35" s="172"/>
-      <c r="C35" s="172"/>
+      <c r="A35" s="163"/>
+      <c r="B35" s="163"/>
+      <c r="C35" s="163"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
@@ -5417,11 +5444,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="172"/>
-      <c r="B36" s="172" t="s">
+      <c r="A36" s="163"/>
+      <c r="B36" s="163" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="180" t="s">
+      <c r="C36" s="165" t="s">
         <v>147</v>
       </c>
       <c r="D36" s="20">
@@ -5438,9 +5465,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="172"/>
-      <c r="B37" s="172"/>
-      <c r="C37" s="172"/>
+      <c r="A37" s="163"/>
+      <c r="B37" s="163"/>
+      <c r="C37" s="163"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
@@ -5455,11 +5482,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="172"/>
-      <c r="B38" s="171" t="s">
+      <c r="A38" s="163"/>
+      <c r="B38" s="164" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="171" t="s">
+      <c r="C38" s="164" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
@@ -5476,9 +5503,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="172"/>
-      <c r="B39" s="172"/>
-      <c r="C39" s="172"/>
+      <c r="A39" s="163"/>
+      <c r="B39" s="163"/>
+      <c r="C39" s="163"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
@@ -5493,11 +5520,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="172"/>
-      <c r="B40" s="172" t="s">
+      <c r="A40" s="163"/>
+      <c r="B40" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="171" t="s">
+      <c r="C40" s="164" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -5514,9 +5541,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="172"/>
-      <c r="B41" s="172"/>
-      <c r="C41" s="172"/>
+      <c r="A41" s="163"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="163"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
@@ -5531,9 +5558,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="172"/>
-      <c r="B42" s="172"/>
-      <c r="C42" s="172"/>
+      <c r="A42" s="163"/>
+      <c r="B42" s="163"/>
+      <c r="C42" s="163"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
@@ -5548,9 +5575,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="172"/>
-      <c r="B43" s="172"/>
-      <c r="C43" s="172"/>
+      <c r="A43" s="163"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="163"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
@@ -5565,9 +5592,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="172"/>
-      <c r="B44" s="172"/>
-      <c r="C44" s="172"/>
+      <c r="A44" s="163"/>
+      <c r="B44" s="163"/>
+      <c r="C44" s="163"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
@@ -5582,11 +5609,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="172">
+      <c r="A45" s="163">
         <v>13</v>
       </c>
-      <c r="B45" s="172"/>
-      <c r="C45" s="172" t="s">
+      <c r="B45" s="163"/>
+      <c r="C45" s="163" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -5666,11 +5693,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="185"/>
-      <c r="B49" s="178" t="s">
+      <c r="A49" s="170"/>
+      <c r="B49" s="168" t="s">
         <v>196</v>
       </c>
-      <c r="C49" s="179" t="s">
+      <c r="C49" s="169" t="s">
         <v>284</v>
       </c>
       <c r="D49" s="20">
@@ -5687,9 +5714,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="172"/>
-      <c r="B50" s="172"/>
-      <c r="C50" s="172"/>
+      <c r="A50" s="163"/>
+      <c r="B50" s="163"/>
+      <c r="C50" s="163"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
@@ -5704,9 +5731,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="172"/>
-      <c r="B51" s="172"/>
-      <c r="C51" s="172"/>
+      <c r="A51" s="163"/>
+      <c r="B51" s="163"/>
+      <c r="C51" s="163"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
@@ -5805,11 +5832,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="173"/>
-      <c r="B56" s="165" t="s">
+      <c r="A56" s="171"/>
+      <c r="B56" s="166" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="173" t="s">
+      <c r="C56" s="171" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="20">
@@ -5826,9 +5853,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="169"/>
-      <c r="B57" s="169"/>
-      <c r="C57" s="169"/>
+      <c r="A57" s="167"/>
+      <c r="B57" s="167"/>
+      <c r="C57" s="167"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
@@ -5843,9 +5870,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="169"/>
-      <c r="B58" s="169"/>
-      <c r="C58" s="169"/>
+      <c r="A58" s="167"/>
+      <c r="B58" s="167"/>
+      <c r="C58" s="167"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
@@ -5860,9 +5887,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="169"/>
-      <c r="B59" s="169"/>
-      <c r="C59" s="169"/>
+      <c r="A59" s="167"/>
+      <c r="B59" s="167"/>
+      <c r="C59" s="167"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
@@ -5877,9 +5904,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="169"/>
-      <c r="B60" s="169"/>
-      <c r="C60" s="169"/>
+      <c r="A60" s="167"/>
+      <c r="B60" s="167"/>
+      <c r="C60" s="167"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
@@ -5894,9 +5921,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="169"/>
-      <c r="B61" s="169"/>
-      <c r="C61" s="169"/>
+      <c r="A61" s="167"/>
+      <c r="B61" s="167"/>
+      <c r="C61" s="167"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
@@ -5911,9 +5938,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="169"/>
-      <c r="B62" s="169"/>
-      <c r="C62" s="169"/>
+      <c r="A62" s="167"/>
+      <c r="B62" s="167"/>
+      <c r="C62" s="167"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
@@ -5970,11 +5997,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="185"/>
-      <c r="B65" s="178" t="s">
+      <c r="A65" s="170"/>
+      <c r="B65" s="168" t="s">
         <v>197</v>
       </c>
-      <c r="C65" s="179" t="s">
+      <c r="C65" s="169" t="s">
         <v>284</v>
       </c>
       <c r="D65" s="20">
@@ -5991,9 +6018,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="172"/>
-      <c r="B66" s="172"/>
-      <c r="C66" s="172"/>
+      <c r="A66" s="163"/>
+      <c r="B66" s="163"/>
+      <c r="C66" s="163"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
@@ -6008,9 +6035,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="172"/>
-      <c r="B67" s="172"/>
-      <c r="C67" s="172"/>
+      <c r="A67" s="163"/>
+      <c r="B67" s="163"/>
+      <c r="C67" s="163"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
@@ -6109,11 +6136,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="173"/>
-      <c r="B72" s="165" t="s">
+      <c r="A72" s="171"/>
+      <c r="B72" s="166" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="173" t="s">
+      <c r="C72" s="171" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="20">
@@ -6130,9 +6157,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="169"/>
-      <c r="B73" s="169"/>
-      <c r="C73" s="169"/>
+      <c r="A73" s="167"/>
+      <c r="B73" s="167"/>
+      <c r="C73" s="167"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
@@ -6147,9 +6174,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="169"/>
-      <c r="B74" s="169"/>
-      <c r="C74" s="169"/>
+      <c r="A74" s="167"/>
+      <c r="B74" s="167"/>
+      <c r="C74" s="167"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
@@ -6164,9 +6191,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="169"/>
-      <c r="B75" s="169"/>
-      <c r="C75" s="169"/>
+      <c r="A75" s="167"/>
+      <c r="B75" s="167"/>
+      <c r="C75" s="167"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
@@ -6181,9 +6208,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="169"/>
-      <c r="B76" s="169"/>
-      <c r="C76" s="169"/>
+      <c r="A76" s="167"/>
+      <c r="B76" s="167"/>
+      <c r="C76" s="167"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
@@ -6198,9 +6225,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="169"/>
-      <c r="B77" s="169"/>
-      <c r="C77" s="169"/>
+      <c r="A77" s="167"/>
+      <c r="B77" s="167"/>
+      <c r="C77" s="167"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
@@ -6215,9 +6242,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="169"/>
-      <c r="B78" s="169"/>
-      <c r="C78" s="169"/>
+      <c r="A78" s="167"/>
+      <c r="B78" s="167"/>
+      <c r="C78" s="167"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
@@ -6274,11 +6301,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="180"/>
-      <c r="B81" s="180" t="s">
+      <c r="A81" s="165"/>
+      <c r="B81" s="165" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="171" t="s">
+      <c r="C81" s="164" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -6295,9 +6322,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="172"/>
-      <c r="B82" s="172"/>
-      <c r="C82" s="172"/>
+      <c r="A82" s="163"/>
+      <c r="B82" s="163"/>
+      <c r="C82" s="163"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
@@ -6312,9 +6339,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="172"/>
-      <c r="B83" s="172"/>
-      <c r="C83" s="172"/>
+      <c r="A83" s="163"/>
+      <c r="B83" s="163"/>
+      <c r="C83" s="163"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
@@ -6329,9 +6356,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="172"/>
-      <c r="B84" s="172"/>
-      <c r="C84" s="172"/>
+      <c r="A84" s="163"/>
+      <c r="B84" s="163"/>
+      <c r="C84" s="163"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
@@ -6640,11 +6667,11 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="174"/>
-      <c r="B99" s="174" t="s">
+      <c r="A99" s="178"/>
+      <c r="B99" s="178" t="s">
         <v>294</v>
       </c>
-      <c r="C99" s="174" t="s">
+      <c r="C99" s="178" t="s">
         <v>76</v>
       </c>
       <c r="D99" s="81">
@@ -6661,9 +6688,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="174"/>
-      <c r="B100" s="174"/>
-      <c r="C100" s="174"/>
+      <c r="A100" s="178"/>
+      <c r="B100" s="178"/>
+      <c r="C100" s="178"/>
       <c r="D100" s="81">
         <v>99</v>
       </c>
@@ -6678,9 +6705,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="174"/>
-      <c r="B101" s="174"/>
-      <c r="C101" s="174"/>
+      <c r="A101" s="178"/>
+      <c r="B101" s="178"/>
+      <c r="C101" s="178"/>
       <c r="D101" s="81">
         <v>100</v>
       </c>
@@ -6716,11 +6743,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="174"/>
-      <c r="B103" s="174" t="s">
+      <c r="A103" s="178"/>
+      <c r="B103" s="178" t="s">
         <v>296</v>
       </c>
-      <c r="C103" s="174" t="s">
+      <c r="C103" s="178" t="s">
         <v>58</v>
       </c>
       <c r="D103" s="76">
@@ -6737,9 +6764,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="175"/>
-      <c r="B104" s="175"/>
-      <c r="C104" s="175"/>
+      <c r="A104" s="185"/>
+      <c r="B104" s="185"/>
+      <c r="C104" s="185"/>
       <c r="D104" s="76">
         <v>103</v>
       </c>
@@ -6754,9 +6781,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="175"/>
-      <c r="B105" s="175"/>
-      <c r="C105" s="175"/>
+      <c r="A105" s="185"/>
+      <c r="B105" s="185"/>
+      <c r="C105" s="185"/>
       <c r="D105" s="76">
         <v>104</v>
       </c>
@@ -7759,10 +7786,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="177"/>
-      <c r="B153" s="176" t="s">
+      <c r="B153" s="186" t="s">
         <v>456</v>
       </c>
-      <c r="C153" s="172" t="s">
+      <c r="C153" s="163" t="s">
         <v>455</v>
       </c>
       <c r="D153" s="123">
@@ -7781,7 +7808,7 @@
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="177"/>
       <c r="B154" s="177"/>
-      <c r="C154" s="172"/>
+      <c r="C154" s="163"/>
       <c r="D154" s="123">
         <v>153</v>
       </c>
@@ -7798,7 +7825,7 @@
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="177"/>
       <c r="B155" s="177"/>
-      <c r="C155" s="172"/>
+      <c r="C155" s="163"/>
       <c r="D155" s="123">
         <v>154</v>
       </c>
@@ -8065,11 +8092,11 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="165"/>
-      <c r="B168" s="165" t="s">
+      <c r="A168" s="166"/>
+      <c r="B168" s="166" t="s">
         <v>491</v>
       </c>
-      <c r="C168" s="165" t="s">
+      <c r="C168" s="166" t="s">
         <v>455</v>
       </c>
       <c r="D168" s="133">
@@ -8086,9 +8113,9 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="169"/>
-      <c r="B169" s="166"/>
-      <c r="C169" s="166"/>
+      <c r="A169" s="167"/>
+      <c r="B169" s="182"/>
+      <c r="C169" s="182"/>
       <c r="D169" s="133">
         <v>168</v>
       </c>
@@ -8103,9 +8130,9 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="169"/>
-      <c r="B170" s="166"/>
-      <c r="C170" s="166"/>
+      <c r="A170" s="167"/>
+      <c r="B170" s="182"/>
+      <c r="C170" s="182"/>
       <c r="D170" s="133">
         <v>169</v>
       </c>
@@ -8120,9 +8147,9 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="169"/>
-      <c r="B171" s="166"/>
-      <c r="C171" s="166"/>
+      <c r="A171" s="167"/>
+      <c r="B171" s="182"/>
+      <c r="C171" s="182"/>
       <c r="D171" s="133">
         <v>170</v>
       </c>
@@ -8137,9 +8164,9 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="169"/>
-      <c r="B172" s="166"/>
-      <c r="C172" s="166"/>
+      <c r="A172" s="167"/>
+      <c r="B172" s="182"/>
+      <c r="C172" s="182"/>
       <c r="D172" s="133">
         <v>171</v>
       </c>
@@ -8154,9 +8181,9 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="169"/>
-      <c r="B173" s="166"/>
-      <c r="C173" s="166"/>
+      <c r="A173" s="167"/>
+      <c r="B173" s="182"/>
+      <c r="C173" s="182"/>
       <c r="D173" s="133">
         <v>172</v>
       </c>
@@ -8171,9 +8198,9 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="170"/>
-      <c r="B174" s="167"/>
-      <c r="C174" s="167"/>
+      <c r="A174" s="172"/>
+      <c r="B174" s="183"/>
+      <c r="C174" s="183"/>
       <c r="D174" s="133">
         <v>173</v>
       </c>
@@ -8188,11 +8215,11 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="165"/>
-      <c r="B175" s="165" t="s">
+      <c r="A175" s="166"/>
+      <c r="B175" s="166" t="s">
         <v>497</v>
       </c>
-      <c r="C175" s="165" t="s">
+      <c r="C175" s="166" t="s">
         <v>455</v>
       </c>
       <c r="D175" s="133">
@@ -8209,9 +8236,9 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="169"/>
-      <c r="B176" s="166"/>
-      <c r="C176" s="166"/>
+      <c r="A176" s="167"/>
+      <c r="B176" s="182"/>
+      <c r="C176" s="182"/>
       <c r="D176" s="133">
         <v>175</v>
       </c>
@@ -8226,9 +8253,9 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="169"/>
-      <c r="B177" s="166"/>
-      <c r="C177" s="166"/>
+      <c r="A177" s="167"/>
+      <c r="B177" s="182"/>
+      <c r="C177" s="182"/>
       <c r="D177" s="133">
         <v>176</v>
       </c>
@@ -8243,9 +8270,9 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="169"/>
-      <c r="B178" s="166"/>
-      <c r="C178" s="166"/>
+      <c r="A178" s="167"/>
+      <c r="B178" s="182"/>
+      <c r="C178" s="182"/>
       <c r="D178" s="133">
         <v>177</v>
       </c>
@@ -8260,9 +8287,9 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="169"/>
-      <c r="B179" s="166"/>
-      <c r="C179" s="166"/>
+      <c r="A179" s="167"/>
+      <c r="B179" s="182"/>
+      <c r="C179" s="182"/>
       <c r="D179" s="133">
         <v>178</v>
       </c>
@@ -8277,9 +8304,9 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="169"/>
-      <c r="B180" s="166"/>
-      <c r="C180" s="166"/>
+      <c r="A180" s="167"/>
+      <c r="B180" s="182"/>
+      <c r="C180" s="182"/>
       <c r="D180" s="133">
         <v>179</v>
       </c>
@@ -8294,9 +8321,9 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="170"/>
-      <c r="B181" s="167"/>
-      <c r="C181" s="167"/>
+      <c r="A181" s="172"/>
+      <c r="B181" s="183"/>
+      <c r="C181" s="183"/>
       <c r="D181" s="133">
         <v>180</v>
       </c>
@@ -8374,11 +8401,11 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="168"/>
-      <c r="B185" s="165" t="s">
+      <c r="A185" s="184"/>
+      <c r="B185" s="166" t="s">
         <v>552</v>
       </c>
-      <c r="C185" s="162" t="s">
+      <c r="C185" s="179" t="s">
         <v>516</v>
       </c>
       <c r="D185" s="133">
@@ -8395,9 +8422,9 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="169"/>
-      <c r="B186" s="166"/>
-      <c r="C186" s="163"/>
+      <c r="A186" s="167"/>
+      <c r="B186" s="182"/>
+      <c r="C186" s="180"/>
       <c r="D186" s="133">
         <v>185</v>
       </c>
@@ -8412,9 +8439,9 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="169"/>
-      <c r="B187" s="166"/>
-      <c r="C187" s="163"/>
+      <c r="A187" s="167"/>
+      <c r="B187" s="182"/>
+      <c r="C187" s="180"/>
       <c r="D187" s="133">
         <v>186</v>
       </c>
@@ -8429,9 +8456,9 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="169"/>
-      <c r="B188" s="166"/>
-      <c r="C188" s="163"/>
+      <c r="A188" s="167"/>
+      <c r="B188" s="182"/>
+      <c r="C188" s="180"/>
       <c r="D188" s="133">
         <v>187</v>
       </c>
@@ -8446,9 +8473,9 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="169"/>
-      <c r="B189" s="166"/>
-      <c r="C189" s="163"/>
+      <c r="A189" s="167"/>
+      <c r="B189" s="182"/>
+      <c r="C189" s="180"/>
       <c r="D189" s="133">
         <v>188</v>
       </c>
@@ -8463,9 +8490,9 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="169"/>
-      <c r="B190" s="166"/>
-      <c r="C190" s="163"/>
+      <c r="A190" s="167"/>
+      <c r="B190" s="182"/>
+      <c r="C190" s="180"/>
       <c r="D190" s="133">
         <v>189</v>
       </c>
@@ -8480,9 +8507,9 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="169"/>
-      <c r="B191" s="166"/>
-      <c r="C191" s="163"/>
+      <c r="A191" s="167"/>
+      <c r="B191" s="182"/>
+      <c r="C191" s="180"/>
       <c r="D191" s="133">
         <v>190</v>
       </c>
@@ -8497,9 +8524,9 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="169"/>
-      <c r="B192" s="166"/>
-      <c r="C192" s="163"/>
+      <c r="A192" s="167"/>
+      <c r="B192" s="182"/>
+      <c r="C192" s="180"/>
       <c r="D192" s="133">
         <v>191</v>
       </c>
@@ -8514,9 +8541,9 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="169"/>
-      <c r="B193" s="166"/>
-      <c r="C193" s="163"/>
+      <c r="A193" s="167"/>
+      <c r="B193" s="182"/>
+      <c r="C193" s="180"/>
       <c r="D193" s="133">
         <v>192</v>
       </c>
@@ -8531,9 +8558,9 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="169"/>
-      <c r="B194" s="166"/>
-      <c r="C194" s="163"/>
+      <c r="A194" s="167"/>
+      <c r="B194" s="182"/>
+      <c r="C194" s="180"/>
       <c r="D194" s="133">
         <v>193</v>
       </c>
@@ -8548,9 +8575,9 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="169"/>
-      <c r="B195" s="166"/>
-      <c r="C195" s="163"/>
+      <c r="A195" s="167"/>
+      <c r="B195" s="182"/>
+      <c r="C195" s="180"/>
       <c r="D195" s="133">
         <v>194</v>
       </c>
@@ -8565,9 +8592,9 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="169"/>
-      <c r="B196" s="166"/>
-      <c r="C196" s="163"/>
+      <c r="A196" s="167"/>
+      <c r="B196" s="182"/>
+      <c r="C196" s="180"/>
       <c r="D196" s="133">
         <v>195</v>
       </c>
@@ -8582,9 +8609,9 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="169"/>
-      <c r="B197" s="166"/>
-      <c r="C197" s="163"/>
+      <c r="A197" s="167"/>
+      <c r="B197" s="182"/>
+      <c r="C197" s="180"/>
       <c r="D197" s="133">
         <v>196</v>
       </c>
@@ -8599,9 +8626,9 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="169"/>
-      <c r="B198" s="166"/>
-      <c r="C198" s="163"/>
+      <c r="A198" s="167"/>
+      <c r="B198" s="182"/>
+      <c r="C198" s="180"/>
       <c r="D198" s="133">
         <v>197</v>
       </c>
@@ -8616,9 +8643,9 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="170"/>
-      <c r="B199" s="167"/>
-      <c r="C199" s="164"/>
+      <c r="A199" s="172"/>
+      <c r="B199" s="183"/>
+      <c r="C199" s="181"/>
       <c r="D199" s="133">
         <v>198</v>
       </c>
@@ -8632,8 +8659,121 @@
         <v>551</v>
       </c>
     </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="164"/>
+      <c r="B200" s="164" t="s">
+        <v>563</v>
+      </c>
+      <c r="C200" s="164" t="s">
+        <v>562</v>
+      </c>
+      <c r="D200" s="133">
+        <v>199</v>
+      </c>
+      <c r="E200" s="162" t="s">
+        <v>557</v>
+      </c>
+      <c r="F200" s="162" t="s">
+        <v>561</v>
+      </c>
+      <c r="G200" s="162" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="164"/>
+      <c r="B201" s="164"/>
+      <c r="C201" s="164"/>
+      <c r="D201" s="133">
+        <v>200</v>
+      </c>
+      <c r="E201" s="162" t="s">
+        <v>558</v>
+      </c>
+      <c r="F201" s="162" t="s">
+        <v>561</v>
+      </c>
+      <c r="G201" s="162" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="164"/>
+      <c r="B202" s="164"/>
+      <c r="C202" s="164"/>
+      <c r="D202" s="133">
+        <v>201</v>
+      </c>
+      <c r="E202" s="162" t="s">
+        <v>559</v>
+      </c>
+      <c r="F202" s="162" t="s">
+        <v>561</v>
+      </c>
+      <c r="G202" s="162" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="164"/>
+      <c r="B203" s="164"/>
+      <c r="C203" s="164"/>
+      <c r="D203" s="133">
+        <v>202</v>
+      </c>
+      <c r="E203" s="162" t="s">
+        <v>560</v>
+      </c>
+      <c r="F203" s="162" t="s">
+        <v>561</v>
+      </c>
+      <c r="G203" s="162" t="s">
+        <v>561</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="57">
+    <mergeCell ref="B200:B203"/>
+    <mergeCell ref="A200:A203"/>
+    <mergeCell ref="C200:C203"/>
+    <mergeCell ref="C185:C199"/>
+    <mergeCell ref="B185:B199"/>
+    <mergeCell ref="A185:A199"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="A175:A181"/>
+    <mergeCell ref="B175:B181"/>
+    <mergeCell ref="C175:C181"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A168:A174"/>
+    <mergeCell ref="B168:B174"/>
+    <mergeCell ref="C168:C174"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="B72:B78"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="C81:C84"/>
     <mergeCell ref="B81:B84"/>
@@ -8650,44 +8790,6 @@
     <mergeCell ref="A56:A62"/>
     <mergeCell ref="A72:A78"/>
     <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="B72:B78"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="C185:C199"/>
-    <mergeCell ref="B185:B199"/>
-    <mergeCell ref="A185:A199"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="A175:A181"/>
-    <mergeCell ref="B175:B181"/>
-    <mergeCell ref="C175:C181"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A168:A174"/>
-    <mergeCell ref="B168:B174"/>
-    <mergeCell ref="C168:C174"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="B153:B155"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/project/Integrate_120KW_megmeet/IntegrateConfig.xlsx
+++ b/config/project/Integrate_120KW_megmeet/IntegrateConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\Integrate_120KW_megmeet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A21A0885-17B4-4D5C-B306-C7BBCC34E9CC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{67F03560-B067-454C-B990-666C0014370B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="570">
   <si>
     <t>组序号</t>
   </si>
@@ -2880,6 +2880,30 @@
   </si>
   <si>
     <t>模块二维码录入</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>反接告警</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x4000000E</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘告警</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘故障</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电负载</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x80000002</t>
     <phoneticPr fontId="40" type="noConversion"/>
   </si>
 </sst>
@@ -4323,12 +4347,24 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="63" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4338,19 +4374,7 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4712,8 +4736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E207" sqref="E207"/>
+    <sheetView topLeftCell="A58" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -6667,11 +6691,11 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="178"/>
-      <c r="B99" s="178" t="s">
+      <c r="A99" s="177"/>
+      <c r="B99" s="177" t="s">
         <v>294</v>
       </c>
-      <c r="C99" s="178" t="s">
+      <c r="C99" s="177" t="s">
         <v>76</v>
       </c>
       <c r="D99" s="81">
@@ -6688,9 +6712,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="178"/>
-      <c r="B100" s="178"/>
-      <c r="C100" s="178"/>
+      <c r="A100" s="177"/>
+      <c r="B100" s="177"/>
+      <c r="C100" s="177"/>
       <c r="D100" s="81">
         <v>99</v>
       </c>
@@ -6705,9 +6729,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="178"/>
-      <c r="B101" s="178"/>
-      <c r="C101" s="178"/>
+      <c r="A101" s="177"/>
+      <c r="B101" s="177"/>
+      <c r="C101" s="177"/>
       <c r="D101" s="81">
         <v>100</v>
       </c>
@@ -6743,11 +6767,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="178"/>
-      <c r="B103" s="178" t="s">
+      <c r="A103" s="177"/>
+      <c r="B103" s="177" t="s">
         <v>296</v>
       </c>
-      <c r="C103" s="178" t="s">
+      <c r="C103" s="177" t="s">
         <v>58</v>
       </c>
       <c r="D103" s="76">
@@ -6764,9 +6788,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="185"/>
-      <c r="B104" s="185"/>
-      <c r="C104" s="185"/>
+      <c r="A104" s="180"/>
+      <c r="B104" s="180"/>
+      <c r="C104" s="180"/>
       <c r="D104" s="76">
         <v>103</v>
       </c>
@@ -6781,9 +6805,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="185"/>
-      <c r="B105" s="185"/>
-      <c r="C105" s="185"/>
+      <c r="A105" s="180"/>
+      <c r="B105" s="180"/>
+      <c r="C105" s="180"/>
       <c r="D105" s="76">
         <v>104</v>
       </c>
@@ -7785,8 +7809,8 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="177"/>
-      <c r="B153" s="186" t="s">
+      <c r="A153" s="182"/>
+      <c r="B153" s="181" t="s">
         <v>456</v>
       </c>
       <c r="C153" s="163" t="s">
@@ -7806,8 +7830,8 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="177"/>
-      <c r="B154" s="177"/>
+      <c r="A154" s="182"/>
+      <c r="B154" s="182"/>
       <c r="C154" s="163"/>
       <c r="D154" s="123">
         <v>153</v>
@@ -7823,8 +7847,8 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="177"/>
-      <c r="B155" s="177"/>
+      <c r="A155" s="182"/>
+      <c r="B155" s="182"/>
       <c r="C155" s="163"/>
       <c r="D155" s="123">
         <v>154</v>
@@ -8114,8 +8138,8 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="167"/>
-      <c r="B169" s="182"/>
-      <c r="C169" s="182"/>
+      <c r="B169" s="178"/>
+      <c r="C169" s="178"/>
       <c r="D169" s="133">
         <v>168</v>
       </c>
@@ -8131,8 +8155,8 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="167"/>
-      <c r="B170" s="182"/>
-      <c r="C170" s="182"/>
+      <c r="B170" s="178"/>
+      <c r="C170" s="178"/>
       <c r="D170" s="133">
         <v>169</v>
       </c>
@@ -8148,8 +8172,8 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="167"/>
-      <c r="B171" s="182"/>
-      <c r="C171" s="182"/>
+      <c r="B171" s="178"/>
+      <c r="C171" s="178"/>
       <c r="D171" s="133">
         <v>170</v>
       </c>
@@ -8165,8 +8189,8 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="167"/>
-      <c r="B172" s="182"/>
-      <c r="C172" s="182"/>
+      <c r="B172" s="178"/>
+      <c r="C172" s="178"/>
       <c r="D172" s="133">
         <v>171</v>
       </c>
@@ -8182,8 +8206,8 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="167"/>
-      <c r="B173" s="182"/>
-      <c r="C173" s="182"/>
+      <c r="B173" s="178"/>
+      <c r="C173" s="178"/>
       <c r="D173" s="133">
         <v>172</v>
       </c>
@@ -8199,8 +8223,8 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="172"/>
-      <c r="B174" s="183"/>
-      <c r="C174" s="183"/>
+      <c r="B174" s="179"/>
+      <c r="C174" s="179"/>
       <c r="D174" s="133">
         <v>173</v>
       </c>
@@ -8237,8 +8261,8 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="167"/>
-      <c r="B176" s="182"/>
-      <c r="C176" s="182"/>
+      <c r="B176" s="178"/>
+      <c r="C176" s="178"/>
       <c r="D176" s="133">
         <v>175</v>
       </c>
@@ -8254,8 +8278,8 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="167"/>
-      <c r="B177" s="182"/>
-      <c r="C177" s="182"/>
+      <c r="B177" s="178"/>
+      <c r="C177" s="178"/>
       <c r="D177" s="133">
         <v>176</v>
       </c>
@@ -8271,8 +8295,8 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="167"/>
-      <c r="B178" s="182"/>
-      <c r="C178" s="182"/>
+      <c r="B178" s="178"/>
+      <c r="C178" s="178"/>
       <c r="D178" s="133">
         <v>177</v>
       </c>
@@ -8288,8 +8312,8 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="167"/>
-      <c r="B179" s="182"/>
-      <c r="C179" s="182"/>
+      <c r="B179" s="178"/>
+      <c r="C179" s="178"/>
       <c r="D179" s="133">
         <v>178</v>
       </c>
@@ -8305,8 +8329,8 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="167"/>
-      <c r="B180" s="182"/>
-      <c r="C180" s="182"/>
+      <c r="B180" s="178"/>
+      <c r="C180" s="178"/>
       <c r="D180" s="133">
         <v>179</v>
       </c>
@@ -8322,8 +8346,8 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="172"/>
-      <c r="B181" s="183"/>
-      <c r="C181" s="183"/>
+      <c r="B181" s="179"/>
+      <c r="C181" s="179"/>
       <c r="D181" s="133">
         <v>180</v>
       </c>
@@ -8401,11 +8425,11 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="184"/>
+      <c r="A185" s="186"/>
       <c r="B185" s="166" t="s">
         <v>552</v>
       </c>
-      <c r="C185" s="179" t="s">
+      <c r="C185" s="183" t="s">
         <v>516</v>
       </c>
       <c r="D185" s="133">
@@ -8423,8 +8447,8 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="167"/>
-      <c r="B186" s="182"/>
-      <c r="C186" s="180"/>
+      <c r="B186" s="178"/>
+      <c r="C186" s="184"/>
       <c r="D186" s="133">
         <v>185</v>
       </c>
@@ -8440,8 +8464,8 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="167"/>
-      <c r="B187" s="182"/>
-      <c r="C187" s="180"/>
+      <c r="B187" s="178"/>
+      <c r="C187" s="184"/>
       <c r="D187" s="133">
         <v>186</v>
       </c>
@@ -8452,13 +8476,13 @@
         <v>520</v>
       </c>
       <c r="G187" s="128" t="s">
-        <v>529</v>
+        <v>556</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="167"/>
-      <c r="B188" s="182"/>
-      <c r="C188" s="180"/>
+      <c r="B188" s="178"/>
+      <c r="C188" s="184"/>
       <c r="D188" s="133">
         <v>187</v>
       </c>
@@ -8474,8 +8498,8 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="167"/>
-      <c r="B189" s="182"/>
-      <c r="C189" s="180"/>
+      <c r="B189" s="178"/>
+      <c r="C189" s="184"/>
       <c r="D189" s="133">
         <v>188</v>
       </c>
@@ -8491,8 +8515,8 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="167"/>
-      <c r="B190" s="182"/>
-      <c r="C190" s="180"/>
+      <c r="B190" s="178"/>
+      <c r="C190" s="184"/>
       <c r="D190" s="133">
         <v>189</v>
       </c>
@@ -8508,8 +8532,8 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="167"/>
-      <c r="B191" s="182"/>
-      <c r="C191" s="180"/>
+      <c r="B191" s="178"/>
+      <c r="C191" s="184"/>
       <c r="D191" s="133">
         <v>190</v>
       </c>
@@ -8525,8 +8549,8 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="167"/>
-      <c r="B192" s="182"/>
-      <c r="C192" s="180"/>
+      <c r="B192" s="178"/>
+      <c r="C192" s="184"/>
       <c r="D192" s="133">
         <v>191</v>
       </c>
@@ -8542,8 +8566,8 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="167"/>
-      <c r="B193" s="182"/>
-      <c r="C193" s="180"/>
+      <c r="B193" s="178"/>
+      <c r="C193" s="184"/>
       <c r="D193" s="133">
         <v>192</v>
       </c>
@@ -8559,8 +8583,8 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="167"/>
-      <c r="B194" s="182"/>
-      <c r="C194" s="180"/>
+      <c r="B194" s="178"/>
+      <c r="C194" s="184"/>
       <c r="D194" s="133">
         <v>193</v>
       </c>
@@ -8576,8 +8600,8 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="167"/>
-      <c r="B195" s="182"/>
-      <c r="C195" s="180"/>
+      <c r="B195" s="178"/>
+      <c r="C195" s="184"/>
       <c r="D195" s="133">
         <v>194</v>
       </c>
@@ -8593,8 +8617,8 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="167"/>
-      <c r="B196" s="182"/>
-      <c r="C196" s="180"/>
+      <c r="B196" s="178"/>
+      <c r="C196" s="184"/>
       <c r="D196" s="133">
         <v>195</v>
       </c>
@@ -8610,8 +8634,8 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="167"/>
-      <c r="B197" s="182"/>
-      <c r="C197" s="180"/>
+      <c r="B197" s="178"/>
+      <c r="C197" s="184"/>
       <c r="D197" s="133">
         <v>196</v>
       </c>
@@ -8627,8 +8651,8 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="167"/>
-      <c r="B198" s="182"/>
-      <c r="C198" s="180"/>
+      <c r="B198" s="178"/>
+      <c r="C198" s="184"/>
       <c r="D198" s="133">
         <v>197</v>
       </c>
@@ -8644,8 +8668,8 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="172"/>
-      <c r="B199" s="183"/>
-      <c r="C199" s="181"/>
+      <c r="B199" s="179"/>
+      <c r="C199" s="185"/>
       <c r="D199" s="133">
         <v>198</v>
       </c>
@@ -9611,10 +9635,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -9720,6 +9744,62 @@
         <v>140</v>
       </c>
       <c r="D7" s="33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>564</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>565</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>565</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>566</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>567</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>568</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>267</v>
       </c>
     </row>
@@ -10247,7 +10327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
